--- a/artifacts/pwy_xls/ccm_v0_to_hopa_gen_4_tan_sample_1_n_samples_1000.xlsx
+++ b/artifacts/pwy_xls/ccm_v0_to_hopa_gen_4_tan_sample_1_n_samples_1000.xlsx
@@ -500,16 +500,24 @@
       <c r="E2" t="n">
         <v>0.7048834784828606</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P0A9T0,Q60176;P0DOW0,Q1NEI6</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t xml:space="preserve">RXN-16701: [P0A9T0, Q60176] | R08198_reverse: [] | KETOGLUTREDUCT-RXN: [] | 1.1.99.2_4: [] | 1.1.1.95_03: [] | 1.1.1.95_02: [] | 1.1.1.399_1: [] | 1.1.1.337_14: [] | 1.1.1.28_11: [] | R04375_reverse: [] | RXN-12095_reverse: [P0DOW0, Q1NEI6] | </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -533,12 +541,24 @@
       <c r="E3" t="n">
         <v>0.6936518030858891</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-5364: [] | </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -562,12 +582,24 @@
       <c r="E4" t="n">
         <v>0.6887816732157593</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-5364: [] | </t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -591,16 +623,24 @@
       <c r="E5" t="n">
         <v>0.6773349574881309</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>B1XMM5,P23970;A0PA85,O30418,O81101,P14748,P18088,P20228,P48318,P48319,P48320,P48321,P58228,P69908,P69909,P69910,P69911,P69912,Q04792,Q05329,Q05683,Q07346,Q0VCA1,Q24062,Q42472,Q42521,Q49854,Q49855,Q49863,Q4PRC2,Q54IJ3,Q54VQ5,Q59956,Q5IS68,Q5R7S7,Q83PR1,Q8FHG5,Q8Y4K4,Q928K4,Q928R9,Q99259,Q9CG20,Q9EYW9,Q9F5P3,Q9LSH2,Q9ZPS3,Q9ZPS4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t xml:space="preserve">RXN-7774: [B1XMM5, P23970] | R00272_reverse: [] | 4.1.1.72_38: [] | 4.1.1.71_1: [] | R00261_reverse: [] | GLUTDECARBOX-RXN: [A0PA85, O30418, O81101, P14748, P18088, P20228, P48318, P48319, P48320, P48321, P58228, P69908, P69909, P69910, P69911, P69912, Q04792, Q05329, Q05683, Q07346, Q0VCA1, Q24062, Q42472, Q42521, Q49854, Q49855, Q49863, Q4PRC2, Q54IJ3, Q54VQ5, Q59956, Q5IS68, Q5R7S7, Q83PR1, Q8FHG5, Q8Y4K4, Q928K4, Q928R9, Q99259, Q9CG20, Q9EYW9, Q9F5P3, Q9LSH2, Q9ZPS3, Q9ZPS4] | 4.1.1.15_0: [] | R04135_reverse: [] | HYDROXYGLUTAMATE-DECARBOXYLASE-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -624,20 +664,24 @@
       <c r="E6" t="n">
         <v>0.6706040300244622</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -663,18 +707,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A0PN13,A0PST9,A0QMB9,A0R4Q0,A1KF54,A1KJE8,A5TYV9,A5U390,B1XMM6,O32507,O69497,O85997,P25526,P38067,P55653,P94428,P9WNX6,P9WNX7,P9WNX8,Q0K2K1,Q4KKA2,Q55585,Q73TP5,Q7TZP3,Q9JTN7,Q9RBF6</t>
+          <t xml:space="preserve">SUCCSEMIALDDEHYDROG-RXN_reverse: [A0PN13, A0PST9, A0QMB9, A0R4Q0, A1KF54, A1KJE8, A5TYV9, A5U390, B1XMM6, O32507, O69497, O85997, P25526, P38067, P55653, P94428, P9WNX6, P9WNX7, P9WNX8, Q0K2K1, Q4KKA2, Q55585, Q73TP5, Q7TZP3, Q9JTN7, Q9RBF6] | R00714_reverse: [] | 1.2.1.79 ()_6: [] | 1.2.1.24_53: [] | 1.2.1.16_25: [] | </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2.1.9_09: [] | </t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -698,18 +746,26 @@
       <c r="E8" t="n">
         <v>0.6664706024101628</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -731,10 +787,26 @@
       <c r="E9" t="n">
         <v>0.661230838519083</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.30_07: [] | </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.230_01: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,18 +830,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | 1.14.15.3_06: [] | RXN-17667: [] | </t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -795,18 +871,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A0PN13,A0PST9,A0QMB9,A0R4Q0,A1KF54,A1KJE8,A5TYV9,A5U390,B1XMM6,O32507,O69497,O85997,P25526,P38067,P55653,P94428,P9WNX6,P9WNX7,P9WNX8,Q0K2K1,Q4KKA2,Q55585,Q73TP5,Q7TZP3,Q9JTN7,Q9RBF6</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t xml:space="preserve">SUCCSEMIALDDEHYDROG-RXN_reverse: [A0PN13, A0PST9, A0QMB9, A0R4Q0, A1KF54, A1KJE8, A5TYV9, A5U390, B1XMM6, O32507, O69497, O85997, P25526, P38067, P55653, P94428, P9WNX6, P9WNX7, P9WNX8, Q0K2K1, Q4KKA2, Q55585, Q73TP5, Q7TZP3, Q9JTN7, Q9RBF6] | R00714_reverse: [] | 1.2.1.79 ()_6: [] | 1.2.1.24_53: [] | 1.2.1.16_25: [] | </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -830,10 +910,26 @@
       <c r="E12" t="n">
         <v>0.6385486595869041</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.30_03: [] | 1.1.3.18_12: [] | </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.230_01: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -855,10 +951,26 @@
       <c r="E13" t="n">
         <v>0.6299796943336232</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-5364: [] | </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -880,14 +992,26 @@
       <c r="E14" t="n">
         <v>0.6286419595548166</v>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>P0A9T0,Q60176;P0DOW0,Q1NEI6</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t xml:space="preserve">RXN-16701: [P0A9T0, Q60176] | R08198_reverse: [] | KETOGLUTREDUCT-RXN: [] | 1.1.99.2_4: [] | 1.1.1.95_03: [] | 1.1.1.95_02: [] | 1.1.1.399_1: [] | 1.1.1.337_14: [] | 1.1.1.28_11: [] | R04375_reverse: [] | RXN-12095_reverse: [P0DOW0, Q1NEI6] | </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,10 +1033,26 @@
       <c r="E15" t="n">
         <v>0.6251095644634934</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-5364: [] | </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -934,14 +1074,26 @@
       <c r="E16" t="n">
         <v>0.6224246148449786</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -965,20 +1117,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A0PN13,A0PST9,A0QMB9,A0R4Q0,A1KF54,A1KJE8,A5TYV9,A5U390,B1XMM6,O32507,O69497,O85997,P25526,P38067,P55653,P94428,P9WNX6,P9WNX7,P9WNX8,Q0K2K1,Q4KKA2,Q55585,Q73TP5,Q7TZP3,Q9JTN7,Q9RBF6</t>
+          <t xml:space="preserve">SUCCSEMIALDDEHYDROG-RXN_reverse: [A0PN13, A0PST9, A0QMB9, A0R4Q0, A1KF54, A1KJE8, A5TYV9, A5U390, B1XMM6, O32507, O69497, O85997, P25526, P38067, P55653, P94428, P9WNX6, P9WNX7, P9WNX8, Q0K2K1, Q4KKA2, Q55585, Q73TP5, Q7TZP3, Q9JTN7, Q9RBF6] | R00714_reverse: [] | 1.2.1.79 ()_6: [] | 1.2.1.24_53: [] | 1.2.1.16_25: [] | </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E3PY95,E3PY96,Q8VPJ6</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t xml:space="preserve">R02461_reverse: [] | ORNMUTST-RXN: [E3PY95, E3PY96, Q8VPJ6] | 5.4.3.5_0: [] | </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1002,12 +1158,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17643: [] | </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1029,20 +1197,24 @@
       <c r="E19" t="n">
         <v>0.6167811544272332</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -1066,14 +1238,26 @@
       <c r="E20" t="n">
         <v>0.613662848735865</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>B1XMM5,P23970;A0PA85,O30418,O81101,P14748,P18088,P20228,P48318,P48319,P48320,P48321,P58228,P69908,P69909,P69910,P69911,P69912,Q04792,Q05329,Q05683,Q07346,Q0VCA1,Q24062,Q42472,Q42521,Q49854,Q49855,Q49863,Q4PRC2,Q54IJ3,Q54VQ5,Q59956,Q5IS68,Q5R7S7,Q83PR1,Q8FHG5,Q8Y4K4,Q928K4,Q928R9,Q99259,Q9CG20,Q9EYW9,Q9F5P3,Q9LSH2,Q9ZPS3,Q9ZPS4</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t xml:space="preserve">RXN-7774: [B1XMM5, P23970] | R00272_reverse: [] | 4.1.1.72_38: [] | 4.1.1.71_1: [] | R00261_reverse: [] | GLUTDECARBOX-RXN: [A0PA85, O30418, O81101, P14748, P18088, P20228, P48318, P48319, P48320, P48321, P58228, P69908, P69909, P69910, P69911, P69912, Q04792, Q05329, Q05683, Q07346, Q0VCA1, Q24062, Q42472, Q42521, Q49854, Q49855, Q49863, Q4PRC2, Q54IJ3, Q54VQ5, Q59956, Q5IS68, Q5R7S7, Q83PR1, Q8FHG5, Q8Y4K4, Q928K4, Q928R9, Q99259, Q9CG20, Q9EYW9, Q9F5P3, Q9LSH2, Q9ZPS3, Q9ZPS4] | 4.1.1.15_0: [] | R04135_reverse: [] | HYDROXYGLUTAMATE-DECARBOXYLASE-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1095,16 +1279,24 @@
       <c r="E21" t="n">
         <v>0.6071150065490927</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
+          <t xml:space="preserve">RXN-14300_reverse: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_6: [] | </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -1130,16 +1322,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A0PN13,A0PST9,A0QMB9,A0R4Q0,A1KF54,A1KJE8,A5TYV9,A5U390,B1XMM6,O32507,O69497,O85997,P25526,P38067,P55653,P94428,P9WNX6,P9WNX7,P9WNX8,Q0K2K1,Q4KKA2,Q55585,Q73TP5,Q7TZP3,Q9JTN7,Q9RBF6</t>
+          <t xml:space="preserve">SUCCSEMIALDDEHYDROG-RXN_reverse: [A0PN13, A0PST9, A0QMB9, A0R4Q0, A1KF54, A1KJE8, A5TYV9, A5U390, B1XMM6, O32507, O69497, O85997, P25526, P38067, P55653, P94428, P9WNX6, P9WNX7, P9WNX8, Q0K2K1, Q4KKA2, Q55585, Q73TP5, Q7TZP3, Q9JTN7, Q9RBF6] | R00714_reverse: [] | 1.2.1.79 ()_6: [] | 1.2.1.24_53: [] | 1.2.1.16_25: [] | </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2.1.9_09: [] | </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1161,14 +1361,26 @@
       <c r="E23" t="n">
         <v>0.6004142343986375</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1190,16 +1402,24 @@
       <c r="E24" t="n">
         <v>0.5945455963733146</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
+          <t xml:space="preserve">RXN-14300_reverse: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_6: [] | </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -1225,16 +1445,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A9IE89</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t xml:space="preserve">RXN-13639: [] | RXN-13635: [] | RXN-13636: [A9IE89] | </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,10 +1484,26 @@
       <c r="E26" t="n">
         <v>0.5916602287199233</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.1.1.15_11: [] | </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.92_18: [] | </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2.1.9_09: [] | </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1283,18 +1527,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -1320,16 +1568,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-7746_reverse: [] | R00995_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1353,12 +1609,24 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.1_014: [] | R03871: [] | </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1380,16 +1648,24 @@
       <c r="E30" t="n">
         <v>0.5875663923923253</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -1415,16 +1691,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A9IE89</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+          <t xml:space="preserve">RXN-13639: [] | RXN-13635: [] | RXN-13636: [A9IE89] | </t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1446,18 +1730,26 @@
       <c r="E32" t="n">
         <v>0.5814847346131756</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>A4JPX9,A6TAC6,A7ZI97,A7ZWZ7,B1LIN5,B2JQV8,B5Z2Q5,B7L506,B7M2Z8,B7MPB7,B7N8Q7,B7NK05,C1DRI8,P23107,P77608,Q13VU0,Q3Z556,Q400K2,Q47GC8,Q47HM0,Q49KF9,Q706S1,Q8XEC1,Q9KWS4,Q9S156</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t xml:space="preserve">4.2.1.80_5: [] | 2-OXOPENT-4-ENOATE-HYDRATASE-RXN_reverse: [A4JPX9, A6TAC6, A7ZI97, A7ZWZ7, B1LIN5, B2JQV8, B5Z2Q5, B7L506, B7M2Z8, B7MPB7, B7N8Q7, B7NK05, C1DRI8, P23107, P77608, Q13VU0, Q3Z556, Q400K2, Q47GC8, Q47HM0, Q49KF9, Q706S1, Q8XEC1, Q9KWS4, Q9S156] | </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-9168: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1479,18 +1771,26 @@
       <c r="E33" t="n">
         <v>0.5801129198464637</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>E3PY95,E3PY96,Q8VPJ6</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t xml:space="preserve">R02461_reverse: [] | ORNMUTST-RXN: [E3PY95, E3PY96, Q8VPJ6] | 5.4.3.5_0: [] | </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1514,16 +1814,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A0PN13,A0PST9,A0QMB9,A0R4Q0,A1KF54,A1KJE8,A5TYV9,A5U390,B1XMM6,O32507,O69497,O85997,P25526,P38067,P55653,P94428,P9WNX6,P9WNX7,P9WNX8,Q0K2K1,Q4KKA2,Q55585,Q73TP5,Q7TZP3,Q9JTN7,Q9RBF6</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t xml:space="preserve">SUCCSEMIALDDEHYDROG-RXN_reverse: [A0PN13, A0PST9, A0QMB9, A0R4Q0, A1KF54, A1KJE8, A5TYV9, A5U390, B1XMM6, O32507, O69497, O85997, P25526, P38067, P55653, P94428, P9WNX6, P9WNX7, P9WNX8, Q0K2K1, Q4KKA2, Q55585, Q73TP5, Q7TZP3, Q9JTN7, Q9RBF6] | R00714_reverse: [] | 1.2.1.79 ()_6: [] | 1.2.1.24_53: [] | 1.2.1.16_25: [] | </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1545,10 +1853,26 @@
       <c r="E35" t="n">
         <v>0.5774211066686677</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.30_03: [] | 1.1.3.18_12: [] | </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,10 +1894,26 @@
       <c r="E36" t="n">
         <v>0.5761677072059519</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.99.24_7: [] | </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.230_01: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1595,15 +1935,19 @@
       <c r="E37" t="n">
         <v>0.576125339140127</v>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1628,20 +1972,24 @@
       <c r="E38" t="n">
         <v>0.5752472149501634</v>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -1665,14 +2013,26 @@
       <c r="E39" t="n">
         <v>0.5751129198464637</v>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1694,18 +2054,26 @@
       <c r="E40" t="n">
         <v>0.5531090456749673</v>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1727,14 +2095,26 @@
       <c r="E41" t="n">
         <v>0.5434428977968268</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14300_reverse: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_6: [] | </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1756,14 +2136,26 @@
       <c r="E42" t="n">
         <v>0.5335789803693938</v>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1787,12 +2179,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17643: [] | </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_06: [] | </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1814,14 +2218,26 @@
       <c r="E44" t="n">
         <v>0.5274410951772042</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1843,10 +2259,26 @@
       <c r="E45" t="n">
         <v>0.5150401542877154</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.99.24_7: [] | </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1868,18 +2300,26 @@
       <c r="E46" t="n">
         <v>0.5115751061978975</v>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1903,16 +2343,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A9IE89</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+          <t xml:space="preserve">RXN-13639: [] | RXN-13635: [] | RXN-13636: [A9IE89] | </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_06: [] | </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1934,14 +2382,26 @@
       <c r="E48" t="n">
         <v>0.4916563922366481</v>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15545: [] | </t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.7.1.2_09: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1963,13 +2423,21 @@
       <c r="E49" t="n">
         <v>0.4912291941371058</v>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1994,16 +2462,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2025,14 +2501,26 @@
       <c r="E51" t="n">
         <v>0.4859071557001342</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2056,20 +2544,24 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>P80193,Q19000,Q5R5D8,Q924Y0,Q98KK0,Q9QZU7</t>
+          <t xml:space="preserve">R02397_reverse: [] | 1.14.11.1_1: [] | 1.14.11.1-RXN: [P80193, Q19000, Q5R5D8, Q924Y0, Q98KK0, Q9QZU7] | </t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2091,14 +2583,26 @@
       <c r="E53" t="n">
         <v>0.4667670158634638</v>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2120,10 +2624,26 @@
       <c r="E54" t="n">
         <v>0.4650750152754703</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.2.1.4-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2147,14 +2667,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>A0PN13,A0PST9,A0QMB9,A0R4Q0,A1KF54,A1KJE8,A5TYV9,A5U390,B1XMM6,O32507,O69497,O85997,P25526,P38067,P55653,P94428,P9WNX6,P9WNX7,P9WNX8,Q0K2K1,Q4KKA2,Q55585,Q73TP5,Q7TZP3,Q9JTN7,Q9RBF6</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+          <t xml:space="preserve">SUCCSEMIALDDEHYDROG-RXN_reverse: [A0PN13, A0PST9, A0QMB9, A0R4Q0, A1KF54, A1KJE8, A5TYV9, A5U390, B1XMM6, O32507, O69497, O85997, P25526, P38067, P55653, P94428, P9WNX6, P9WNX7, P9WNX8, Q0K2K1, Q4KKA2, Q55585, Q73TP5, Q7TZP3, Q9JTN7, Q9RBF6] | R00714_reverse: [] | 1.2.1.79 ()_6: [] | 1.2.1.24_53: [] | 1.2.1.16_25: [] | </t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2178,12 +2706,24 @@
       <c r="E56" t="n">
         <v>0.4308978818933625</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.15_29: [] | 1.1.3.15_28: [] | </t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2207,12 +2747,24 @@
       <c r="E57" t="n">
         <v>0.4308978818933625</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.15_29: [] | 1.1.3.15_28: [] | </t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2236,16 +2788,24 @@
       <c r="E58" t="n">
         <v>0.429134091246657</v>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2269,12 +2829,24 @@
       <c r="E59" t="n">
         <v>0.4258025922208106</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.345 ()_13: [] | 1.1.1.337_16: [] | </t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2298,12 +2870,24 @@
       <c r="E60" t="n">
         <v>0.4093229690085572</v>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.5.1.99_33: [] | </t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2327,12 +2911,24 @@
       <c r="E61" t="n">
         <v>0.4093229690085572</v>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.5.1.99_33: [] | </t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2356,12 +2952,24 @@
       <c r="E62" t="n">
         <v>0.4034661407488938</v>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2387,12 +2995,24 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2414,16 +3034,24 @@
       <c r="E64" t="n">
         <v>0.3876001517695871</v>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2447,12 +3075,24 @@
       <c r="E65" t="n">
         <v>0.3793313530305816</v>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2476,10 +3116,26 @@
       <c r="E66" t="n">
         <v>0.3643655880959236</v>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.1.49_0: [] | </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2501,12 +3157,24 @@
       <c r="E67" t="n">
         <v>0.3619322012718239</v>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.30_03: [] | 1.1.3.18_12: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2530,14 +3198,26 @@
       <c r="E68" t="n">
         <v>0.3431013875595447</v>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15545: [] | </t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2559,18 +3239,26 @@
       <c r="E69" t="n">
         <v>0.307949888371452</v>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2655,12 +3343,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A0AK91,A0B5E0,A0JXZ6,A0K937,A0KEM1,A0L626,A0M380,A0PPY3,A0Q0E9,A0QJC6,A0QUX8,A0RQ02,A0RXE1,A1AHU6,A1AS39,A1AW99,A1B2W3,A1BES5,A1JI57,A1KAB7,A1KMZ6,A1KUZ8,A1RRZ8,A1SAS8,A1T6Y9,A1TRT6,A1TZ11,A1UE95,A1UT97,A1V2K2,A1VE41,A1VN04,A1VYZ2,A1W6T4,A1WUW3,A2BSN6,A2BY22,A2C482,A2CB87,A2RKQ6,A2S472,A2SHM0,A2SR20,A3CQ86,A3CXJ5,A3DIE1,A3M254,A3MI87,A3MX05,A3N3E9,A3N7K4,A3NT91,A3PEE9,A3PH14,A3PXP9,A4FMQ5,A4FYE4,A4G4H8,A4IRH9,A4J179,A4JGE3,A4QDN4,A4SFC5,A4STE2,A4SXR3,A4TE07,A4TRD9,A4VPI6,A4VXL3,A4W3V8,A4WG34,A4WLK6,A4WQ93,A4X4A5,A4XIL7,A4XR11,A4YZA6,A5CPY6,A5CWZ1,A5EPB5,A5F449,A5FFY3,A5FR44,A5G1L8,A5G7V3,A5GMM6,A5GRI8,A5IJM5,A5IUK2,A5U713,A5UE34,A5UHH1,A5UMJ9,A5V3W3,A5VRC9,A5W952,A5WD25,A6LPX8,A6Q461,A6QIQ2,A6SZZ1,A6TGG1,A6TTL2,A6U3E1,A6UAW6,A6USF9,A6VCE7,A6VJW0,A6VLU1,A6W216,A6W7N6,A6WZX5,A7FD32,A7GMU0,A7GXQ8,A7H4H9,A7HVZ2,A7I0D4,A7I5I8,A7IFE5,A7MQH1,A7NJH8,A7X4M9,A7Z7B9,A7ZEF1,A7ZTX6,A8A6N0,A8ACS4,A8AVN4,A8ERD8,A8FFW6,A8FL53,A8G6C6,A8GL54,A8I679,A8L548,A8LS39,A8M5F9,A8MDY9,A8Z4V9,A9A2E4,A9A7D0,A9AJN1,A9AZM5,A9BBT2,A9BGP6,A9BME9,A9GW78,A9GZJ4,A9IGJ3,A9IW67,A9KQ65,A9M177,A9M637,A9MJN4,A9MXE7,A9R8G1,A9VZF3,A9WC26,A9WP08,B0BTD3,B0CE35,B0CHG8,B0JRP2,B0K0Y0,B0KAH3,B0KHU2,B0RIN6,B0RP32,B0SCQ5,B0SL33,B0T4Y1,B0TCQ9,B0U8N5,B0UWE8,B0V5G8,B0VKP5,B1HR99,B1I9N6,B1IWC4,B1J2D7,B1JQ26,B1JVQ4,B1L8U5,B1LLU9,B1LXF3,B1VG26,B1VZ72,B1WNP1,B1X9Z0,B1XL20,B1XUJ0,B1XYB1,B1Y9N6,B1YTS0,B1ZI53,B2GFJ7,B2HTC8,B2IHY4,B2ILY8,B2J2U6,B2JDN9,B2JZH8,B2S6K5,B2SNG5,B2T2D1,B2TIR4,B2TU17,B2U7S3,B2URB8,B2USG1,B2UYT8,B2V7F0,B2VG69,B3E5X4,B3EHP0,B3EKV1,B3PK17,B3PT89,B3QCW2,B3QSP0,B3R3V4,B4E5N5,B4F1U6,B4RG67,B4S1X4,B4S6N3,B4SDK7,B4SZ22,B4TB09,B4TNS6,B4UAN4,B5BIS2,B5E1Q6,B5EP52,B5EZ33,B5FCV4,B5FN70,B5QVG7,B5RFS8,B5XYZ8,B5YEF3,B5YJT0,B5YY23,B5ZVQ5,B6EP33,B6I4B1,B6ITR6,B6JB83,B7GH18,B7H047,B7I5I9,B7J643,B7K0S6,B7KF23,B7KYZ3,B7L8B5,B7LU79,B7M5C2,B7MGI6,B7N269,B7NF81,B7NTG7,B7UMN1,B7V1A6,B7VGL9,B8CX20,B8D8B4,B8D8F7,B8DBU5,B8DNQ9,B8DVE0,B8E2W8,B8EKP4,B8F6G2,B8FU98,B8G7X1,B8GIC5,B8GUB6,B8GXW2,B8HAS8,B8HNI6,B8I1T8,B8IGT3,B8J2E2,B8J829,B8ZLL0,B9DMJ5,B9EBF4,B9JGH5,B9JXM6,B9KB98,B9KCI3,B9KM37,B9KYS1,B9LGM7,B9M5B1,B9MA35,B9MNV1,C0Q2V3,C0QMX0,C0QTD8,C0R090,C0RE20,C0Z9C7,C0ZXM2,C1B2M1,C1C5I0,C1CCK9,C1CIU7,C1CPV5,C1CWT7,C1DA41,C1DFH7,C1F6Z5,C1KWT0,C3K225,C3LQ01,C3ME70,C3MQK4,C3MW82,C3N6C4,C3NET2,C3NGW2,C3PFX1,C4KHT9,C4L8N9,C4LJH6,C4XSF4,C4ZZ44,C5BBA8,C5BQZ6,C5C2I2,C5CYN9,C5D5M1,C6BXE6,C6DHG3,C8WR67,D0WGK0,O25097,O27491,O32414,O33114,O51888,O67289,O82043,P05793,P05989,P06168,P29107,P37253,P38674,P44822,P57655,P58256,P65150,P65151,P65152,P65153,P78827,P84534,P97115,P9WKJ6,P9WKJ7,Q01292,Q02138,Q02CM4,Q02FX9,Q02YY8,Q03IJ9,Q03UU4,Q04M32,Q04P56,Q056H8,Q05758,Q07PJ7,Q0AB89,Q0AGM0,Q0BDB6,Q0BS26,Q0C516,Q0I511,Q0IC80,Q0RDI8,Q0S2H3,Q0TAU6,Q0VSB5,Q0W834,Q10WP7,Q11I83,Q11VZ3,Q12B50,Q12Y03,Q139A2,Q142I6,Q15MY4,Q168N1,Q17X66,Q18C83,Q18GT4,Q1ARE4,Q1BAR7,Q1BUZ9,Q1CBS1,Q1CNM0,Q1CUH1,Q1GE81,Q1GT37,Q1GZE9,Q1I4R5,Q1ILZ3,Q1J0T2,Q1LPX7,Q1MED4,Q1QDE6,Q1QJU8,Q1R092,Q1R4G3,Q211Z6,Q21HN0,Q21T70,Q24XT5,Q28T07,Q2FF68,Q2FM37,Q2FWK4,Q2G623,Q2IJB7,Q2IUS3,Q2J6V2,Q2JKN5,Q2JXL2,Q2K6M2,Q2KWH7,Q2NAU8,Q2NI95,Q2NQA9,Q2P757,Q2RIS6,Q2RX71,Q2S0M9,Q2S9V9,Q2SZP8,Q2W1G2,Q2YBU1,Q2YQN2,Q2YUF3,Q30T61,Q30ZD3,Q319H3,Q31HZ1,Q31MY7,Q31UL0,Q329V3,Q39ED2,Q39W76,Q3AEQ7,Q3ALC5,Q3APC3,Q3AVC2,Q3B594,Q3BPK3,Q3IE45,Q3IRQ2,Q3J5C0,Q3J875,Q3JUC2,Q3K6T1,Q3MGX7,Q3SHE4,Q3SQ46,Q3YVJ0,Q3Z891,Q3ZXI2,Q46FY8,Q46JF6,Q473V5,Q47BH8,Q47SB6,Q47UP4,Q48N66,Q491Z2,Q49Z11,Q4FPQ6,Q4FUB6,Q4J8K9,Q4JUN9,Q4K608,Q4L7T9,Q4QMN4,Q4UYF7,Q4ZY66,Q52955,Q57179,Q57CC7,Q57HU2,Q58938,Q59500,Q59818,Q5E1S3,Q5F7E5,Q5FRY8,Q5H4C1,Q5HEE5,Q5HMG0,Q5HVD9,Q5KWJ2,Q5LTP7,Q5LXV0,Q5M2F2,Q5N667,Q5NXP4,Q5PJZ5,Q5SJ03,Q5V520,Q5WEN2,Q5YRW2,Q605K9,Q62IM0,Q63CV4,Q63DX9,Q63VP6,Q65GI7,Q65WK8,Q65XK0,Q66G37,Q6A7Z2,Q6AEP2,Q6CZD1,Q6F821,Q6FZ98,Q6G2T6,Q6G7Q2,Q6GF17,Q6HKA1,Q6HLF4,Q6LVZ5,Q6LZH4,Q6N869,Q6NHN2,Q71Y36,Q72CA6,Q72JC8,Q72M00,Q73A47,Q73BA1,Q73VH7,Q74BW9,Q7M851,Q7MQH3,Q7MYK9,Q7NH80,Q7P0H9,Q7U5Q1,Q7UB34,Q7UKY0,Q7V0F0,Q7V8M5,Q7VAR8,Q7VGW6,Q7VRM0,Q7VZU4,Q7W566,Q7WCP6,Q81F27,Q81G13,Q81S27,Q81T69,Q82UZ3,Q83GP6,Q83HI9,Q87CM2,Q87TN4,Q888N4,Q88DZ0,Q89A20,Q89G50,Q8CRQ6,Q8DDC8,Q8DGR0,Q8DR03,Q8DW43,Q8E9D5,Q8EN66,Q8EYH2,Q8FBR2,Q8FPX1,Q8FZU1,Q8G6V1,Q8G6V2,Q8KER7,Q8KTR6,Q8P5L5,Q8PH09,Q8PZ26,Q8RDK4,Q8TJJ4,Q8TX44,Q8U2A3,Q8UDV0,Q8XXN8,Q8Y5S0,Q8YI21,Q8YUM5,Q8Z381,Q8ZAC2,Q8ZTE1,Q92A29,Q971A9,Q97MV0,Q97SD7,Q97X13,Q97YJ9,Q98KM7,Q9A6H4,Q9AQ96,Q9AQ97,Q9AQ98,Q9AQ99,Q9AQA0,Q9CLF1,Q9F0I7,Q9F7L6,Q9FBT8,Q9HVA2,Q9JTI3,Q9JYI2,Q9K8E7,Q9KVI4,Q9PCF9,Q9PHN5,Q9RQ47,Q9RQ51,Q9RQ55,Q9RU74,Q9UWX9,Q9UZ09,Q9WZ20,Q9X5F8,Q9Z565,Q9ZMA9</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t xml:space="preserve">R04439: [] | R03051_reverse: [] | ACETOLACTREDUCTOISOM-RXN: [A0AK91, A0B5E0, A0JXZ6, A0K937, A0KEM1, A0L626, A0M380, A0PPY3, A0Q0E9, A0QJC6, A0QUX8, A0RQ02, A0RXE1, A1AHU6, A1AS39, A1AW99, A1B2W3, A1BES5, A1JI57, A1KAB7, A1KMZ6, A1KUZ8, A1RRZ8, A1SAS8, A1T6Y9, A1TRT6, A1TZ11, A1UE95, A1UT97, A1V2K2, A1VE41, A1VN04, A1VYZ2, A1W6T4, A1WUW3, A2BSN6, A2BY22, A2C482, A2CB87, A2RKQ6, A2S472, A2SHM0, A2SR20, A3CQ86, A3CXJ5, A3DIE1, A3M254, A3MI87, A3MX05, A3N3E9, A3N7K4, A3NT91, A3PEE9, A3PH14, A3PXP9, A4FMQ5, A4FYE4, A4G4H8, A4IRH9, A4J179, A4JGE3, A4QDN4, A4SFC5, A4STE2, A4SXR3, A4TE07, A4TRD9, A4VPI6, A4VXL3, A4W3V8, A4WG34, A4WLK6, A4WQ93, A4X4A5, A4XIL7, A4XR11, A4YZA6, A5CPY6, A5CWZ1, A5EPB5, A5F449, A5FFY3, A5FR44, A5G1L8, A5G7V3, A5GMM6, A5GRI8, A5IJM5, A5IUK2, A5U713, A5UE34, A5UHH1, A5UMJ9, A5V3W3, A5VRC9, A5W952, A5WD25, A6LPX8, A6Q461, A6QIQ2, A6SZZ1, A6TGG1, A6TTL2, A6U3E1, A6UAW6, A6USF9, A6VCE7, A6VJW0, A6VLU1, A6W216, A6W7N6, A6WZX5, A7FD32, A7GMU0, A7GXQ8, A7H4H9, A7HVZ2, A7I0D4, A7I5I8, A7IFE5, A7MQH1, A7NJH8, A7X4M9, A7Z7B9, A7ZEF1, A7ZTX6, A8A6N0, A8ACS4, A8AVN4, A8ERD8, A8FFW6, A8FL53, A8G6C6, A8GL54, A8I679, A8L548, A8LS39, A8M5F9, A8MDY9, A8Z4V9, A9A2E4, A9A7D0, A9AJN1, A9AZM5, A9BBT2, A9BGP6, A9BME9, A9GW78, A9GZJ4, A9IGJ3, A9IW67, A9KQ65, A9M177, A9M637, A9MJN4, A9MXE7, A9R8G1, A9VZF3, A9WC26, A9WP08, B0BTD3, B0CE35, B0CHG8, B0JRP2, B0K0Y0, B0KAH3, B0KHU2, B0RIN6, B0RP32, B0SCQ5, B0SL33, B0T4Y1, B0TCQ9, B0U8N5, B0UWE8, B0V5G8, B0VKP5, B1HR99, B1I9N6, B1IWC4, B1J2D7, B1JQ26, B1JVQ4, B1L8U5, B1LLU9, B1LXF3, B1VG26, B1VZ72, B1WNP1, B1X9Z0, B1XL20, B1XUJ0, B1XYB1, B1Y9N6, B1YTS0, B1ZI53, B2GFJ7, B2HTC8, B2IHY4, B2ILY8, B2J2U6, B2JDN9, B2JZH8, B2S6K5, B2SNG5, B2T2D1, B2TIR4, B2TU17, B2U7S3, B2URB8, B2USG1, B2UYT8, B2V7F0, B2VG69, B3E5X4, B3EHP0, B3EKV1, B3PK17, B3PT89, B3QCW2, B3QSP0, B3R3V4, B4E5N5, B4F1U6, B4RG67, B4S1X4, B4S6N3, B4SDK7, B4SZ22, B4TB09, B4TNS6, B4UAN4, B5BIS2, B5E1Q6, B5EP52, B5EZ33, B5FCV4, B5FN70, B5QVG7, B5RFS8, B5XYZ8, B5YEF3, B5YJT0, B5YY23, B5ZVQ5, B6EP33, B6I4B1, B6ITR6, B6JB83, B7GH18, B7H047, B7I5I9, B7J643, B7K0S6, B7KF23, B7KYZ3, B7L8B5, B7LU79, B7M5C2, B7MGI6, B7N269, B7NF81, B7NTG7, B7UMN1, B7V1A6, B7VGL9, B8CX20, B8D8B4, B8D8F7, B8DBU5, B8DNQ9, B8DVE0, B8E2W8, B8EKP4, B8F6G2, B8FU98, B8G7X1, B8GIC5, B8GUB6, B8GXW2, B8HAS8, B8HNI6, B8I1T8, B8IGT3, B8J2E2, B8J829, B8ZLL0, B9DMJ5, B9EBF4, B9JGH5, B9JXM6, B9KB98, B9KCI3, B9KM37, B9KYS1, B9LGM7, B9M5B1, B9MA35, B9MNV1, C0Q2V3, C0QMX0, C0QTD8, C0R090, C0RE20, C0Z9C7, C0ZXM2, C1B2M1, C1C5I0, C1CCK9, C1CIU7, C1CPV5, C1CWT7, C1DA41, C1DFH7, C1F6Z5, C1KWT0, C3K225, C3LQ01, C3ME70, C3MQK4, C3MW82, C3N6C4, C3NET2, C3NGW2, C3PFX1, C4KHT9, C4L8N9, C4LJH6, C4XSF4, C4ZZ44, C5BBA8, C5BQZ6, C5C2I2, C5CYN9, C5D5M1, C6BXE6, C6DHG3, C8WR67, D0WGK0, O25097, O27491, O32414, O33114, O51888, O67289, O82043, P05793, P05989, P06168, P29107, P37253, P38674, P44822, P57655, P58256, P65150, P65151, P65152, P65153, P78827, P84534, P97115, P9WKJ6, P9WKJ7, Q01292, Q02138, Q02CM4, Q02FX9, Q02YY8, Q03IJ9, Q03UU4, Q04M32, Q04P56, Q056H8, Q05758, Q07PJ7, Q0AB89, Q0AGM0, Q0BDB6, Q0BS26, Q0C516, Q0I511, Q0IC80, Q0RDI8, Q0S2H3, Q0TAU6, Q0VSB5, Q0W834, Q10WP7, Q11I83, Q11VZ3, Q12B50, Q12Y03, Q139A2, Q142I6, Q15MY4, Q168N1, Q17X66, Q18C83, Q18GT4, Q1ARE4, Q1BAR7, Q1BUZ9, Q1CBS1, Q1CNM0, Q1CUH1, Q1GE81, Q1GT37, Q1GZE9, Q1I4R5, Q1ILZ3, Q1J0T2, Q1LPX7, Q1MED4, Q1QDE6, Q1QJU8, Q1R092, Q1R4G3, Q211Z6, Q21HN0, Q21T70, Q24XT5, Q28T07, Q2FF68, Q2FM37, Q2FWK4, Q2G623, Q2IJB7, Q2IUS3, Q2J6V2, Q2JKN5, Q2JXL2, Q2K6M2, Q2KWH7, Q2NAU8, Q2NI95, Q2NQA9, Q2P757, Q2RIS6, Q2RX71, Q2S0M9, Q2S9V9, Q2SZP8, Q2W1G2, Q2YBU1, Q2YQN2, Q2YUF3, Q30T61, Q30ZD3, Q319H3, Q31HZ1, Q31MY7, Q31UL0, Q329V3, Q39ED2, Q39W76, Q3AEQ7, Q3ALC5, Q3APC3, Q3AVC2, Q3B594, Q3BPK3, Q3IE45, Q3IRQ2, Q3J5C0, Q3J875, Q3JUC2, Q3K6T1, Q3MGX7, Q3SHE4, Q3SQ46, Q3YVJ0, Q3Z891, Q3ZXI2, Q46FY8, Q46JF6, Q473V5, Q47BH8, Q47SB6, Q47UP4, Q48N66, Q491Z2, Q49Z11, Q4FPQ6, Q4FUB6, Q4J8K9, Q4JUN9, Q4K608, Q4L7T9, Q4QMN4, Q4UYF7, Q4ZY66, Q52955, Q57179, Q57CC7, Q57HU2, Q58938, Q59500, Q59818, Q5E1S3, Q5F7E5, Q5FRY8, Q5H4C1, Q5HEE5, Q5HMG0, Q5HVD9, Q5KWJ2, Q5LTP7, Q5LXV0, Q5M2F2, Q5N667, Q5NXP4, Q5PJZ5, Q5SJ03, Q5V520, Q5WEN2, Q5YRW2, Q605K9, Q62IM0, Q63CV4, Q63DX9, Q63VP6, Q65GI7, Q65WK8, Q65XK0, Q66G37, Q6A7Z2, Q6AEP2, Q6CZD1, Q6F821, Q6FZ98, Q6G2T6, Q6G7Q2, Q6GF17, Q6HKA1, Q6HLF4, Q6LVZ5, Q6LZH4, Q6N869, Q6NHN2, Q71Y36, Q72CA6, Q72JC8, Q72M00, Q73A47, Q73BA1, Q73VH7, Q74BW9, Q7M851, Q7MQH3, Q7MYK9, Q7NH80, Q7P0H9, Q7U5Q1, Q7UB34, Q7UKY0, Q7V0F0, Q7V8M5, Q7VAR8, Q7VGW6, Q7VRM0, Q7VZU4, Q7W566, Q7WCP6, Q81F27, Q81G13, Q81S27, Q81T69, Q82UZ3, Q83GP6, Q83HI9, Q87CM2, Q87TN4, Q888N4, Q88DZ0, Q89A20, Q89G50, Q8CRQ6, Q8DDC8, Q8DGR0, Q8DR03, Q8DW43, Q8E9D5, Q8EN66, Q8EYH2, Q8FBR2, Q8FPX1, Q8FZU1, Q8G6V1, Q8G6V2, Q8KER7, Q8KTR6, Q8P5L5, Q8PH09, Q8PZ26, Q8RDK4, Q8TJJ4, Q8TX44, Q8U2A3, Q8UDV0, Q8XXN8, Q8Y5S0, Q8YI21, Q8YUM5, Q8Z381, Q8ZAC2, Q8ZTE1, Q92A29, Q971A9, Q97MV0, Q97SD7, Q97X13, Q97YJ9, Q98KM7, Q9A6H4, Q9AQ96, Q9AQ97, Q9AQ98, Q9AQ99, Q9AQA0, Q9CLF1, Q9F0I7, Q9F7L6, Q9FBT8, Q9HVA2, Q9JTI3, Q9JYI2, Q9K8E7, Q9KVI4, Q9PCF9, Q9PHN5, Q9RQ47, Q9RQ51, Q9RQ55, Q9RU74, Q9UWX9, Q9UZ09, Q9WZ20, Q9X5F8, Q9Z565, Q9ZMA9] | 1.1.1.86_09: [] | 1.1.1.86_08: [] | 1.1.1.86_01: [] | 1.1.1.383_7: [] | 1.1.1.383_1: [] | </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | 3.7.1.5_0: [] | R01335_reverse: [] | 3.7.1.2_08: [] | RXN-12096_reverse: [] | 3.7.1.2_05: [] | R00324: [] | ACETYLPYRUVATE-HYDROLASE-RXN_reverse: [] | 3.7.1.2_03: [] | </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2684,14 +3384,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A0AK91,A0B5E0,A0JXZ6,A0K937,A0KEM1,A0L626,A0M380,A0PPY3,A0Q0E9,A0QJC6,A0QUX8,A0RQ02,A0RXE1,A1AHU6,A1AS39,A1AW99,A1B2W3,A1BES5,A1JI57,A1KAB7,A1KMZ6,A1KUZ8,A1RRZ8,A1SAS8,A1T6Y9,A1TRT6,A1TZ11,A1UE95,A1UT97,A1V2K2,A1VE41,A1VN04,A1VYZ2,A1W6T4,A1WUW3,A2BSN6,A2BY22,A2C482,A2CB87,A2RKQ6,A2S472,A2SHM0,A2SR20,A3CQ86,A3CXJ5,A3DIE1,A3M254,A3MI87,A3MX05,A3N3E9,A3N7K4,A3NT91,A3PEE9,A3PH14,A3PXP9,A4FMQ5,A4FYE4,A4G4H8,A4IRH9,A4J179,A4JGE3,A4QDN4,A4SFC5,A4STE2,A4SXR3,A4TE07,A4TRD9,A4VPI6,A4VXL3,A4W3V8,A4WG34,A4WLK6,A4WQ93,A4X4A5,A4XIL7,A4XR11,A4YZA6,A5CPY6,A5CWZ1,A5EPB5,A5F449,A5FFY3,A5FR44,A5G1L8,A5G7V3,A5GMM6,A5GRI8,A5IJM5,A5IUK2,A5U713,A5UE34,A5UHH1,A5UMJ9,A5V3W3,A5VRC9,A5W952,A5WD25,A6LPX8,A6Q461,A6QIQ2,A6SZZ1,A6TGG1,A6TTL2,A6U3E1,A6UAW6,A6USF9,A6VCE7,A6VJW0,A6VLU1,A6W216,A6W7N6,A6WZX5,A7FD32,A7GMU0,A7GXQ8,A7H4H9,A7HVZ2,A7I0D4,A7I5I8,A7IFE5,A7MQH1,A7NJH8,A7X4M9,A7Z7B9,A7ZEF1,A7ZTX6,A8A6N0,A8ACS4,A8AVN4,A8ERD8,A8FFW6,A8FL53,A8G6C6,A8GL54,A8I679,A8L548,A8LS39,A8M5F9,A8MDY9,A8Z4V9,A9A2E4,A9A7D0,A9AJN1,A9AZM5,A9BBT2,A9BGP6,A9BME9,A9GW78,A9GZJ4,A9IGJ3,A9IW67,A9KQ65,A9M177,A9M637,A9MJN4,A9MXE7,A9R8G1,A9VZF3,A9WC26,A9WP08,B0BTD3,B0CE35,B0CHG8,B0JRP2,B0K0Y0,B0KAH3,B0KHU2,B0RIN6,B0RP32,B0SCQ5,B0SL33,B0T4Y1,B0TCQ9,B0U8N5,B0UWE8,B0V5G8,B0VKP5,B1HR99,B1I9N6,B1IWC4,B1J2D7,B1JQ26,B1JVQ4,B1L8U5,B1LLU9,B1LXF3,B1VG26,B1VZ72,B1WNP1,B1X9Z0,B1XL20,B1XUJ0,B1XYB1,B1Y9N6,B1YTS0,B1ZI53,B2GFJ7,B2HTC8,B2IHY4,B2ILY8,B2J2U6,B2JDN9,B2JZH8,B2S6K5,B2SNG5,B2T2D1,B2TIR4,B2TU17,B2U7S3,B2URB8,B2USG1,B2UYT8,B2V7F0,B2VG69,B3E5X4,B3EHP0,B3EKV1,B3PK17,B3PT89,B3QCW2,B3QSP0,B3R3V4,B4E5N5,B4F1U6,B4RG67,B4S1X4,B4S6N3,B4SDK7,B4SZ22,B4TB09,B4TNS6,B4UAN4,B5BIS2,B5E1Q6,B5EP52,B5EZ33,B5FCV4,B5FN70,B5QVG7,B5RFS8,B5XYZ8,B5YEF3,B5YJT0,B5YY23,B5ZVQ5,B6EP33,B6I4B1,B6ITR6,B6JB83,B7GH18,B7H047,B7I5I9,B7J643,B7K0S6,B7KF23,B7KYZ3,B7L8B5,B7LU79,B7M5C2,B7MGI6,B7N269,B7NF81,B7NTG7,B7UMN1,B7V1A6,B7VGL9,B8CX20,B8D8B4,B8D8F7,B8DBU5,B8DNQ9,B8DVE0,B8E2W8,B8EKP4,B8F6G2,B8FU98,B8G7X1,B8GIC5,B8GUB6,B8GXW2,B8HAS8,B8HNI6,B8I1T8,B8IGT3,B8J2E2,B8J829,B8ZLL0,B9DMJ5,B9EBF4,B9JGH5,B9JXM6,B9KB98,B9KCI3,B9KM37,B9KYS1,B9LGM7,B9M5B1,B9MA35,B9MNV1,C0Q2V3,C0QMX0,C0QTD8,C0R090,C0RE20,C0Z9C7,C0ZXM2,C1B2M1,C1C5I0,C1CCK9,C1CIU7,C1CPV5,C1CWT7,C1DA41,C1DFH7,C1F6Z5,C1KWT0,C3K225,C3LQ01,C3ME70,C3MQK4,C3MW82,C3N6C4,C3NET2,C3NGW2,C3PFX1,C4KHT9,C4L8N9,C4LJH6,C4XSF4,C4ZZ44,C5BBA8,C5BQZ6,C5C2I2,C5CYN9,C5D5M1,C6BXE6,C6DHG3,C8WR67,D0WGK0,O25097,O27491,O32414,O33114,O51888,O67289,O82043,P05793,P05989,P06168,P29107,P37253,P38674,P44822,P57655,P58256,P65150,P65151,P65152,P65153,P78827,P84534,P97115,P9WKJ6,P9WKJ7,Q01292,Q02138,Q02CM4,Q02FX9,Q02YY8,Q03IJ9,Q03UU4,Q04M32,Q04P56,Q056H8,Q05758,Q07PJ7,Q0AB89,Q0AGM0,Q0BDB6,Q0BS26,Q0C516,Q0I511,Q0IC80,Q0RDI8,Q0S2H3,Q0TAU6,Q0VSB5,Q0W834,Q10WP7,Q11I83,Q11VZ3,Q12B50,Q12Y03,Q139A2,Q142I6,Q15MY4,Q168N1,Q17X66,Q18C83,Q18GT4,Q1ARE4,Q1BAR7,Q1BUZ9,Q1CBS1,Q1CNM0,Q1CUH1,Q1GE81,Q1GT37,Q1GZE9,Q1I4R5,Q1ILZ3,Q1J0T2,Q1LPX7,Q1MED4,Q1QDE6,Q1QJU8,Q1R092,Q1R4G3,Q211Z6,Q21HN0,Q21T70,Q24XT5,Q28T07,Q2FF68,Q2FM37,Q2FWK4,Q2G623,Q2IJB7,Q2IUS3,Q2J6V2,Q2JKN5,Q2JXL2,Q2K6M2,Q2KWH7,Q2NAU8,Q2NI95,Q2NQA9,Q2P757,Q2RIS6,Q2RX71,Q2S0M9,Q2S9V9,Q2SZP8,Q2W1G2,Q2YBU1,Q2YQN2,Q2YUF3,Q30T61,Q30ZD3,Q319H3,Q31HZ1,Q31MY7,Q31UL0,Q329V3,Q39ED2,Q39W76,Q3AEQ7,Q3ALC5,Q3APC3,Q3AVC2,Q3B594,Q3BPK3,Q3IE45,Q3IRQ2,Q3J5C0,Q3J875,Q3JUC2,Q3K6T1,Q3MGX7,Q3SHE4,Q3SQ46,Q3YVJ0,Q3Z891,Q3ZXI2,Q46FY8,Q46JF6,Q473V5,Q47BH8,Q47SB6,Q47UP4,Q48N66,Q491Z2,Q49Z11,Q4FPQ6,Q4FUB6,Q4J8K9,Q4JUN9,Q4K608,Q4L7T9,Q4QMN4,Q4UYF7,Q4ZY66,Q52955,Q57179,Q57CC7,Q57HU2,Q58938,Q59500,Q59818,Q5E1S3,Q5F7E5,Q5FRY8,Q5H4C1,Q5HEE5,Q5HMG0,Q5HVD9,Q5KWJ2,Q5LTP7,Q5LXV0,Q5M2F2,Q5N667,Q5NXP4,Q5PJZ5,Q5SJ03,Q5V520,Q5WEN2,Q5YRW2,Q605K9,Q62IM0,Q63CV4,Q63DX9,Q63VP6,Q65GI7,Q65WK8,Q65XK0,Q66G37,Q6A7Z2,Q6AEP2,Q6CZD1,Q6F821,Q6FZ98,Q6G2T6,Q6G7Q2,Q6GF17,Q6HKA1,Q6HLF4,Q6LVZ5,Q6LZH4,Q6N869,Q6NHN2,Q71Y36,Q72CA6,Q72JC8,Q72M00,Q73A47,Q73BA1,Q73VH7,Q74BW9,Q7M851,Q7MQH3,Q7MYK9,Q7NH80,Q7P0H9,Q7U5Q1,Q7UB34,Q7UKY0,Q7V0F0,Q7V8M5,Q7VAR8,Q7VGW6,Q7VRM0,Q7VZU4,Q7W566,Q7WCP6,Q81F27,Q81G13,Q81S27,Q81T69,Q82UZ3,Q83GP6,Q83HI9,Q87CM2,Q87TN4,Q888N4,Q88DZ0,Q89A20,Q89G50,Q8CRQ6,Q8DDC8,Q8DGR0,Q8DR03,Q8DW43,Q8E9D5,Q8EN66,Q8EYH2,Q8FBR2,Q8FPX1,Q8FZU1,Q8G6V1,Q8G6V2,Q8KER7,Q8KTR6,Q8P5L5,Q8PH09,Q8PZ26,Q8RDK4,Q8TJJ4,Q8TX44,Q8U2A3,Q8UDV0,Q8XXN8,Q8Y5S0,Q8YI21,Q8YUM5,Q8Z381,Q8ZAC2,Q8ZTE1,Q92A29,Q971A9,Q97MV0,Q97SD7,Q97X13,Q97YJ9,Q98KM7,Q9A6H4,Q9AQ96,Q9AQ97,Q9AQ98,Q9AQ99,Q9AQA0,Q9CLF1,Q9F0I7,Q9F7L6,Q9FBT8,Q9HVA2,Q9JTI3,Q9JYI2,Q9K8E7,Q9KVI4,Q9PCF9,Q9PHN5,Q9RQ47,Q9RQ51,Q9RQ55,Q9RU74,Q9UWX9,Q9UZ09,Q9WZ20,Q9X5F8,Q9Z565,Q9ZMA9</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t xml:space="preserve">R04439: [] | R03051_reverse: [] | ACETOLACTREDUCTOISOM-RXN: [A0AK91, A0B5E0, A0JXZ6, A0K937, A0KEM1, A0L626, A0M380, A0PPY3, A0Q0E9, A0QJC6, A0QUX8, A0RQ02, A0RXE1, A1AHU6, A1AS39, A1AW99, A1B2W3, A1BES5, A1JI57, A1KAB7, A1KMZ6, A1KUZ8, A1RRZ8, A1SAS8, A1T6Y9, A1TRT6, A1TZ11, A1UE95, A1UT97, A1V2K2, A1VE41, A1VN04, A1VYZ2, A1W6T4, A1WUW3, A2BSN6, A2BY22, A2C482, A2CB87, A2RKQ6, A2S472, A2SHM0, A2SR20, A3CQ86, A3CXJ5, A3DIE1, A3M254, A3MI87, A3MX05, A3N3E9, A3N7K4, A3NT91, A3PEE9, A3PH14, A3PXP9, A4FMQ5, A4FYE4, A4G4H8, A4IRH9, A4J179, A4JGE3, A4QDN4, A4SFC5, A4STE2, A4SXR3, A4TE07, A4TRD9, A4VPI6, A4VXL3, A4W3V8, A4WG34, A4WLK6, A4WQ93, A4X4A5, A4XIL7, A4XR11, A4YZA6, A5CPY6, A5CWZ1, A5EPB5, A5F449, A5FFY3, A5FR44, A5G1L8, A5G7V3, A5GMM6, A5GRI8, A5IJM5, A5IUK2, A5U713, A5UE34, A5UHH1, A5UMJ9, A5V3W3, A5VRC9, A5W952, A5WD25, A6LPX8, A6Q461, A6QIQ2, A6SZZ1, A6TGG1, A6TTL2, A6U3E1, A6UAW6, A6USF9, A6VCE7, A6VJW0, A6VLU1, A6W216, A6W7N6, A6WZX5, A7FD32, A7GMU0, A7GXQ8, A7H4H9, A7HVZ2, A7I0D4, A7I5I8, A7IFE5, A7MQH1, A7NJH8, A7X4M9, A7Z7B9, A7ZEF1, A7ZTX6, A8A6N0, A8ACS4, A8AVN4, A8ERD8, A8FFW6, A8FL53, A8G6C6, A8GL54, A8I679, A8L548, A8LS39, A8M5F9, A8MDY9, A8Z4V9, A9A2E4, A9A7D0, A9AJN1, A9AZM5, A9BBT2, A9BGP6, A9BME9, A9GW78, A9GZJ4, A9IGJ3, A9IW67, A9KQ65, A9M177, A9M637, A9MJN4, A9MXE7, A9R8G1, A9VZF3, A9WC26, A9WP08, B0BTD3, B0CE35, B0CHG8, B0JRP2, B0K0Y0, B0KAH3, B0KHU2, B0RIN6, B0RP32, B0SCQ5, B0SL33, B0T4Y1, B0TCQ9, B0U8N5, B0UWE8, B0V5G8, B0VKP5, B1HR99, B1I9N6, B1IWC4, B1J2D7, B1JQ26, B1JVQ4, B1L8U5, B1LLU9, B1LXF3, B1VG26, B1VZ72, B1WNP1, B1X9Z0, B1XL20, B1XUJ0, B1XYB1, B1Y9N6, B1YTS0, B1ZI53, B2GFJ7, B2HTC8, B2IHY4, B2ILY8, B2J2U6, B2JDN9, B2JZH8, B2S6K5, B2SNG5, B2T2D1, B2TIR4, B2TU17, B2U7S3, B2URB8, B2USG1, B2UYT8, B2V7F0, B2VG69, B3E5X4, B3EHP0, B3EKV1, B3PK17, B3PT89, B3QCW2, B3QSP0, B3R3V4, B4E5N5, B4F1U6, B4RG67, B4S1X4, B4S6N3, B4SDK7, B4SZ22, B4TB09, B4TNS6, B4UAN4, B5BIS2, B5E1Q6, B5EP52, B5EZ33, B5FCV4, B5FN70, B5QVG7, B5RFS8, B5XYZ8, B5YEF3, B5YJT0, B5YY23, B5ZVQ5, B6EP33, B6I4B1, B6ITR6, B6JB83, B7GH18, B7H047, B7I5I9, B7J643, B7K0S6, B7KF23, B7KYZ3, B7L8B5, B7LU79, B7M5C2, B7MGI6, B7N269, B7NF81, B7NTG7, B7UMN1, B7V1A6, B7VGL9, B8CX20, B8D8B4, B8D8F7, B8DBU5, B8DNQ9, B8DVE0, B8E2W8, B8EKP4, B8F6G2, B8FU98, B8G7X1, B8GIC5, B8GUB6, B8GXW2, B8HAS8, B8HNI6, B8I1T8, B8IGT3, B8J2E2, B8J829, B8ZLL0, B9DMJ5, B9EBF4, B9JGH5, B9JXM6, B9KB98, B9KCI3, B9KM37, B9KYS1, B9LGM7, B9M5B1, B9MA35, B9MNV1, C0Q2V3, C0QMX0, C0QTD8, C0R090, C0RE20, C0Z9C7, C0ZXM2, C1B2M1, C1C5I0, C1CCK9, C1CIU7, C1CPV5, C1CWT7, C1DA41, C1DFH7, C1F6Z5, C1KWT0, C3K225, C3LQ01, C3ME70, C3MQK4, C3MW82, C3N6C4, C3NET2, C3NGW2, C3PFX1, C4KHT9, C4L8N9, C4LJH6, C4XSF4, C4ZZ44, C5BBA8, C5BQZ6, C5C2I2, C5CYN9, C5D5M1, C6BXE6, C6DHG3, C8WR67, D0WGK0, O25097, O27491, O32414, O33114, O51888, O67289, O82043, P05793, P05989, P06168, P29107, P37253, P38674, P44822, P57655, P58256, P65150, P65151, P65152, P65153, P78827, P84534, P97115, P9WKJ6, P9WKJ7, Q01292, Q02138, Q02CM4, Q02FX9, Q02YY8, Q03IJ9, Q03UU4, Q04M32, Q04P56, Q056H8, Q05758, Q07PJ7, Q0AB89, Q0AGM0, Q0BDB6, Q0BS26, Q0C516, Q0I511, Q0IC80, Q0RDI8, Q0S2H3, Q0TAU6, Q0VSB5, Q0W834, Q10WP7, Q11I83, Q11VZ3, Q12B50, Q12Y03, Q139A2, Q142I6, Q15MY4, Q168N1, Q17X66, Q18C83, Q18GT4, Q1ARE4, Q1BAR7, Q1BUZ9, Q1CBS1, Q1CNM0, Q1CUH1, Q1GE81, Q1GT37, Q1GZE9, Q1I4R5, Q1ILZ3, Q1J0T2, Q1LPX7, Q1MED4, Q1QDE6, Q1QJU8, Q1R092, Q1R4G3, Q211Z6, Q21HN0, Q21T70, Q24XT5, Q28T07, Q2FF68, Q2FM37, Q2FWK4, Q2G623, Q2IJB7, Q2IUS3, Q2J6V2, Q2JKN5, Q2JXL2, Q2K6M2, Q2KWH7, Q2NAU8, Q2NI95, Q2NQA9, Q2P757, Q2RIS6, Q2RX71, Q2S0M9, Q2S9V9, Q2SZP8, Q2W1G2, Q2YBU1, Q2YQN2, Q2YUF3, Q30T61, Q30ZD3, Q319H3, Q31HZ1, Q31MY7, Q31UL0, Q329V3, Q39ED2, Q39W76, Q3AEQ7, Q3ALC5, Q3APC3, Q3AVC2, Q3B594, Q3BPK3, Q3IE45, Q3IRQ2, Q3J5C0, Q3J875, Q3JUC2, Q3K6T1, Q3MGX7, Q3SHE4, Q3SQ46, Q3YVJ0, Q3Z891, Q3ZXI2, Q46FY8, Q46JF6, Q473V5, Q47BH8, Q47SB6, Q47UP4, Q48N66, Q491Z2, Q49Z11, Q4FPQ6, Q4FUB6, Q4J8K9, Q4JUN9, Q4K608, Q4L7T9, Q4QMN4, Q4UYF7, Q4ZY66, Q52955, Q57179, Q57CC7, Q57HU2, Q58938, Q59500, Q59818, Q5E1S3, Q5F7E5, Q5FRY8, Q5H4C1, Q5HEE5, Q5HMG0, Q5HVD9, Q5KWJ2, Q5LTP7, Q5LXV0, Q5M2F2, Q5N667, Q5NXP4, Q5PJZ5, Q5SJ03, Q5V520, Q5WEN2, Q5YRW2, Q605K9, Q62IM0, Q63CV4, Q63DX9, Q63VP6, Q65GI7, Q65WK8, Q65XK0, Q66G37, Q6A7Z2, Q6AEP2, Q6CZD1, Q6F821, Q6FZ98, Q6G2T6, Q6G7Q2, Q6GF17, Q6HKA1, Q6HLF4, Q6LVZ5, Q6LZH4, Q6N869, Q6NHN2, Q71Y36, Q72CA6, Q72JC8, Q72M00, Q73A47, Q73BA1, Q73VH7, Q74BW9, Q7M851, Q7MQH3, Q7MYK9, Q7NH80, Q7P0H9, Q7U5Q1, Q7UB34, Q7UKY0, Q7V0F0, Q7V8M5, Q7VAR8, Q7VGW6, Q7VRM0, Q7VZU4, Q7W566, Q7WCP6, Q81F27, Q81G13, Q81S27, Q81T69, Q82UZ3, Q83GP6, Q83HI9, Q87CM2, Q87TN4, Q888N4, Q88DZ0, Q89A20, Q89G50, Q8CRQ6, Q8DDC8, Q8DGR0, Q8DR03, Q8DW43, Q8E9D5, Q8EN66, Q8EYH2, Q8FBR2, Q8FPX1, Q8FZU1, Q8G6V1, Q8G6V2, Q8KER7, Q8KTR6, Q8P5L5, Q8PH09, Q8PZ26, Q8RDK4, Q8TJJ4, Q8TX44, Q8U2A3, Q8UDV0, Q8XXN8, Q8Y5S0, Q8YI21, Q8YUM5, Q8Z381, Q8ZAC2, Q8ZTE1, Q92A29, Q971A9, Q97MV0, Q97SD7, Q97X13, Q97YJ9, Q98KM7, Q9A6H4, Q9AQ96, Q9AQ97, Q9AQ98, Q9AQ99, Q9AQA0, Q9CLF1, Q9F0I7, Q9F7L6, Q9FBT8, Q9HVA2, Q9JTI3, Q9JYI2, Q9K8E7, Q9KVI4, Q9PCF9, Q9PHN5, Q9RQ47, Q9RQ51, Q9RQ55, Q9RU74, Q9UWX9, Q9UZ09, Q9WZ20, Q9X5F8, Q9Z565, Q9ZMA9] | 1.1.1.86_09: [] | 1.1.1.86_08: [] | 1.1.1.86_01: [] | 1.1.1.383_7: [] | 1.1.1.383_1: [] | </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.11.4_0: [] | RXN-16488: [] | RXN-16489: [] | </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -2715,20 +3423,24 @@
       <c r="E4" t="n">
         <v>0.3688952426600416</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | 3.7.1.5_0: [] | R01335_reverse: [] | 3.7.1.2_08: [] | RXN-12096_reverse: [] | 3.7.1.2_05: [] | R00324: [] | ACETYLPYRUVATE-HYDROLASE-RXN_reverse: [] | 3.7.1.2_03: [] | </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P80193,Q19000,Q5R5D8,Q924Y0,Q98KK0,Q9QZU7</t>
+          <t xml:space="preserve">R02397_reverse: [] | 1.14.11.1_1: [] | 1.14.11.1-RXN: [P80193, Q19000, Q5R5D8, Q924Y0, Q98KK0, Q9QZU7] | </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
         </is>
       </c>
     </row>
@@ -2815,14 +3527,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P54115,Q56694</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t xml:space="preserve">RXN-6002_reverse: [P54115, Q56694] | </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17667: [] | </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -2846,16 +3566,24 @@
       <c r="E3" t="n">
         <v>0.6589002405516347</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>D4GP41,Q6FFQ0,Q97UA1,Q9I1Q0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t xml:space="preserve">R00264_reverse: [] | 25-DIOXOVALERATE-DEHYDROGENASE-RXN_reverse: [D4GP41, Q6FFQ0, Q97UA1, Q9I1Q0] | 1.2.1.26_01: [] | 1.2.1.16_07: [] | </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -2879,16 +3607,24 @@
       <c r="E4" t="n">
         <v>0.6552723602282261</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17667: [] | </t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>H8ZPX2</t>
+          <t xml:space="preserve">RXN-13089_reverse: [H8ZPX2] | </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -2912,12 +3648,24 @@
       <c r="E5" t="n">
         <v>0.6528509727537242</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | </t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -2941,16 +3689,24 @@
       <c r="E6" t="n">
         <v>0.6386912265773175</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R00360: [] | 1.13.12.4_2: [] | </t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -2974,20 +3730,24 @@
       <c r="E7" t="n">
         <v>0.6285310011137832</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P0A9T0,Q60176</t>
+          <t xml:space="preserve">RXN-16701_reverse: [P0A9T0, Q60176] | R08198: [] | KETOGLUTREDUCT-RXN_reverse: [] | 1.1.99.2_1: [] | 1.1.1.95_01: [] | 1.1.1.95_00: [] | 1.1.1.399_0: [] | 1.1.1.337_08: [] | 1.1.1.28_04: [] | </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -3011,11 +3771,19 @@
       <c r="E8" t="n">
         <v>0.6224757382460293</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -3040,20 +3808,24 @@
       <c r="E9" t="n">
         <v>0.6171586299317264</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>D4GP41,Q6FFQ0,Q97UA1,Q9I1Q0</t>
+          <t xml:space="preserve">R00264_reverse: [] | 25-DIOXOVALERATE-DEHYDROGENASE-RXN_reverse: [D4GP41, Q6FFQ0, Q97UA1, Q9I1Q0] | 1.2.1.26_01: [] | 1.2.1.16_07: [] | </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
+          <t xml:space="preserve">RXN-14300: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_2: [] | </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -3077,10 +3849,26 @@
       <c r="E10" t="n">
         <v>0.5955609074144348</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07985: [] | 1.1.1.291_0: [] | 1.1.1.291-RXN_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3102,14 +3890,26 @@
       <c r="E11" t="n">
         <v>0.5952281317993686</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>D4GP41,Q6FFQ0,Q97UA1,Q9I1Q0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t xml:space="preserve">R00264_reverse: [] | 25-DIOXOVALERATE-DEHYDROGENASE-RXN_reverse: [D4GP41, Q6FFQ0, Q97UA1, Q9I1Q0] | 1.2.1.26_01: [] | 1.2.1.16_07: [] | </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -3131,16 +3931,24 @@
       <c r="E12" t="n">
         <v>0.5900244369396193</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>H8ZPX2</t>
+          <t xml:space="preserve">RXN-13089_reverse: [H8ZPX2] | </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -3164,16 +3972,24 @@
       <c r="E13" t="n">
         <v>0.5865839097116974</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.1_108: [] | 1.2.3.15_08: [] | </t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
+          <t xml:space="preserve">RXN-14300: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_2: [] | </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -3197,10 +4013,26 @@
       <c r="E14" t="n">
         <v>0.5801740516535511</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.1_108: [] | 1.2.3.15_08: [] | </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3222,18 +4054,26 @@
       <c r="E15" t="n">
         <v>0.574649250675293</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Q2VEQ7</t>
+          <t xml:space="preserve">RXN-13719_reverse: [Q2VEQ7] | 1.1.1.272_01: [] | 1.1.1.184_074: [] | 1.1.1.110_03: [] | </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3255,9 +4095,21 @@
       <c r="E16" t="n">
         <v>0.5579910999366894</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3280,10 +4132,26 @@
       <c r="E17" t="n">
         <v>0.5550149649929538</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.1_108: [] | 1.2.3.15_08: [] | </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07985: [] | 1.1.1.291_0: [] | 1.1.1.291-RXN_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3305,10 +4173,26 @@
       <c r="E18" t="n">
         <v>0.5547019244162215</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.1_108: [] | 1.2.3.15_08: [] | </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3330,18 +4214,26 @@
       <c r="E19" t="n">
         <v>0.5534865211794604</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>D4GP41,Q6FFQ0,Q97UA1,Q9I1Q0</t>
+          <t xml:space="preserve">R00264_reverse: [] | 25-DIOXOVALERATE-DEHYDROGENASE-RXN_reverse: [D4GP41, Q6FFQ0, Q97UA1, Q9I1Q0] | 1.2.1.26_01: [] | 1.2.1.16_07: [] | </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14300: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_2: [] | </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3363,14 +4255,26 @@
       <c r="E20" t="n">
         <v>0.541760181945243</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>B1XMM5,P23970;A0PA85,O30418,O81101,P14748,P18088,P20228,P48318,P48319,P48320,P48321,P58228,P69908,P69909,P69910,P69911,P69912,Q04792,Q05329,Q05683,Q07346,Q0VCA1,Q24062,Q42472,Q42521,Q49854,Q49855,Q49863,Q4PRC2,Q54IJ3,Q54VQ5,Q59956,Q5IS68,Q5R7S7,Q83PR1,Q8FHG5,Q8Y4K4,Q928K4,Q928R9,Q99259,Q9CG20,Q9EYW9,Q9F5P3,Q9LSH2,Q9ZPS3,Q9ZPS4</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t xml:space="preserve">RXN-7774: [B1XMM5, P23970] | R00272_reverse: [] | 4.1.1.72_38: [] | 4.1.1.71_1: [] | R00261_reverse: [] | GLUTDECARBOX-RXN: [A0PA85, O30418, O81101, P14748, P18088, P20228, P48318, P48319, P48320, P48321, P58228, P69908, P69909, P69910, P69911, P69912, Q04792, Q05329, Q05683, Q07346, Q0VCA1, Q24062, Q42472, Q42521, Q49854, Q49855, Q49863, Q4PRC2, Q54IJ3, Q54VQ5, Q59956, Q5IS68, Q5R7S7, Q83PR1, Q8FHG5, Q8Y4K4, Q928K4, Q928R9, Q99259, Q9CG20, Q9EYW9, Q9F5P3, Q9LSH2, Q9ZPS3, Q9ZPS4] | 4.1.1.15_0: [] | R04135_reverse: [] | HYDROXYGLUTAMATE-DECARBOXYLASE-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3392,16 +4296,24 @@
       <c r="E21" t="n">
         <v>0.5375356563080135</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -3425,16 +4337,24 @@
       <c r="E22" t="n">
         <v>0.5268258564023648</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>A4JPX5,A6TAC7,A7ZI96,A7ZWZ6,B1XBJ6,B2JQW2,B6HZX5,B7L505,B7M2Z7,B7MPB6,B7N8Q6,P77044,Q13QH4,Q400K3,Q476M7,Q47GC1,Q47HL4,Q49KF8,Q52532,Q8KZP5,Q8X5K0</t>
+          <t xml:space="preserve">R02603: [] | MHPCHYDROL-RXN: [A4JPX5, A6TAC7, A7ZI96, A7ZWZ6, B1XBJ6, B2JQW2, B6HZX5, B7L505, B7M2Z7, B7MPB6, B7N8Q6, P77044, Q13QH4, Q400K3, Q476M7, Q47GC1, Q47HL4, Q49KF8, Q52532, Q8KZP5, Q8X5K0] | 3.7.1.14_1: [] | </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>A0AIG6,A0AYZ0,A0JVG9,A0KNF9,A0KZA9,A0L6H3,A0PT40,A0Q0A4,A0Q6B9,A0QIL6,A0QW19,A0RMN5,A1A890,A1JNR7,A1K4R0,A1KM20,A1KS32,A1R5N7,A1RLV3,A1S8D4,A1SKM6,A1SWW6,A1T7Z0,A1TNR1,A1UF44,A1URW6,A1VE69,A1VMD7,A1VY40,A1W4U9,A1WN06,A2BR27,A2BWN6,A2C220,A2C9X1,A2SJ46,A3D2B2,A3MYS9,A3NMF6,A3P7W4,A3PCV0,A3PYK6,A3QGN9,A4FAQ5,A4IQR7,A4IXW5,A4QEQ9,A4SDG1,A4SJP9,A4TCS5,A4TPG2,A4VQS8,A4W791,A4XZ25,A4Y4X0,A4YQ36,A5D2Z6,A5EEQ0,A5F331,A5FRB9,A5GL34,A5GTT4,A5ILK2,A5N7J2,A5U634,A5UC51,A5UEV6,A5V6A9,A5VP09,A5VXW9,A6L175,A6LFB9,A6LU48,A6Q1Z6,A6T5F3,A6V058,A6VUE5,A6WL04,A6WWC4,A7BKB8,A7FLE4,A7GSJ5,A7H552,A7H9E8,A7I2V7,A7IPK6,A7MFG0,A7MYC6,A7NCA4,A7Z6J5,A7ZIH3,A7ZX72,A8AK34,A8EWN0,A8FF11,A8FKB0,A8FYL0,A8G4R9,A8GAP2,A8H6X1,A8IBS1,A8L0K9,A8MFI7,A9BAC1,A9IQP2,A9ITB0,A9KMB8,A9KTL5,A9M1G3,A9M8W0,A9MM42,A9MX09,A9QZS3,A9VGD1,A9WRA9,B0B7P9,B0BBW4,B0BSL0,B0C8J3,B0CKC0,B0JL88,B0KL79,B0RC26,B0T3X7,B0TEJ5,B0TQ36,B0U0B3,B0U3E1,B0UUA4,B0V710,B0VQB8,B1HRX4,B1I3J6,B1J029,B1J3G4,B1JID8,B1K3S9,B1KQY8,B1LAQ3,B1LJH0,B1MCU7,B1VWJ8,B1WWM7,B1XF08,B1XKC5,B1Y2X5,B1YLQ5,B1Z1G2,B2A526,B2FN57,B2GJ56,B2I607,B2IDK3,B2J5P1,B2JP68,B2K6T7,B2RMK4,B2S462,B2S9T6,B2SGK5,B2SQV8,B2TRM5,B2U4M3,B2U930,B2V4R3,B2VHS3,B3DW88,B3H050,B3PF22,B3PS68,B3QFY7,B3R5H4,B4EN29,B4EU31,B4RGW0,B4RNW6,B4RVY8,B4SWR4,B4T8R3,B4TMA2,B4UHF5,B5BDB0,B5EXG3,B5FBG6,B5FKS7,B5QTH0,B5R6S3,B5Y0X1,B5YE06,B5Z3S5,B5ZAB7,B5ZS68,B6EIA7,B6HZM1,B6IRB5,B6YRV5,B7HB48,B7HNU0,B7IXG8,B7JM28,B7JVJ6,B7KAF7,B7L654,B7LMG7,B7M3Q9,B7MD78,B7MQD5,B7N8X3,B7NJ77,B7UJP3,B7V7R4,B7VJA1,B8CS19,B8D2I3,B8D7Z3,B8D9P1,B8E247,B8EAU7,B8F3A4,B8FQ45,B8GN62,B8GXC4,B8HH36,B8HWL8,B8JFY1,B8ZQW9,B9E104,B9E6Q6,B9JAL7,B9JSL2,B9L1L6,B9MEU8,C0Q7U7,C0RHE3,C0ZC10,C0ZYV9,C1AFE1,C1DAW8,C1F3C4,C1L2S1,C3K2R1,C3LJV1,C3LTD9,C3P7V6,C4K6M7,C4ZTH7,C5BCH9,C5D467,C6DB37,O22567,O25121,O67036,O78328,O83796,O84335,P0A555,P26242,P45205,P57536,P57848,P73067,P77488,P9WNS2,P9WNS3,Q02SL1,Q04U59,Q053M2,Q07SR3,Q07ZD4,Q0A8V7,Q0AFY6,Q0ARE5,Q0AZE2,Q0BAL8,Q0BLU9,Q0C154,Q0HGL5,Q0HSW6,Q0I3G1,Q0IAA6,Q0K860,Q0S1H1,Q0SS05,Q0TKM1,Q0TPD8,Q0VMI4,Q10ZY2,Q11KE0,Q11NY7,Q12CQ9,Q12L26,Q130G7,Q13RX1,Q14HJ1,Q15W93,Q16CP0,Q16DV7,Q18B68,Q1B9W8,Q1BLY7,Q1C4I9,Q1CL87,Q1CUF6,Q1D3G4,Q1GCG4,Q1GQK9,Q1GZD7,Q1IFL1,Q1IZP0,Q1LK34,Q1LTI9,Q1MKN4,Q1MRB3,Q1QE74,Q1QQ40,Q1R1E5,Q1RFC0,Q21A74,Q21F93,Q21UG7,Q24V05,Q253R7,Q28W25,Q28WA7,Q2A3D3,Q2GC13,Q2IPZ2,Q2IRL7,Q2JDD9,Q2JK64,Q2JTX2,Q2KBR2,Q2KZ15,Q2LUA7,Q2N6U5,Q2NV94,Q2P472,Q2RIB9,Q2RR29,Q2RYD6,Q2SA08,Q2T7N5,Q2W367,Q2YCH7,Q2YMF0,Q30TC5,Q30Z99,Q31AZ2,Q325I1,Q32JH8,Q38854,Q393P4,Q39RT4,Q39UB1,Q3A3Z6,Q3AAN0,Q3AJP8,Q3AXZ4,Q3B5P3,Q3BRW8,Q3II09,Q3IYR6,Q3J1A8,Q3JAD1,Q3JKA3,Q3K660,Q3KM28,Q3M4F6,Q3SKF1,Q3SUZ1,Q3Z4Y9,Q3Z8G9,Q3ZXC2,Q46L36,Q474C2,Q47BJ0,Q47NL9,Q487D3,Q48NX0,Q493G7,Q4FN07,Q4FV64,Q4JVB5,Q4K5A5,Q4QKG6,Q4UW29,Q4ZYU8,Q50000,Q57ET1,Q57SE2,Q5E6Z0,Q5FAI2,Q5FUB1,Q5H1A0,Q5HWF0,Q5L6H4,Q5LH44,Q5LX42,Q5NG39,Q5NM38,Q5NN52,Q5P228,Q5PFR6,Q5QVE8,Q5SMD7,Q5WF63,Q5YTA2,Q60AN1,Q62DU1,Q635A7,Q63JF4,Q64Y02,Q65HJ2,Q65TP4,Q66DV4,Q67NB6,Q6A8V3,Q6AFD5,Q6AJQ1,Q6D844,Q6F7N5,Q6G0D4,Q6G4D1,Q6HDY8,Q6LU07,Q6MDK6,Q6NB76,Q6NGV3,Q6YU51,Q71ZV7,Q72CD3,Q72H81,Q72U01,Q731B7,Q73LF4,Q73W57,Q74CB0,Q74FC3,Q75TB7,Q7M7Z0,Q7MN49,Q7MSZ3,Q7N0J7,Q7NP63,Q7NUK5,Q7U6P6,Q7UWB7,Q7V1G6,Q7V7Q3,Q7VC14,Q7VIJ7,Q7VNP7,Q7VRH9,Q7VV87,Q7W7Q0,Q7WL37,Q818R9,Q81M54,Q823V1,Q82KW8,Q82ML4,Q82VD3,Q83G46,Q83I20,Q83SG2,Q87C03,Q87RU0,Q889Q1,Q88QG7,Q894H0,Q89RW1,Q8A0C2,Q8CJP7,Q8D357,Q8DFA3,Q8DL74,Q8EGR9,Q8EWX7,Q8F153,Q8FKB9,Q8FPI2,Q8G292,Q8GAA0,Q8K9A1,Q8KFI9,Q8NPB2,Q8P815,Q8PJG7,Q8R639,Q8RAC5,Q8UHD7,Q8VUR8,Q8XE76,Q8XJE1,Q8XX95,Q8Y7C1,Q8YFM2,Q8YZ80,Q8Z8X3,Q8ZC45,Q8ZRD1,Q92BZ0,Q92RJ1,Q97HD5,Q985Y3,Q9A6M5,Q9F1V2,Q9JW13,Q9JXV7,Q9K971,Q9KGU7,Q9KTL3,Q9PB95,Q9PIH8,Q9PK62,Q9R6S7,Q9RBN6,Q9RUB5,Q9X291,Q9X7W3,Q9Z6J9,Q9ZM94</t>
+          <t xml:space="preserve">R05636_reverse: [] | DXS-RXN_reverse: [A0AIG6, A0AYZ0, A0JVG9, A0KNF9, A0KZA9, A0L6H3, A0PT40, A0Q0A4, A0Q6B9, A0QIL6, A0QW19, A0RMN5, A1A890, A1JNR7, A1K4R0, A1KM20, A1KS32, A1R5N7, A1RLV3, A1S8D4, A1SKM6, A1SWW6, A1T7Z0, A1TNR1, A1UF44, A1URW6, A1VE69, A1VMD7, A1VY40, A1W4U9, A1WN06, A2BR27, A2BWN6, A2C220, A2C9X1, A2SJ46, A3D2B2, A3MYS9, A3NMF6, A3P7W4, A3PCV0, A3PYK6, A3QGN9, A4FAQ5, A4IQR7, A4IXW5, A4QEQ9, A4SDG1, A4SJP9, A4TCS5, A4TPG2, A4VQS8, A4W791, A4XZ25, A4Y4X0, A4YQ36, A5D2Z6, A5EEQ0, A5F331, A5FRB9, A5GL34, A5GTT4, A5ILK2, A5N7J2, A5U634, A5UC51, A5UEV6, A5V6A9, A5VP09, A5VXW9, A6L175, A6LFB9, A6LU48, A6Q1Z6, A6T5F3, A6V058, A6VUE5, A6WL04, A6WWC4, A7BKB8, A7FLE4, A7GSJ5, A7H552, A7H9E8, A7I2V7, A7IPK6, A7MFG0, A7MYC6, A7NCA4, A7Z6J5, A7ZIH3, A7ZX72, A8AK34, A8EWN0, A8FF11, A8FKB0, A8FYL0, A8G4R9, A8GAP2, A8H6X1, A8IBS1, A8L0K9, A8MFI7, A9BAC1, A9IQP2, A9ITB0, A9KMB8, A9KTL5, A9M1G3, A9M8W0, A9MM42, A9MX09, A9QZS3, A9VGD1, A9WRA9, B0B7P9, B0BBW4, B0BSL0, B0C8J3, B0CKC0, B0JL88, B0KL79, B0RC26, B0T3X7, B0TEJ5, B0TQ36, B0U0B3, B0U3E1, B0UUA4, B0V710, B0VQB8, B1HRX4, B1I3J6, B1J029, B1J3G4, B1JID8, B1K3S9, B1KQY8, B1LAQ3, B1LJH0, B1MCU7, B1VWJ8, B1WWM7, B1XF08, B1XKC5, B1Y2X5, B1YLQ5, B1Z1G2, B2A526, B2FN57, B2GJ56, B2I607, B2IDK3, B2J5P1, B2JP68, B2K6T7, B2RMK4, B2S462, B2S9T6, B2SGK5, B2SQV8, B2TRM5, B2U4M3, B2U930, B2V4R3, B2VHS3, B3DW88, B3H050, B3PF22, B3PS68, B3QFY7, B3R5H4, B4EN29, B4EU31, B4RGW0, B4RNW6, B4RVY8, B4SWR4, B4T8R3, B4TMA2, B4UHF5, B5BDB0, B5EXG3, B5FBG6, B5FKS7, B5QTH0, B5R6S3, B5Y0X1, B5YE06, B5Z3S5, B5ZAB7, B5ZS68, B6EIA7, B6HZM1, B6IRB5, B6YRV5, B7HB48, B7HNU0, B7IXG8, B7JM28, B7JVJ6, B7KAF7, B7L654, B7LMG7, B7M3Q9, B7MD78, B7MQD5, B7N8X3, B7NJ77, B7UJP3, B7V7R4, B7VJA1, B8CS19, B8D2I3, B8D7Z3, B8D9P1, B8E247, B8EAU7, B8F3A4, B8FQ45, B8GN62, B8GXC4, B8HH36, B8HWL8, B8JFY1, B8ZQW9, B9E104, B9E6Q6, B9JAL7, B9JSL2, B9L1L6, B9MEU8, C0Q7U7, C0RHE3, C0ZC10, C0ZYV9, C1AFE1, C1DAW8, C1F3C4, C1L2S1, C3K2R1, C3LJV1, C3LTD9, C3P7V6, C4K6M7, C4ZTH7, C5BCH9, C5D467, C6DB37, O22567, O25121, O67036, O78328, O83796, O84335, P0A555, P26242, P45205, P57536, P57848, P73067, P77488, P9WNS2, P9WNS3, Q02SL1, Q04U59, Q053M2, Q07SR3, Q07ZD4, Q0A8V7, Q0AFY6, Q0ARE5, Q0AZE2, Q0BAL8, Q0BLU9, Q0C154, Q0HGL5, Q0HSW6, Q0I3G1, Q0IAA6, Q0K860, Q0S1H1, Q0SS05, Q0TKM1, Q0TPD8, Q0VMI4, Q10ZY2, Q11KE0, Q11NY7, Q12CQ9, Q12L26, Q130G7, Q13RX1, Q14HJ1, Q15W93, Q16CP0, Q16DV7, Q18B68, Q1B9W8, Q1BLY7, Q1C4I9, Q1CL87, Q1CUF6, Q1D3G4, Q1GCG4, Q1GQK9, Q1GZD7, Q1IFL1, Q1IZP0, Q1LK34, Q1LTI9, Q1MKN4, Q1MRB3, Q1QE74, Q1QQ40, Q1R1E5, Q1RFC0, Q21A74, Q21F93, Q21UG7, Q24V05, Q253R7, Q28W25, Q28WA7, Q2A3D3, Q2GC13, Q2IPZ2, Q2IRL7, Q2JDD9, Q2JK64, Q2JTX2, Q2KBR2, Q2KZ15, Q2LUA7, Q2N6U5, Q2NV94, Q2P472, Q2RIB9, Q2RR29, Q2RYD6, Q2SA08, Q2T7N5, Q2W367, Q2YCH7, Q2YMF0, Q30TC5, Q30Z99, Q31AZ2, Q325I1, Q32JH8, Q38854, Q393P4, Q39RT4, Q39UB1, Q3A3Z6, Q3AAN0, Q3AJP8, Q3AXZ4, Q3B5P3, Q3BRW8, Q3II09, Q3IYR6, Q3J1A8, Q3JAD1, Q3JKA3, Q3K660, Q3KM28, Q3M4F6, Q3SKF1, Q3SUZ1, Q3Z4Y9, Q3Z8G9, Q3ZXC2, Q46L36, Q474C2, Q47BJ0, Q47NL9, Q487D3, Q48NX0, Q493G7, Q4FN07, Q4FV64, Q4JVB5, Q4K5A5, Q4QKG6, Q4UW29, Q4ZYU8, Q50000, Q57ET1, Q57SE2, Q5E6Z0, Q5FAI2, Q5FUB1, Q5H1A0, Q5HWF0, Q5L6H4, Q5LH44, Q5LX42, Q5NG39, Q5NM38, Q5NN52, Q5P228, Q5PFR6, Q5QVE8, Q5SMD7, Q5WF63, Q5YTA2, Q60AN1, Q62DU1, Q635A7, Q63JF4, Q64Y02, Q65HJ2, Q65TP4, Q66DV4, Q67NB6, Q6A8V3, Q6AFD5, Q6AJQ1, Q6D844, Q6F7N5, Q6G0D4, Q6G4D1, Q6HDY8, Q6LU07, Q6MDK6, Q6NB76, Q6NGV3, Q6YU51, Q71ZV7, Q72CD3, Q72H81, Q72U01, Q731B7, Q73LF4, Q73W57, Q74CB0, Q74FC3, Q75TB7, Q7M7Z0, Q7MN49, Q7MSZ3, Q7N0J7, Q7NP63, Q7NUK5, Q7U6P6, Q7UWB7, Q7V1G6, Q7V7Q3, Q7VC14, Q7VIJ7, Q7VNP7, Q7VRH9, Q7VV87, Q7W7Q0, Q7WL37, Q818R9, Q81M54, Q823V1, Q82KW8, Q82ML4, Q82VD3, Q83G46, Q83I20, Q83SG2, Q87C03, Q87RU0, Q889Q1, Q88QG7, Q894H0, Q89RW1, Q8A0C2, Q8CJP7, Q8D357, Q8DFA3, Q8DL74, Q8EGR9, Q8EWX7, Q8F153, Q8FKB9, Q8FPI2, Q8G292, Q8GAA0, Q8K9A1, Q8KFI9, Q8NPB2, Q8P815, Q8PJG7, Q8R639, Q8RAC5, Q8UHD7, Q8VUR8, Q8XE76, Q8XJE1, Q8XX95, Q8Y7C1, Q8YFM2, Q8YZ80, Q8Z8X3, Q8ZC45, Q8ZRD1, Q92BZ0, Q92RJ1, Q97HD5, Q985Y3, Q9A6M5, Q9F1V2, Q9JW13, Q9JXV7, Q9K971, Q9KGU7, Q9KTL3, Q9PB95, Q9PIH8, Q9PK62, Q9R6S7, Q9RBN6, Q9RUB5, Q9X291, Q9X7W3, Q9Z6J9, Q9ZM94] | 2.2.1.7_06: [] | 2.2.1.7_05: [] | </t>
         </is>
       </c>
     </row>
@@ -3458,14 +4378,26 @@
       <c r="E23" t="n">
         <v>0.5229118009594313</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.3.1_108: [] | 1.2.3.15_08: [] | </t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14300: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_2: [] | </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3489,20 +4421,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>P80193,Q19000,Q5R5D8,Q924Y0,Q98KK0,Q9QZU7</t>
+          <t xml:space="preserve">R02397_reverse: [] | 1.14.11.1_1: [] | 1.14.11.1-RXN: [P80193, Q19000, Q5R5D8, Q924Y0, Q98KK0, Q9QZU7] | </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3524,14 +4460,26 @@
       <c r="E25" t="n">
         <v>0.515118156882333</v>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14300: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_2: [] | </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3553,14 +4501,26 @@
       <c r="E26" t="n">
         <v>0.4891721775760085</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3582,14 +4542,26 @@
       <c r="E27" t="n">
         <v>0.4738635475557476</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3611,14 +4583,26 @@
       <c r="E28" t="n">
         <v>0.453614993472814</v>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3640,18 +4624,26 @@
       <c r="E29" t="n">
         <v>0.4460584512872916</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3675,22 +4667,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>P80193,Q19000,Q5R5D8,Q924Y0,Q98KK0,Q9QZU7</t>
+          <t xml:space="preserve">R02397_reverse: [] | 1.14.11.1_1: [] | 1.14.11.1-RXN: [P80193, Q19000, Q5R5D8, Q924Y0, Q98KK0, Q9QZU7] | </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
         </is>
       </c>
     </row>
@@ -3714,14 +4706,26 @@
       <c r="E31" t="n">
         <v>0.3304384989056401</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.4_1: [] | </t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3743,20 +4747,24 @@
       <c r="E32" t="n">
         <v>0.3132662512696028</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
         </is>
       </c>
     </row>
@@ -3780,14 +4788,26 @@
       <c r="E33" t="n">
         <v>0.3092078373304731</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.4_1: [] | </t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3809,18 +4829,26 @@
       <c r="E34" t="n">
         <v>0.3069655853765901</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN490-3641: [] | RXN-14244: [] | R01252_reverse: [] | 1.14.11.57_1: [] | 1.14.11.56_1: [] | 1.14.11.2_11: [] | RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3842,12 +4870,24 @@
       <c r="E35" t="n">
         <v>0.2217721744975908</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-12008: [] | </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.4_1: [] | </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05363_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -3934,12 +4974,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R108-RXN_reverse: [] | R05078: [] | </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-9168: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -3963,18 +5015,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">R06890: [] | 1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -4000,14 +5056,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | 1.14.15.3_06: [] | RXN-17667: [] | </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -4033,16 +5097,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4066,18 +5138,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A2SP36</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t xml:space="preserve">R06890: [] | 1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R04375_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -4103,14 +5179,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R04375_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -4136,18 +5220,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.30_09: [] | </t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -4173,14 +5261,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-5364: [] | </t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -4206,12 +5302,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -4235,16 +5343,24 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A3CUF2,B8GEI1,O26819,O29305,O66682,O86511,P58966,P74269,Q58787,Q74C76,Q8TJJ1,Q8TYM1,Q9WZ22</t>
+          <t xml:space="preserve">RXN-7743_reverse: [A3CUF2, B8GEI1, O26819, O29305, O66682, O86511, P58966, P74269, Q58787, Q74C76, Q8TJJ1, Q8TYM1, Q9WZ22] | R07399: [] | 2.3.3.13_05: [] | 2.3.1.182_7: [] | 2.3.1.182_6: [] | </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A0AK91,A0B5E0,A0JXZ6,A0K937,A0KEM1,A0L626,A0M380,A0PPY3,A0Q0E9,A0QJC6,A0QUX8,A0RQ02,A0RXE1,A1AHU6,A1AS39,A1AW99,A1B2W3,A1BES5,A1JI57,A1KAB7,A1KMZ6,A1KUZ8,A1RRZ8,A1SAS8,A1T6Y9,A1TRT6,A1TZ11,A1UE95,A1UT97,A1V2K2,A1VE41,A1VN04,A1VYZ2,A1W6T4,A1WUW3,A2BSN6,A2BY22,A2C482,A2CB87,A2RKQ6,A2S472,A2SHM0,A2SR20,A3CQ86,A3CXJ5,A3DIE1,A3M254,A3MI87,A3MX05,A3N3E9,A3N7K4,A3NT91,A3PEE9,A3PH14,A3PXP9,A4FMQ5,A4FYE4,A4G4H8,A4IRH9,A4J179,A4JGE3,A4QDN4,A4SFC5,A4STE2,A4SXR3,A4TE07,A4TRD9,A4VPI6,A4VXL3,A4W3V8,A4WG34,A4WLK6,A4WQ93,A4X4A5,A4XIL7,A4XR11,A4YZA6,A5CPY6,A5CWZ1,A5EPB5,A5F449,A5FFY3,A5FR44,A5G1L8,A5G7V3,A5GMM6,A5GRI8,A5IJM5,A5IUK2,A5U713,A5UE34,A5UHH1,A5UMJ9,A5V3W3,A5VRC9,A5W952,A5WD25,A6LPX8,A6Q461,A6QIQ2,A6SZZ1,A6TGG1,A6TTL2,A6U3E1,A6UAW6,A6USF9,A6VCE7,A6VJW0,A6VLU1,A6W216,A6W7N6,A6WZX5,A7FD32,A7GMU0,A7GXQ8,A7H4H9,A7HVZ2,A7I0D4,A7I5I8,A7IFE5,A7MQH1,A7NJH8,A7X4M9,A7Z7B9,A7ZEF1,A7ZTX6,A8A6N0,A8ACS4,A8AVN4,A8ERD8,A8FFW6,A8FL53,A8G6C6,A8GL54,A8I679,A8L548,A8LS39,A8M5F9,A8MDY9,A8Z4V9,A9A2E4,A9A7D0,A9AJN1,A9AZM5,A9BBT2,A9BGP6,A9BME9,A9GW78,A9GZJ4,A9IGJ3,A9IW67,A9KQ65,A9M177,A9M637,A9MJN4,A9MXE7,A9R8G1,A9VZF3,A9WC26,A9WP08,B0BTD3,B0CE35,B0CHG8,B0JRP2,B0K0Y0,B0KAH3,B0KHU2,B0RIN6,B0RP32,B0SCQ5,B0SL33,B0T4Y1,B0TCQ9,B0U8N5,B0UWE8,B0V5G8,B0VKP5,B1HR99,B1I9N6,B1IWC4,B1J2D7,B1JQ26,B1JVQ4,B1L8U5,B1LLU9,B1LXF3,B1VG26,B1VZ72,B1WNP1,B1X9Z0,B1XL20,B1XUJ0,B1XYB1,B1Y9N6,B1YTS0,B1ZI53,B2GFJ7,B2HTC8,B2IHY4,B2ILY8,B2J2U6,B2JDN9,B2JZH8,B2S6K5,B2SNG5,B2T2D1,B2TIR4,B2TU17,B2U7S3,B2URB8,B2USG1,B2UYT8,B2V7F0,B2VG69,B3E5X4,B3EHP0,B3EKV1,B3PK17,B3PT89,B3QCW2,B3QSP0,B3R3V4,B4E5N5,B4F1U6,B4RG67,B4S1X4,B4S6N3,B4SDK7,B4SZ22,B4TB09,B4TNS6,B4UAN4,B5BIS2,B5E1Q6,B5EP52,B5EZ33,B5FCV4,B5FN70,B5QVG7,B5RFS8,B5XYZ8,B5YEF3,B5YJT0,B5YY23,B5ZVQ5,B6EP33,B6I4B1,B6ITR6,B6JB83,B7GH18,B7H047,B7I5I9,B7J643,B7K0S6,B7KF23,B7KYZ3,B7L8B5,B7LU79,B7M5C2,B7MGI6,B7N269,B7NF81,B7NTG7,B7UMN1,B7V1A6,B7VGL9,B8CX20,B8D8B4,B8D8F7,B8DBU5,B8DNQ9,B8DVE0,B8E2W8,B8EKP4,B8F6G2,B8FU98,B8G7X1,B8GIC5,B8GUB6,B8GXW2,B8HAS8,B8HNI6,B8I1T8,B8IGT3,B8J2E2,B8J829,B8ZLL0,B9DMJ5,B9EBF4,B9JGH5,B9JXM6,B9KB98,B9KCI3,B9KM37,B9KYS1,B9LGM7,B9M5B1,B9MA35,B9MNV1,C0Q2V3,C0QMX0,C0QTD8,C0R090,C0RE20,C0Z9C7,C0ZXM2,C1B2M1,C1C5I0,C1CCK9,C1CIU7,C1CPV5,C1CWT7,C1DA41,C1DFH7,C1F6Z5,C1KWT0,C3K225,C3LQ01,C3ME70,C3MQK4,C3MW82,C3N6C4,C3NET2,C3NGW2,C3PFX1,C4KHT9,C4L8N9,C4LJH6,C4XSF4,C4ZZ44,C5BBA8,C5BQZ6,C5C2I2,C5CYN9,C5D5M1,C6BXE6,C6DHG3,C8WR67,D0WGK0,O25097,O27491,O32414,O33114,O51888,O67289,O82043,P05793,P05989,P06168,P29107,P37253,P38674,P44822,P57655,P58256,P65150,P65151,P65152,P65153,P78827,P84534,P97115,P9WKJ6,P9WKJ7,Q01292,Q02138,Q02CM4,Q02FX9,Q02YY8,Q03IJ9,Q03UU4,Q04M32,Q04P56,Q056H8,Q05758,Q07PJ7,Q0AB89,Q0AGM0,Q0BDB6,Q0BS26,Q0C516,Q0I511,Q0IC80,Q0RDI8,Q0S2H3,Q0TAU6,Q0VSB5,Q0W834,Q10WP7,Q11I83,Q11VZ3,Q12B50,Q12Y03,Q139A2,Q142I6,Q15MY4,Q168N1,Q17X66,Q18C83,Q18GT4,Q1ARE4,Q1BAR7,Q1BUZ9,Q1CBS1,Q1CNM0,Q1CUH1,Q1GE81,Q1GT37,Q1GZE9,Q1I4R5,Q1ILZ3,Q1J0T2,Q1LPX7,Q1MED4,Q1QDE6,Q1QJU8,Q1R092,Q1R4G3,Q211Z6,Q21HN0,Q21T70,Q24XT5,Q28T07,Q2FF68,Q2FM37,Q2FWK4,Q2G623,Q2IJB7,Q2IUS3,Q2J6V2,Q2JKN5,Q2JXL2,Q2K6M2,Q2KWH7,Q2NAU8,Q2NI95,Q2NQA9,Q2P757,Q2RIS6,Q2RX71,Q2S0M9,Q2S9V9,Q2SZP8,Q2W1G2,Q2YBU1,Q2YQN2,Q2YUF3,Q30T61,Q30ZD3,Q319H3,Q31HZ1,Q31MY7,Q31UL0,Q329V3,Q39ED2,Q39W76,Q3AEQ7,Q3ALC5,Q3APC3,Q3AVC2,Q3B594,Q3BPK3,Q3IE45,Q3IRQ2,Q3J5C0,Q3J875,Q3JUC2,Q3K6T1,Q3MGX7,Q3SHE4,Q3SQ46,Q3YVJ0,Q3Z891,Q3ZXI2,Q46FY8,Q46JF6,Q473V5,Q47BH8,Q47SB6,Q47UP4,Q48N66,Q491Z2,Q49Z11,Q4FPQ6,Q4FUB6,Q4J8K9,Q4JUN9,Q4K608,Q4L7T9,Q4QMN4,Q4UYF7,Q4ZY66,Q52955,Q57179,Q57CC7,Q57HU2,Q58938,Q59500,Q59818,Q5E1S3,Q5F7E5,Q5FRY8,Q5H4C1,Q5HEE5,Q5HMG0,Q5HVD9,Q5KWJ2,Q5LTP7,Q5LXV0,Q5M2F2,Q5N667,Q5NXP4,Q5PJZ5,Q5SJ03,Q5V520,Q5WEN2,Q5YRW2,Q605K9,Q62IM0,Q63CV4,Q63DX9,Q63VP6,Q65GI7,Q65WK8,Q65XK0,Q66G37,Q6A7Z2,Q6AEP2,Q6CZD1,Q6F821,Q6FZ98,Q6G2T6,Q6G7Q2,Q6GF17,Q6HKA1,Q6HLF4,Q6LVZ5,Q6LZH4,Q6N869,Q6NHN2,Q71Y36,Q72CA6,Q72JC8,Q72M00,Q73A47,Q73BA1,Q73VH7,Q74BW9,Q7M851,Q7MQH3,Q7MYK9,Q7NH80,Q7P0H9,Q7U5Q1,Q7UB34,Q7UKY0,Q7V0F0,Q7V8M5,Q7VAR8,Q7VGW6,Q7VRM0,Q7VZU4,Q7W566,Q7WCP6,Q81F27,Q81G13,Q81S27,Q81T69,Q82UZ3,Q83GP6,Q83HI9,Q87CM2,Q87TN4,Q888N4,Q88DZ0,Q89A20,Q89G50,Q8CRQ6,Q8DDC8,Q8DGR0,Q8DR03,Q8DW43,Q8E9D5,Q8EN66,Q8EYH2,Q8FBR2,Q8FPX1,Q8FZU1,Q8G6V1,Q8G6V2,Q8KER7,Q8KTR6,Q8P5L5,Q8PH09,Q8PZ26,Q8RDK4,Q8TJJ4,Q8TX44,Q8U2A3,Q8UDV0,Q8XXN8,Q8Y5S0,Q8YI21,Q8YUM5,Q8Z381,Q8ZAC2,Q8ZTE1,Q92A29,Q971A9,Q97MV0,Q97SD7,Q97X13,Q97YJ9,Q98KM7,Q9A6H4,Q9AQ96,Q9AQ97,Q9AQ98,Q9AQ99,Q9AQA0,Q9CLF1,Q9F0I7,Q9F7L6,Q9FBT8,Q9HVA2,Q9JTI3,Q9JYI2,Q9K8E7,Q9KVI4,Q9PCF9,Q9PHN5,Q9RQ47,Q9RQ51,Q9RQ55,Q9RU74,Q9UWX9,Q9UZ09,Q9WZ20,Q9X5F8,Q9Z565,Q9ZMA9</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t xml:space="preserve">R04439: [] | R03051_reverse: [] | ACETOLACTREDUCTOISOM-RXN: [A0AK91, A0B5E0, A0JXZ6, A0K937, A0KEM1, A0L626, A0M380, A0PPY3, A0Q0E9, A0QJC6, A0QUX8, A0RQ02, A0RXE1, A1AHU6, A1AS39, A1AW99, A1B2W3, A1BES5, A1JI57, A1KAB7, A1KMZ6, A1KUZ8, A1RRZ8, A1SAS8, A1T6Y9, A1TRT6, A1TZ11, A1UE95, A1UT97, A1V2K2, A1VE41, A1VN04, A1VYZ2, A1W6T4, A1WUW3, A2BSN6, A2BY22, A2C482, A2CB87, A2RKQ6, A2S472, A2SHM0, A2SR20, A3CQ86, A3CXJ5, A3DIE1, A3M254, A3MI87, A3MX05, A3N3E9, A3N7K4, A3NT91, A3PEE9, A3PH14, A3PXP9, A4FMQ5, A4FYE4, A4G4H8, A4IRH9, A4J179, A4JGE3, A4QDN4, A4SFC5, A4STE2, A4SXR3, A4TE07, A4TRD9, A4VPI6, A4VXL3, A4W3V8, A4WG34, A4WLK6, A4WQ93, A4X4A5, A4XIL7, A4XR11, A4YZA6, A5CPY6, A5CWZ1, A5EPB5, A5F449, A5FFY3, A5FR44, A5G1L8, A5G7V3, A5GMM6, A5GRI8, A5IJM5, A5IUK2, A5U713, A5UE34, A5UHH1, A5UMJ9, A5V3W3, A5VRC9, A5W952, A5WD25, A6LPX8, A6Q461, A6QIQ2, A6SZZ1, A6TGG1, A6TTL2, A6U3E1, A6UAW6, A6USF9, A6VCE7, A6VJW0, A6VLU1, A6W216, A6W7N6, A6WZX5, A7FD32, A7GMU0, A7GXQ8, A7H4H9, A7HVZ2, A7I0D4, A7I5I8, A7IFE5, A7MQH1, A7NJH8, A7X4M9, A7Z7B9, A7ZEF1, A7ZTX6, A8A6N0, A8ACS4, A8AVN4, A8ERD8, A8FFW6, A8FL53, A8G6C6, A8GL54, A8I679, A8L548, A8LS39, A8M5F9, A8MDY9, A8Z4V9, A9A2E4, A9A7D0, A9AJN1, A9AZM5, A9BBT2, A9BGP6, A9BME9, A9GW78, A9GZJ4, A9IGJ3, A9IW67, A9KQ65, A9M177, A9M637, A9MJN4, A9MXE7, A9R8G1, A9VZF3, A9WC26, A9WP08, B0BTD3, B0CE35, B0CHG8, B0JRP2, B0K0Y0, B0KAH3, B0KHU2, B0RIN6, B0RP32, B0SCQ5, B0SL33, B0T4Y1, B0TCQ9, B0U8N5, B0UWE8, B0V5G8, B0VKP5, B1HR99, B1I9N6, B1IWC4, B1J2D7, B1JQ26, B1JVQ4, B1L8U5, B1LLU9, B1LXF3, B1VG26, B1VZ72, B1WNP1, B1X9Z0, B1XL20, B1XUJ0, B1XYB1, B1Y9N6, B1YTS0, B1ZI53, B2GFJ7, B2HTC8, B2IHY4, B2ILY8, B2J2U6, B2JDN9, B2JZH8, B2S6K5, B2SNG5, B2T2D1, B2TIR4, B2TU17, B2U7S3, B2URB8, B2USG1, B2UYT8, B2V7F0, B2VG69, B3E5X4, B3EHP0, B3EKV1, B3PK17, B3PT89, B3QCW2, B3QSP0, B3R3V4, B4E5N5, B4F1U6, B4RG67, B4S1X4, B4S6N3, B4SDK7, B4SZ22, B4TB09, B4TNS6, B4UAN4, B5BIS2, B5E1Q6, B5EP52, B5EZ33, B5FCV4, B5FN70, B5QVG7, B5RFS8, B5XYZ8, B5YEF3, B5YJT0, B5YY23, B5ZVQ5, B6EP33, B6I4B1, B6ITR6, B6JB83, B7GH18, B7H047, B7I5I9, B7J643, B7K0S6, B7KF23, B7KYZ3, B7L8B5, B7LU79, B7M5C2, B7MGI6, B7N269, B7NF81, B7NTG7, B7UMN1, B7V1A6, B7VGL9, B8CX20, B8D8B4, B8D8F7, B8DBU5, B8DNQ9, B8DVE0, B8E2W8, B8EKP4, B8F6G2, B8FU98, B8G7X1, B8GIC5, B8GUB6, B8GXW2, B8HAS8, B8HNI6, B8I1T8, B8IGT3, B8J2E2, B8J829, B8ZLL0, B9DMJ5, B9EBF4, B9JGH5, B9JXM6, B9KB98, B9KCI3, B9KM37, B9KYS1, B9LGM7, B9M5B1, B9MA35, B9MNV1, C0Q2V3, C0QMX0, C0QTD8, C0R090, C0RE20, C0Z9C7, C0ZXM2, C1B2M1, C1C5I0, C1CCK9, C1CIU7, C1CPV5, C1CWT7, C1DA41, C1DFH7, C1F6Z5, C1KWT0, C3K225, C3LQ01, C3ME70, C3MQK4, C3MW82, C3N6C4, C3NET2, C3NGW2, C3PFX1, C4KHT9, C4L8N9, C4LJH6, C4XSF4, C4ZZ44, C5BBA8, C5BQZ6, C5C2I2, C5CYN9, C5D5M1, C6BXE6, C6DHG3, C8WR67, D0WGK0, O25097, O27491, O32414, O33114, O51888, O67289, O82043, P05793, P05989, P06168, P29107, P37253, P38674, P44822, P57655, P58256, P65150, P65151, P65152, P65153, P78827, P84534, P97115, P9WKJ6, P9WKJ7, Q01292, Q02138, Q02CM4, Q02FX9, Q02YY8, Q03IJ9, Q03UU4, Q04M32, Q04P56, Q056H8, Q05758, Q07PJ7, Q0AB89, Q0AGM0, Q0BDB6, Q0BS26, Q0C516, Q0I511, Q0IC80, Q0RDI8, Q0S2H3, Q0TAU6, Q0VSB5, Q0W834, Q10WP7, Q11I83, Q11VZ3, Q12B50, Q12Y03, Q139A2, Q142I6, Q15MY4, Q168N1, Q17X66, Q18C83, Q18GT4, Q1ARE4, Q1BAR7, Q1BUZ9, Q1CBS1, Q1CNM0, Q1CUH1, Q1GE81, Q1GT37, Q1GZE9, Q1I4R5, Q1ILZ3, Q1J0T2, Q1LPX7, Q1MED4, Q1QDE6, Q1QJU8, Q1R092, Q1R4G3, Q211Z6, Q21HN0, Q21T70, Q24XT5, Q28T07, Q2FF68, Q2FM37, Q2FWK4, Q2G623, Q2IJB7, Q2IUS3, Q2J6V2, Q2JKN5, Q2JXL2, Q2K6M2, Q2KWH7, Q2NAU8, Q2NI95, Q2NQA9, Q2P757, Q2RIS6, Q2RX71, Q2S0M9, Q2S9V9, Q2SZP8, Q2W1G2, Q2YBU1, Q2YQN2, Q2YUF3, Q30T61, Q30ZD3, Q319H3, Q31HZ1, Q31MY7, Q31UL0, Q329V3, Q39ED2, Q39W76, Q3AEQ7, Q3ALC5, Q3APC3, Q3AVC2, Q3B594, Q3BPK3, Q3IE45, Q3IRQ2, Q3J5C0, Q3J875, Q3JUC2, Q3K6T1, Q3MGX7, Q3SHE4, Q3SQ46, Q3YVJ0, Q3Z891, Q3ZXI2, Q46FY8, Q46JF6, Q473V5, Q47BH8, Q47SB6, Q47UP4, Q48N66, Q491Z2, Q49Z11, Q4FPQ6, Q4FUB6, Q4J8K9, Q4JUN9, Q4K608, Q4L7T9, Q4QMN4, Q4UYF7, Q4ZY66, Q52955, Q57179, Q57CC7, Q57HU2, Q58938, Q59500, Q59818, Q5E1S3, Q5F7E5, Q5FRY8, Q5H4C1, Q5HEE5, Q5HMG0, Q5HVD9, Q5KWJ2, Q5LTP7, Q5LXV0, Q5M2F2, Q5N667, Q5NXP4, Q5PJZ5, Q5SJ03, Q5V520, Q5WEN2, Q5YRW2, Q605K9, Q62IM0, Q63CV4, Q63DX9, Q63VP6, Q65GI7, Q65WK8, Q65XK0, Q66G37, Q6A7Z2, Q6AEP2, Q6CZD1, Q6F821, Q6FZ98, Q6G2T6, Q6G7Q2, Q6GF17, Q6HKA1, Q6HLF4, Q6LVZ5, Q6LZH4, Q6N869, Q6NHN2, Q71Y36, Q72CA6, Q72JC8, Q72M00, Q73A47, Q73BA1, Q73VH7, Q74BW9, Q7M851, Q7MQH3, Q7MYK9, Q7NH80, Q7P0H9, Q7U5Q1, Q7UB34, Q7UKY0, Q7V0F0, Q7V8M5, Q7VAR8, Q7VGW6, Q7VRM0, Q7VZU4, Q7W566, Q7WCP6, Q81F27, Q81G13, Q81S27, Q81T69, Q82UZ3, Q83GP6, Q83HI9, Q87CM2, Q87TN4, Q888N4, Q88DZ0, Q89A20, Q89G50, Q8CRQ6, Q8DDC8, Q8DGR0, Q8DR03, Q8DW43, Q8E9D5, Q8EN66, Q8EYH2, Q8FBR2, Q8FPX1, Q8FZU1, Q8G6V1, Q8G6V2, Q8KER7, Q8KTR6, Q8P5L5, Q8PH09, Q8PZ26, Q8RDK4, Q8TJJ4, Q8TX44, Q8U2A3, Q8UDV0, Q8XXN8, Q8Y5S0, Q8YI21, Q8YUM5, Q8Z381, Q8ZAC2, Q8ZTE1, Q92A29, Q971A9, Q97MV0, Q97SD7, Q97X13, Q97YJ9, Q98KM7, Q9A6H4, Q9AQ96, Q9AQ97, Q9AQ98, Q9AQ99, Q9AQA0, Q9CLF1, Q9F0I7, Q9F7L6, Q9FBT8, Q9HVA2, Q9JTI3, Q9JYI2, Q9K8E7, Q9KVI4, Q9PCF9, Q9PHN5, Q9RQ47, Q9RQ51, Q9RQ55, Q9RU74, Q9UWX9, Q9UZ09, Q9WZ20, Q9X5F8, Q9Z565, Q9ZMA9] | 1.1.1.86_09: [] | 1.1.1.86_08: [] | 1.1.1.86_01: [] | 1.1.1.383_7: [] | 1.1.1.383_1: [] | </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -4268,14 +5384,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.2.1.9_07: [] | </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2.1.9_09: [] | </t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -4301,20 +5425,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A3CUF2,B8GEI1,O26819,O29305,O66682,O86511,P58966,P74269,Q58787,Q74C76,Q8TJJ1,Q8TYM1,Q9WZ22</t>
+          <t xml:space="preserve">RXN-7743_reverse: [A3CUF2, B8GEI1, O26819, O29305, O66682, O86511, P58966, P74269, Q58787, Q74C76, Q8TJJ1, Q8TYM1, Q9WZ22] | R07399: [] | 2.3.3.13_05: [] | 2.3.1.182_7: [] | 2.3.1.182_6: [] | </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>P80193,Q19000,Q5R5D8,Q924Y0,Q98KK0,Q9QZU7</t>
+          <t xml:space="preserve">R02397_reverse: [] | 1.14.11.1_1: [] | 1.14.11.1-RXN: [P80193, Q19000, Q5R5D8, Q924Y0, Q98KK0, Q9QZU7] | </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4338,16 +5466,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Q8VWZ7;A2SP36</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t xml:space="preserve">R02708: [] | R06890: [] | 1.14.13.25_04: [] | RXN-11325_reverse: [] | 1.14.15.3_15: [] | R08326: [] | R08325: [] | R08327: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | R02178: [] | 1.14.13.46_0: [] | --MENTHOL-MONOOXYGENASE-RXN_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-8197_reverse: [Q8VWZ7] | RXN-15069_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -4371,12 +5507,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -4400,22 +5548,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -4441,16 +5589,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A2SP36</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t xml:space="preserve">R06890: [] | 1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R04375_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -4474,16 +5630,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A4JPX9,A6TAC6,A7ZI97,A7ZWZ7,B1LIN5,B2JQV8,B5Z2Q5,B7L506,B7M2Z8,B7MPB7,B7N8Q7,B7NK05,C1DRI8,P23107,P77608,Q13VU0,Q3Z556,Q400K2,Q47GC8,Q47HM0,Q49KF9,Q706S1,Q8XEC1,Q9KWS4,Q9S156</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t xml:space="preserve">4.2.1.80_5: [] | 2-OXOPENT-4-ENOATE-HYDRATASE-RXN_reverse: [A4JPX9, A6TAC6, A7ZI97, A7ZWZ7, B1LIN5, B2JQV8, B5Z2Q5, B7L506, B7M2Z8, B7MPB7, B7N8Q7, B7NK05, C1DRI8, P23107, P77608, Q13VU0, Q3Z556, Q400K2, Q47GC8, Q47HM0, Q49KF9, Q706S1, Q8XEC1, Q9KWS4, Q9S156] | </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-9168: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -4507,16 +5671,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -4540,16 +5712,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.2.1.9_07: [] | </t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>E3PY95,E3PY96,Q8VPJ6</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t xml:space="preserve">R02461_reverse: [] | ORNMUTST-RXN: [E3PY95, E3PY96, Q8VPJ6] | 5.4.3.5_0: [] | </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4573,16 +5753,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Q588Z2</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t xml:space="preserve">R03781: [] | BETA-DIKETONE-HYDROLASE-RXN_reverse: [Q588Z2] | </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4606,16 +5794,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.2.1.9_07: [] | </t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>E3PY95,E3PY96,Q8VPJ6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t xml:space="preserve">R02461_reverse: [] | ORNMUTST-RXN: [E3PY95, E3PY96, Q8VPJ6] | 5.4.3.5_0: [] | </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4639,12 +5835,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.30_09: [] | </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4668,16 +5876,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Q588Z2</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t xml:space="preserve">R03781: [] | BETA-DIKETONE-HYDROLASE-RXN_reverse: [Q588Z2] | </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4701,12 +5917,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.2.1.9_07: [] | </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2.1.9_09: [] | </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4730,14 +5958,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.6.1.77_14: [] | </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -4763,18 +5999,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">R06890: [] | 1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -4800,12 +6040,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.6.1.77_14: [] | </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -4829,14 +6081,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | 1.14.15.3_06: [] | RXN-17667: [] | </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -4862,14 +6122,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
     </row>
@@ -4895,20 +6163,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4932,20 +6204,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>A0AIG6,A0AYZ0,A0JVG9,A0KNF9,A0KZA9,A0L6H3,A0PT40,A0Q0A4,A0Q6B9,A0QIL6,A0QW19,A0RMN5,A1A890,A1JNR7,A1K4R0,A1KM20,A1KS32,A1R5N7,A1RLV3,A1S8D4,A1SKM6,A1SWW6,A1T7Z0,A1TNR1,A1UF44,A1URW6,A1VE69,A1VMD7,A1VY40,A1W4U9,A1WN06,A2BR27,A2BWN6,A2C220,A2C9X1,A2SJ46,A3D2B2,A3MYS9,A3NMF6,A3P7W4,A3PCV0,A3PYK6,A3QGN9,A4FAQ5,A4IQR7,A4IXW5,A4QEQ9,A4SDG1,A4SJP9,A4TCS5,A4TPG2,A4VQS8,A4W791,A4XZ25,A4Y4X0,A4YQ36,A5D2Z6,A5EEQ0,A5F331,A5FRB9,A5GL34,A5GTT4,A5ILK2,A5N7J2,A5U634,A5UC51,A5UEV6,A5V6A9,A5VP09,A5VXW9,A6L175,A6LFB9,A6LU48,A6Q1Z6,A6T5F3,A6V058,A6VUE5,A6WL04,A6WWC4,A7BKB8,A7FLE4,A7GSJ5,A7H552,A7H9E8,A7I2V7,A7IPK6,A7MFG0,A7MYC6,A7NCA4,A7Z6J5,A7ZIH3,A7ZX72,A8AK34,A8EWN0,A8FF11,A8FKB0,A8FYL0,A8G4R9,A8GAP2,A8H6X1,A8IBS1,A8L0K9,A8MFI7,A9BAC1,A9IQP2,A9ITB0,A9KMB8,A9KTL5,A9M1G3,A9M8W0,A9MM42,A9MX09,A9QZS3,A9VGD1,A9WRA9,B0B7P9,B0BBW4,B0BSL0,B0C8J3,B0CKC0,B0JL88,B0KL79,B0RC26,B0T3X7,B0TEJ5,B0TQ36,B0U0B3,B0U3E1,B0UUA4,B0V710,B0VQB8,B1HRX4,B1I3J6,B1J029,B1J3G4,B1JID8,B1K3S9,B1KQY8,B1LAQ3,B1LJH0,B1MCU7,B1VWJ8,B1WWM7,B1XF08,B1XKC5,B1Y2X5,B1YLQ5,B1Z1G2,B2A526,B2FN57,B2GJ56,B2I607,B2IDK3,B2J5P1,B2JP68,B2K6T7,B2RMK4,B2S462,B2S9T6,B2SGK5,B2SQV8,B2TRM5,B2U4M3,B2U930,B2V4R3,B2VHS3,B3DW88,B3H050,B3PF22,B3PS68,B3QFY7,B3R5H4,B4EN29,B4EU31,B4RGW0,B4RNW6,B4RVY8,B4SWR4,B4T8R3,B4TMA2,B4UHF5,B5BDB0,B5EXG3,B5FBG6,B5FKS7,B5QTH0,B5R6S3,B5Y0X1,B5YE06,B5Z3S5,B5ZAB7,B5ZS68,B6EIA7,B6HZM1,B6IRB5,B6YRV5,B7HB48,B7HNU0,B7IXG8,B7JM28,B7JVJ6,B7KAF7,B7L654,B7LMG7,B7M3Q9,B7MD78,B7MQD5,B7N8X3,B7NJ77,B7UJP3,B7V7R4,B7VJA1,B8CS19,B8D2I3,B8D7Z3,B8D9P1,B8E247,B8EAU7,B8F3A4,B8FQ45,B8GN62,B8GXC4,B8HH36,B8HWL8,B8JFY1,B8ZQW9,B9E104,B9E6Q6,B9JAL7,B9JSL2,B9L1L6,B9MEU8,C0Q7U7,C0RHE3,C0ZC10,C0ZYV9,C1AFE1,C1DAW8,C1F3C4,C1L2S1,C3K2R1,C3LJV1,C3LTD9,C3P7V6,C4K6M7,C4ZTH7,C5BCH9,C5D467,C6DB37,O22567,O25121,O67036,O78328,O83796,O84335,P0A555,P26242,P45205,P57536,P57848,P73067,P77488,P9WNS2,P9WNS3,Q02SL1,Q04U59,Q053M2,Q07SR3,Q07ZD4,Q0A8V7,Q0AFY6,Q0ARE5,Q0AZE2,Q0BAL8,Q0BLU9,Q0C154,Q0HGL5,Q0HSW6,Q0I3G1,Q0IAA6,Q0K860,Q0S1H1,Q0SS05,Q0TKM1,Q0TPD8,Q0VMI4,Q10ZY2,Q11KE0,Q11NY7,Q12CQ9,Q12L26,Q130G7,Q13RX1,Q14HJ1,Q15W93,Q16CP0,Q16DV7,Q18B68,Q1B9W8,Q1BLY7,Q1C4I9,Q1CL87,Q1CUF6,Q1D3G4,Q1GCG4,Q1GQK9,Q1GZD7,Q1IFL1,Q1IZP0,Q1LK34,Q1LTI9,Q1MKN4,Q1MRB3,Q1QE74,Q1QQ40,Q1R1E5,Q1RFC0,Q21A74,Q21F93,Q21UG7,Q24V05,Q253R7,Q28W25,Q28WA7,Q2A3D3,Q2GC13,Q2IPZ2,Q2IRL7,Q2JDD9,Q2JK64,Q2JTX2,Q2KBR2,Q2KZ15,Q2LUA7,Q2N6U5,Q2NV94,Q2P472,Q2RIB9,Q2RR29,Q2RYD6,Q2SA08,Q2T7N5,Q2W367,Q2YCH7,Q2YMF0,Q30TC5,Q30Z99,Q31AZ2,Q325I1,Q32JH8,Q38854,Q393P4,Q39RT4,Q39UB1,Q3A3Z6,Q3AAN0,Q3AJP8,Q3AXZ4,Q3B5P3,Q3BRW8,Q3II09,Q3IYR6,Q3J1A8,Q3JAD1,Q3JKA3,Q3K660,Q3KM28,Q3M4F6,Q3SKF1,Q3SUZ1,Q3Z4Y9,Q3Z8G9,Q3ZXC2,Q46L36,Q474C2,Q47BJ0,Q47NL9,Q487D3,Q48NX0,Q493G7,Q4FN07,Q4FV64,Q4JVB5,Q4K5A5,Q4QKG6,Q4UW29,Q4ZYU8,Q50000,Q57ET1,Q57SE2,Q5E6Z0,Q5FAI2,Q5FUB1,Q5H1A0,Q5HWF0,Q5L6H4,Q5LH44,Q5LX42,Q5NG39,Q5NM38,Q5NN52,Q5P228,Q5PFR6,Q5QVE8,Q5SMD7,Q5WF63,Q5YTA2,Q60AN1,Q62DU1,Q635A7,Q63JF4,Q64Y02,Q65HJ2,Q65TP4,Q66DV4,Q67NB6,Q6A8V3,Q6AFD5,Q6AJQ1,Q6D844,Q6F7N5,Q6G0D4,Q6G4D1,Q6HDY8,Q6LU07,Q6MDK6,Q6NB76,Q6NGV3,Q6YU51,Q71ZV7,Q72CD3,Q72H81,Q72U01,Q731B7,Q73LF4,Q73W57,Q74CB0,Q74FC3,Q75TB7,Q7M7Z0,Q7MN49,Q7MSZ3,Q7N0J7,Q7NP63,Q7NUK5,Q7U6P6,Q7UWB7,Q7V1G6,Q7V7Q3,Q7VC14,Q7VIJ7,Q7VNP7,Q7VRH9,Q7VV87,Q7W7Q0,Q7WL37,Q818R9,Q81M54,Q823V1,Q82KW8,Q82ML4,Q82VD3,Q83G46,Q83I20,Q83SG2,Q87C03,Q87RU0,Q889Q1,Q88QG7,Q894H0,Q89RW1,Q8A0C2,Q8CJP7,Q8D357,Q8DFA3,Q8DL74,Q8EGR9,Q8EWX7,Q8F153,Q8FKB9,Q8FPI2,Q8G292,Q8GAA0,Q8K9A1,Q8KFI9,Q8NPB2,Q8P815,Q8PJG7,Q8R639,Q8RAC5,Q8UHD7,Q8VUR8,Q8XE76,Q8XJE1,Q8XX95,Q8Y7C1,Q8YFM2,Q8YZ80,Q8Z8X3,Q8ZC45,Q8ZRD1,Q92BZ0,Q92RJ1,Q97HD5,Q985Y3,Q9A6M5,Q9F1V2,Q9JW13,Q9JXV7,Q9K971,Q9KGU7,Q9KTL3,Q9PB95,Q9PIH8,Q9PK62,Q9R6S7,Q9RBN6,Q9RUB5,Q9X291,Q9X7W3,Q9Z6J9,Q9ZM94</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t xml:space="preserve">R05636_reverse: [] | DXS-RXN_reverse: [A0AIG6, A0AYZ0, A0JVG9, A0KNF9, A0KZA9, A0L6H3, A0PT40, A0Q0A4, A0Q6B9, A0QIL6, A0QW19, A0RMN5, A1A890, A1JNR7, A1K4R0, A1KM20, A1KS32, A1R5N7, A1RLV3, A1S8D4, A1SKM6, A1SWW6, A1T7Z0, A1TNR1, A1UF44, A1URW6, A1VE69, A1VMD7, A1VY40, A1W4U9, A1WN06, A2BR27, A2BWN6, A2C220, A2C9X1, A2SJ46, A3D2B2, A3MYS9, A3NMF6, A3P7W4, A3PCV0, A3PYK6, A3QGN9, A4FAQ5, A4IQR7, A4IXW5, A4QEQ9, A4SDG1, A4SJP9, A4TCS5, A4TPG2, A4VQS8, A4W791, A4XZ25, A4Y4X0, A4YQ36, A5D2Z6, A5EEQ0, A5F331, A5FRB9, A5GL34, A5GTT4, A5ILK2, A5N7J2, A5U634, A5UC51, A5UEV6, A5V6A9, A5VP09, A5VXW9, A6L175, A6LFB9, A6LU48, A6Q1Z6, A6T5F3, A6V058, A6VUE5, A6WL04, A6WWC4, A7BKB8, A7FLE4, A7GSJ5, A7H552, A7H9E8, A7I2V7, A7IPK6, A7MFG0, A7MYC6, A7NCA4, A7Z6J5, A7ZIH3, A7ZX72, A8AK34, A8EWN0, A8FF11, A8FKB0, A8FYL0, A8G4R9, A8GAP2, A8H6X1, A8IBS1, A8L0K9, A8MFI7, A9BAC1, A9IQP2, A9ITB0, A9KMB8, A9KTL5, A9M1G3, A9M8W0, A9MM42, A9MX09, A9QZS3, A9VGD1, A9WRA9, B0B7P9, B0BBW4, B0BSL0, B0C8J3, B0CKC0, B0JL88, B0KL79, B0RC26, B0T3X7, B0TEJ5, B0TQ36, B0U0B3, B0U3E1, B0UUA4, B0V710, B0VQB8, B1HRX4, B1I3J6, B1J029, B1J3G4, B1JID8, B1K3S9, B1KQY8, B1LAQ3, B1LJH0, B1MCU7, B1VWJ8, B1WWM7, B1XF08, B1XKC5, B1Y2X5, B1YLQ5, B1Z1G2, B2A526, B2FN57, B2GJ56, B2I607, B2IDK3, B2J5P1, B2JP68, B2K6T7, B2RMK4, B2S462, B2S9T6, B2SGK5, B2SQV8, B2TRM5, B2U4M3, B2U930, B2V4R3, B2VHS3, B3DW88, B3H050, B3PF22, B3PS68, B3QFY7, B3R5H4, B4EN29, B4EU31, B4RGW0, B4RNW6, B4RVY8, B4SWR4, B4T8R3, B4TMA2, B4UHF5, B5BDB0, B5EXG3, B5FBG6, B5FKS7, B5QTH0, B5R6S3, B5Y0X1, B5YE06, B5Z3S5, B5ZAB7, B5ZS68, B6EIA7, B6HZM1, B6IRB5, B6YRV5, B7HB48, B7HNU0, B7IXG8, B7JM28, B7JVJ6, B7KAF7, B7L654, B7LMG7, B7M3Q9, B7MD78, B7MQD5, B7N8X3, B7NJ77, B7UJP3, B7V7R4, B7VJA1, B8CS19, B8D2I3, B8D7Z3, B8D9P1, B8E247, B8EAU7, B8F3A4, B8FQ45, B8GN62, B8GXC4, B8HH36, B8HWL8, B8JFY1, B8ZQW9, B9E104, B9E6Q6, B9JAL7, B9JSL2, B9L1L6, B9MEU8, C0Q7U7, C0RHE3, C0ZC10, C0ZYV9, C1AFE1, C1DAW8, C1F3C4, C1L2S1, C3K2R1, C3LJV1, C3LTD9, C3P7V6, C4K6M7, C4ZTH7, C5BCH9, C5D467, C6DB37, O22567, O25121, O67036, O78328, O83796, O84335, P0A555, P26242, P45205, P57536, P57848, P73067, P77488, P9WNS2, P9WNS3, Q02SL1, Q04U59, Q053M2, Q07SR3, Q07ZD4, Q0A8V7, Q0AFY6, Q0ARE5, Q0AZE2, Q0BAL8, Q0BLU9, Q0C154, Q0HGL5, Q0HSW6, Q0I3G1, Q0IAA6, Q0K860, Q0S1H1, Q0SS05, Q0TKM1, Q0TPD8, Q0VMI4, Q10ZY2, Q11KE0, Q11NY7, Q12CQ9, Q12L26, Q130G7, Q13RX1, Q14HJ1, Q15W93, Q16CP0, Q16DV7, Q18B68, Q1B9W8, Q1BLY7, Q1C4I9, Q1CL87, Q1CUF6, Q1D3G4, Q1GCG4, Q1GQK9, Q1GZD7, Q1IFL1, Q1IZP0, Q1LK34, Q1LTI9, Q1MKN4, Q1MRB3, Q1QE74, Q1QQ40, Q1R1E5, Q1RFC0, Q21A74, Q21F93, Q21UG7, Q24V05, Q253R7, Q28W25, Q28WA7, Q2A3D3, Q2GC13, Q2IPZ2, Q2IRL7, Q2JDD9, Q2JK64, Q2JTX2, Q2KBR2, Q2KZ15, Q2LUA7, Q2N6U5, Q2NV94, Q2P472, Q2RIB9, Q2RR29, Q2RYD6, Q2SA08, Q2T7N5, Q2W367, Q2YCH7, Q2YMF0, Q30TC5, Q30Z99, Q31AZ2, Q325I1, Q32JH8, Q38854, Q393P4, Q39RT4, Q39UB1, Q3A3Z6, Q3AAN0, Q3AJP8, Q3AXZ4, Q3B5P3, Q3BRW8, Q3II09, Q3IYR6, Q3J1A8, Q3JAD1, Q3JKA3, Q3K660, Q3KM28, Q3M4F6, Q3SKF1, Q3SUZ1, Q3Z4Y9, Q3Z8G9, Q3ZXC2, Q46L36, Q474C2, Q47BJ0, Q47NL9, Q487D3, Q48NX0, Q493G7, Q4FN07, Q4FV64, Q4JVB5, Q4K5A5, Q4QKG6, Q4UW29, Q4ZYU8, Q50000, Q57ET1, Q57SE2, Q5E6Z0, Q5FAI2, Q5FUB1, Q5H1A0, Q5HWF0, Q5L6H4, Q5LH44, Q5LX42, Q5NG39, Q5NM38, Q5NN52, Q5P228, Q5PFR6, Q5QVE8, Q5SMD7, Q5WF63, Q5YTA2, Q60AN1, Q62DU1, Q635A7, Q63JF4, Q64Y02, Q65HJ2, Q65TP4, Q66DV4, Q67NB6, Q6A8V3, Q6AFD5, Q6AJQ1, Q6D844, Q6F7N5, Q6G0D4, Q6G4D1, Q6HDY8, Q6LU07, Q6MDK6, Q6NB76, Q6NGV3, Q6YU51, Q71ZV7, Q72CD3, Q72H81, Q72U01, Q731B7, Q73LF4, Q73W57, Q74CB0, Q74FC3, Q75TB7, Q7M7Z0, Q7MN49, Q7MSZ3, Q7N0J7, Q7NP63, Q7NUK5, Q7U6P6, Q7UWB7, Q7V1G6, Q7V7Q3, Q7VC14, Q7VIJ7, Q7VNP7, Q7VRH9, Q7VV87, Q7W7Q0, Q7WL37, Q818R9, Q81M54, Q823V1, Q82KW8, Q82ML4, Q82VD3, Q83G46, Q83I20, Q83SG2, Q87C03, Q87RU0, Q889Q1, Q88QG7, Q894H0, Q89RW1, Q8A0C2, Q8CJP7, Q8D357, Q8DFA3, Q8DL74, Q8EGR9, Q8EWX7, Q8F153, Q8FKB9, Q8FPI2, Q8G292, Q8GAA0, Q8K9A1, Q8KFI9, Q8NPB2, Q8P815, Q8PJG7, Q8R639, Q8RAC5, Q8UHD7, Q8VUR8, Q8XE76, Q8XJE1, Q8XX95, Q8Y7C1, Q8YFM2, Q8YZ80, Q8Z8X3, Q8ZC45, Q8ZRD1, Q92BZ0, Q92RJ1, Q97HD5, Q985Y3, Q9A6M5, Q9F1V2, Q9JW13, Q9JXV7, Q9K971, Q9KGU7, Q9KTL3, Q9PB95, Q9PIH8, Q9PK62, Q9R6S7, Q9RBN6, Q9RUB5, Q9X291, Q9X7W3, Q9Z6J9, Q9ZM94] | 2.2.1.7_06: [] | 2.2.1.7_05: [] | </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4969,13 +6245,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2.1.9_09: [] | </t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>G1UBD1</t>
+          <t xml:space="preserve">RXN-17665: [G1UBD1] | 1.14.18.3_11: [] | 1.14.13.230_00: [] | </t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -5002,16 +6282,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A3N223,A4VQV5,A4XQ41,A4YT21,A5EL79,A5W8J7,A6T4H1,A6VCY0,A6VL34,A6VZF8,A9MYH6,B0KV77,B1J195,B1JFP4,B3GYF4,B3QAW1,B5F736,B7LVP2,B7V1T5,C1DEN4,C3KBB4,P13155,P13156,P13187,P27443,P58650,P58651,Q02FE6,Q03030,Q03031,Q03032,Q07L14,Q135C1,Q13Q00,Q1I5P3,Q1R0Z3,Q211P3,Q2IXI7,Q3KCJ2,Q3KEL1,Q48LY6,Q4KDX1,Q4ZX15,Q58628,Q5PJT2,Q5PKI8,Q65WL3,Q6N509,Q7MHR9,Q87LR6,Q886Y2,Q88N27,Q89JL7,Q8DC44,Q8XGX8,Q8Z3E4,Q8Z3E5,Q8Z9M5,Q8Z9M6,Q8ZRY4,Q9CL24,Q9CL26,Q9HUU1,Q9KTU4,Q9KTU5,Q9KUH2,Q9RF98,Q9RFA0</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+          <t xml:space="preserve">RXN-7746: [] | R00995: [] | R00217_reverse: [] | OXALODECARB-RXN: [A3N223, A4VQV5, A4XQ41, A4YT21, A5EL79, A5W8J7, A6T4H1, A6VCY0, A6VL34, A6VZF8, A9MYH6, B0KV77, B1J195, B1JFP4, B3GYF4, B3QAW1, B5F736, B7LVP2, B7V1T5, C1DEN4, C3KBB4, P13155, P13156, P13187, P27443, P58650, P58651, Q02FE6, Q03030, Q03031, Q03032, Q07L14, Q135C1, Q13Q00, Q1I5P3, Q1R0Z3, Q211P3, Q2IXI7, Q3KCJ2, Q3KEL1, Q48LY6, Q4KDX1, Q4ZX15, Q58628, Q5PJT2, Q5PKI8, Q65WL3, Q6N509, Q7MHR9, Q87LR6, Q886Y2, Q88N27, Q89JL7, Q8DC44, Q8XGX8, Q8Z3E4, Q8Z3E5, Q8Z9M5, Q8Z9M6, Q8ZRY4, Q9CL24, Q9CL26, Q9HUU1, Q9KTU4, Q9KTU5, Q9KUH2, Q9RF98, Q9RFA0] | 7.2.4.2_4: [] | 4.1.1.112_0: [] | </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -5035,14 +6323,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -5068,14 +6364,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141_reverse: [] | </t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -5101,16 +6405,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05099_reverse: [] | 6-OXOHEXANOATE-OXIDATION-RXN_reverse: [] | 1.2.1.63_1: [] | </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5134,20 +6446,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">R06890: [] | 1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>A6QP15,A8WTJ7,Q08B39,Q17EN4,Q28XT3,Q4QQW3,Q54GJ7,Q6P371,Q7Q547,Q8IWW8,Q8R0N6,Q9U2M4,Q9W265</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14300_reverse: [A6QP15, A8WTJ7, Q08B39, Q17EN4, Q28XT3, Q4QQW3, Q54GJ7, Q6P371, Q7Q547, Q8IWW8, Q8R0N6, Q9U2M4, Q9W265] | 1.1.99.24_6: [] | </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -5171,18 +6487,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -5208,16 +6528,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -5241,16 +6569,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Q588Z2</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+          <t xml:space="preserve">R03781_reverse: [] | BETA-DIKETONE-HYDROLASE-RXN: [Q588Z2] | </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5274,16 +6610,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Q588Z2</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t xml:space="preserve">R03781_reverse: [] | BETA-DIKETONE-HYDROLASE-RXN: [Q588Z2] | </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5307,12 +6651,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5336,16 +6692,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Q588Z2</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+          <t xml:space="preserve">R03781_reverse: [] | BETA-DIKETONE-HYDROLASE-RXN: [Q588Z2] | </t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5369,12 +6733,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R06987: [] | KETOBUTFORMLY-RXN: [] | 2.3.1.54_0: [] | </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5398,12 +6774,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07985: [] | 1.1.1.291_0: [] | 1.1.1.291-RXN_reverse: [] | 1.1.1.1_362: [] | </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5427,12 +6815,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5456,12 +6856,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5485,20 +6897,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>E3PY95,E3PY96,Q8VPJ6</t>
+          <t xml:space="preserve">R02461_reverse: [] | ORNMUTST-RXN: [E3PY95, E3PY96, Q8VPJ6] | 5.4.3.5_0: [] | </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Q51593</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t xml:space="preserve">RXN-10133: [Q51593] | R05418_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.5.1.36_5: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5522,12 +6938,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R06987: [] | KETOBUTFORMLY-RXN: [] | 2.3.1.54_0: [] | </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5551,11 +6979,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.2.1.9_09: [] | </t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -5580,16 +7016,24 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R08326_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5613,16 +7057,24 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R08326_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5646,12 +7098,24 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.6.1.77_14: [] | </t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5675,18 +7139,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17561_reverse: [] | </t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -5712,16 +7180,24 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R05099_reverse: [] | 6-OXOHEXANOATE-OXIDATION-RXN_reverse: [] | 1.2.1.63_1: [] | </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5745,12 +7221,24 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.30_09: [] | </t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5774,18 +7262,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.2.47_182: [] | 4.1.2.10_206: [] | 4.1.2.47_146: [] | 4.1.2.10_181: [] | 4.1.2.47_160: [] | 4.1.2.47_159: [] | 4.1.2.10_180: [] | 4.1.2.47_161: [] | 4.1.2.10_191: [] | 4.1.2.10_122: [] | 4.1.2.47_157: [] | 4.1.2.10_186: [] | 4.1.2.47_154: [] | 4.1.2.47_112: [] | </t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | 2.8.3.9_14: [] | </t>
         </is>
       </c>
     </row>
@@ -5811,16 +7303,24 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.6.1.77_14: [] | </t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.1.71_096: [] | 1.1.1.2_197: [] | 1.1.1.283_27: [] | 1.1.1.184_198: [] | 1.1.1.71_097: [] | 1.1.1.2_199: [] | 1.1.1.184_200: [] | 1.1.1.71_104: [] | 1.1.1.2_211: [] | 1.1.1.283_33: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5844,18 +7344,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.6.1.77_14: [] | </t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930_reverse: [] | 2.1.3.1_7: [] | 2.1.3.1-RXN: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
     </row>
@@ -5881,12 +7385,24 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.68-RXN_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | </t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14984: [] | RXN-14984_reverse: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5910,15 +7426,19 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Q88JX9</t>
+          <t xml:space="preserve">RXN-12074: [Q88JX9] | R00008_reverse: [] | 4.1.3.17_7: [] | 4.1.3.17-RXN: [] | </t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A0AJ02,A0AJD9,A0B885,A0JYM2,A0K5D7,A0KNY9,A0KZS6,A0L3S9,A0LIP3,A0LRE5,A0LXY3,A0PLS0,A0Q2A8,A0Q628,A0QLG2,A0QR33,A0R9G6,A0RJ78,A0RQ51,A0RXB3,A1A7K0,A1ASE9,A1AVQ1,A1BJG8,A1JJQ1,A1KB59,A1KG00,A1KS34,A1R898,A1RMG7,A1RQR5,A1S3U0,A1SE06,A1ST92,A1T3F2,A1TKK8,A1TYG5,A1UAR1,A1V1L0,A1V9X6,A1VSM6,A1VZJ6,A1WBR8,A1WMA0,A1WYL3,A2BL27,A2BPW6,A2BVE5,A2C0U2,A2C7I7,A2S9D9,A2SKQ7,A2SQU3,A3CL81,A3CU65,A3D1R5,A3DIF3,A3M7I8,A3MMQ8,A3MWW7,A3N2K3,A3NCF3,A3NY82,A3PBK8,A3PUB7,A3QBN5,A4FPX3,A4FZY1,A4G8N0,A4IKL1,A4IRG2,A4IXN8,A4J6H0,A4JC86,A4QB78,A4SGT2,A4SJ79,A4SVE6,A4T358,A4TPW6,A4VQY0,A4W6Q1,A4WN33,A4XC73,A4XK09,A4XYV6,A4Y4G4,A4YD91,A5CNI7,A5CXH8,A5D3M2,A5EXX1,A5F945,A5FIM3,A5G9C0,A5GMT2,A5GUJ2,A5IC29,A5ITJ2,A5IU30,A5N5Y1,A5TZQ4,A5UML0,A5UU40,A5VM65,A5W9H0,A5WC94,A6GYW4,A6LKX4,A6LSY8,A6Q2X6,A6Q9P9,A6QHK1,A6QI46,A6T2A2,A6T4V8,A6TJD8,A6U2D5,A6U2W8,A6URL2,A6UWB3,A6V0D2,A6VIL1,A6VQ66,A6VUX8,A6W5M6,A6WKL6,A7FM09,A7GL00,A7GTE2,A7GXK4,A7H3N1,A7HIX3,A7I252,A7I7P2,A7MGR5,A7MUU9,A7NCX8,A7NKV1,A7X388,A7X3X9,A7Z2N8,A7Z7A2,A7ZCH5,A7ZHP6,A7ZWA2,A8AAB3,A8ALD5,A8ETJ2,A8FB92,A8FFU9,A8FLR2,A8FS76,A8G3J9,A8G9U7,A8H164,A8LCD0,A8M6S5,A8M919,A8MGY8,A8YY36,A8Z2I8,A8ZZU9,A9A1A0,A9A875,A9AEU0,A9B550,A9BEA5,A9BY74,A9GDD3,A9I1R3,A9KBA0,A9KP86,A9KSC7,A9L5J5,A9M1G6,A9MPK7,A9N0P9,A9NAX3,A9R1E6,A9VIT5,A9VSS7,A9WIS7,A9WPI0,B0B9W0,B0BBJ0,B0BRF0,B0CC57,B0JPW6,B0KJV9,B0R7L9,B0RBL3,B0RP74,B0SF64,B0SNK3,B0TFV0,B0TIQ0,B0U0T6,B0U328,B0UST3,B0VCN6,B0VU92,B1HUT1,B1HVD3,B1I4L1,B1IQI6,B1J1Y6,B1JK22,B1JX81,B1KHF6,B1LGV7,B1MHH1,B1VEK3,B1VTD1,B1X023,B1XD24,B1XIT5,B1XT79,B1Y8G2,B1YBL3,B1YJU8,B1YK58,B1YUJ7,B1ZVF7,B2A1H4,B2FT35,B2G9H2,B2GL27,B2HRL5,B2HW19,B2I6C2,B2J7M9,B2JED5,B2K547,B2SGG7,B2SKS0,B2T6C2,B2TPD4,B2U2Z9,B2U6Q7,B2UNE3,B2USD7,B2UX41,B2V5U0,B2VE25,B3DY05,B3E9X0,B3EI07,B3EKJ7,B3GYN8,B3PL68,B3QRD2,B3QSA6,B3R312,B4EBT3,B4EUE1,B4RNX2,B4S0D0,B4S3Q6,B4SGW1,B4SI23,B4SUY4,B4TK30,B4TXQ6,B4U8M6,B4UKE6,B5BL82,B5EFG4,B5ERN9,B5F8R5,B5FAL8,B5FJ01,B5R3G6,B5RHE0,B5Y1L5,B5YHH6,B5Z0D4,B5ZA72,B6EL04,B6HZD0,B6J3H2,B6J495,B6JKN5,B7GH35,B7GIK0,B7GYZ5,B7H9S6,B7HE93,B7HQM1,B7HU66,B7I4N4,B7IHH3,B7IIX2,B7IW22,B7JBI1,B7JNG6,B7JQ54,B7K2I1,B7KA18,B7LGL6,B7LWB5,B7M195,B7MBD7,B7MP16,B7N823,B7NIB7,B7UIK1,B7V9D9,B7VJJ5,B8CJG4,B8DFN7,B8DHJ5,B8DN02,B8EBU3,B8F7H5,B8FBA1,B8G2L6,B8G822,B8GJJ2,B8GLE4,B8HBR2,B8HYK1,B8I0R1,B8J3A3,B8JCU6,B8ZT67,B9DMX3,B9DND8,B9DZG0,B9E740,B9E7Y3,B9IZ36,B9J3N2,B9KFS8,B9L0Q2,B9LA83,B9LKS0,B9LTZ9,B9LZL6,B9MF68,B9MRJ7,C0Q5R5,C0QCR9,C0QQ98,C0Z671,C0ZAH4,C0ZUX9,C1A7K7,C1AKK4,C1AZ30,C1CWI8,C1D9B6,C1DMY5,C1DUY4,C1ETQ7,C1EWG6,C1F911,C1KVK0,C1KVY4,C3K2K3,C3L6Z2,C3LHA0,C3LSN1,C3MJ22,C3MYE0,C3MZR9,C3N842,C3NF69,C3P9E6,C3PCZ3,C3PKI4,C4K6Y5,C4KJ00,C4L367,C4L4J9,C4LAK4,C4ZRP7,C5BAP9,C6AR33,C6DC32,E1W874,O26330,O29027,O66998,O74038,O74061,O84212,P0C1P8,P0C2D9,P0CL07,P18492,P21267,P23893,P24630,P30949,P31593,P45621,P46716,P48247,P56115,P63507,P63508,P71084,P99096,P9WMN8,P9WMN9,Q01YQ2,Q02SE5,Q04NV4,Q04X52,Q06741,Q06774,Q07YU5,Q0AAH7,Q0AFV1,Q0AZ36,Q0BHJ2,Q0BLC7,Q0HG53,Q0HSE6,Q0I3R7,Q0I8G1,Q0KDN9,Q0RS03,Q0SF42,Q0ST19,Q0T852,Q0TLH7,Q0TQG7,Q0VSP6,Q0W5T3,Q110Z9,Q11WK1,Q12EF7,Q12KC8,Q12WM7,Q13V40,Q14HS1,Q15YL3,Q17X40,Q18ES5,Q1AUK6,Q1BE73,Q1BYB1,Q1C3X1,Q1CLU7,Q1CUJ7,Q1DFA7,Q1GXW0,Q1I4H5,Q1IHV2,Q1IWZ8,Q1LQM3,Q1MPW7,Q1QEE8,Q1QSB0,Q1RG34,Q21MJ0,Q21YQ0,Q24VD4,Q254Z2,Q2A2U8,Q2FFN1,Q2FG69,Q2FTK5,Q2FXR4,Q2G283,Q2IHP8,Q2JFQ1,Q2JMP7,Q2JS70,Q2KUS4,Q2LVW6,Q2NF42,Q2NVQ0,Q2P6E4,Q2RJ31,Q2S1S3,Q2S8X9,Q2SYB2,Q2Y5Q5,Q2YTC2,Q2YU22,Q30RJ4,Q30WH2,Q31C50,Q31FB1,Q31QJ2,Q325Y5,Q32JV4,Q39566,Q39IQ4,Q39QA6,Q3A7W5,Q3ACS9,Q3ALU9,Q3AP59,Q3AWP4,Q3B1A1,Q3BPP7,Q3IHS1,Q3IT20,Q3JDH7,Q3JPN1,Q3K6C0,Q3KMF2,Q3M3B9,Q3SFU6,Q3Z5K3,Q40147,Q42522,Q46CH1,Q46GT9,Q46XZ7,Q478V1,Q47LB3,Q47V96,Q48DP1,Q49Y99,Q49YQ9,Q4FVC4,Q4JAM7,Q4JSY1,Q4K5I6,Q4L706,Q4L7G9,Q4UYA7,Q4ZNA0,Q55665,Q57T53,Q58020,Q5E2W6,Q5FAH9,Q5H3I5,Q5HER0,Q5HFA5,Q5HN71,Q5HNN6,Q5HUU3,Q5KWK9,Q5L2S4,Q5L5P0,Q5NGB9,Q5P6J6,Q5PD43,Q5QVP9,Q5SJS4,Q5UZ90,Q5WEP8,Q5WIE9,Q5WWG1,Q5X529,Q5YP79,Q5ZVA6,Q60CV0,Q62HV8,Q633Y3,Q63GB4,Q63RP8,Q65GK4,Q65M82,Q65U43,Q66EF1,Q67KM3,Q6AB08,Q6AHE8,Q6AQ32,Q6D1Z0,Q6FCY1,Q6G870,Q6G8Q8,Q6GFJ3,Q6GG38,Q6HD65,Q6HNS8,Q6L2G9,Q6LUS3,Q6M0P5,Q6MAC7,Q6MHT9,Q6NJJ2,Q6YZE2,Q71YY2,Q71ZB5,Q725I1,Q72K83,Q72ZW5,Q73DX4,Q73SQ3,Q74GA9,Q75G04,Q7A4T5,Q7M847,Q7MHY9,Q7N845,Q7NPI4,Q7P1Z5,Q7U598,Q7UPM9,Q7V2J3,Q7V677,Q7VDA1,Q7VHK3,Q7W050,Q7W3U1,Q7WF71,Q817R3,Q81I85,Q81LD0,Q81YV0,Q821C1,Q822Q0,Q82E21,Q82UQ8,Q83AK3,Q83FJ5,Q83H98,Q85WB7,Q87BW3,Q87LY3,Q87VY5,Q88DP0,Q897K4,Q8CNZ1,Q8CRW7,Q8CV56,Q8CZE3,Q8D3C8,Q8DBX8,Q8DLK8,Q8EHC8,Q8EY44,Q8FL16,Q8FSD4,Q8KAQ7,Q8NT73,Q8NVU6,Q8NW75,Q8P5R4,Q8PH40,Q8PW58,Q8RFY7,Q8TT57,Q8TYL6,Q8X4V5,Q8Y1M4,Q8Y6J9,Q8Y6X8,Q8YS26,Q8Z9B4,Q8ZBL9,Q8ZYW1,Q92AX5,Q92BG1,Q976H2,Q97B25,Q97MU2,Q980U5,Q99T15,Q9CNG9,Q9F2S0,Q9HKM6,Q9HMY8,Q9JRW9,Q9JW10,Q9JXW0,Q9K8G3,Q9KEB0,Q9KU97,Q9PB43,Q9PKI3,Q9PP70,Q9RWW0,Q9Y9I9,Q9ZMD0</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
+          <t xml:space="preserve">R02272: [] | GSAAMINOTRANS-RXN: [A0AJ02, A0AJD9, A0B885, A0JYM2, A0K5D7, A0KNY9, A0KZS6, A0L3S9, A0LIP3, A0LRE5, A0LXY3, A0PLS0, A0Q2A8, A0Q628, A0QLG2, A0QR33, A0R9G6, A0RJ78, A0RQ51, A0RXB3, A1A7K0, A1ASE9, A1AVQ1, A1BJG8, A1JJQ1, A1KB59, A1KG00, A1KS34, A1R898, A1RMG7, A1RQR5, A1S3U0, A1SE06, A1ST92, A1T3F2, A1TKK8, A1TYG5, A1UAR1, A1V1L0, A1V9X6, A1VSM6, A1VZJ6, A1WBR8, A1WMA0, A1WYL3, A2BL27, A2BPW6, A2BVE5, A2C0U2, A2C7I7, A2S9D9, A2SKQ7, A2SQU3, A3CL81, A3CU65, A3D1R5, A3DIF3, A3M7I8, A3MMQ8, A3MWW7, A3N2K3, A3NCF3, A3NY82, A3PBK8, A3PUB7, A3QBN5, A4FPX3, A4FZY1, A4G8N0, A4IKL1, A4IRG2, A4IXN8, A4J6H0, A4JC86, A4QB78, A4SGT2, A4SJ79, A4SVE6, A4T358, A4TPW6, A4VQY0, A4W6Q1, A4WN33, A4XC73, A4XK09, A4XYV6, A4Y4G4, A4YD91, A5CNI7, A5CXH8, A5D3M2, A5EXX1, A5F945, A5FIM3, A5G9C0, A5GMT2, A5GUJ2, A5IC29, A5ITJ2, A5IU30, A5N5Y1, A5TZQ4, A5UML0, A5UU40, A5VM65, A5W9H0, A5WC94, A6GYW4, A6LKX4, A6LSY8, A6Q2X6, A6Q9P9, A6QHK1, A6QI46, A6T2A2, A6T4V8, A6TJD8, A6U2D5, A6U2W8, A6URL2, A6UWB3, A6V0D2, A6VIL1, A6VQ66, A6VUX8, A6W5M6, A6WKL6, A7FM09, A7GL00, A7GTE2, A7GXK4, A7H3N1, A7HIX3, A7I252, A7I7P2, A7MGR5, A7MUU9, A7NCX8, A7NKV1, A7X388, A7X3X9, A7Z2N8, A7Z7A2, A7ZCH5, A7ZHP6, A7ZWA2, A8AAB3, A8ALD5, A8ETJ2, A8FB92, A8FFU9, A8FLR2, A8FS76, A8G3J9, A8G9U7, A8H164, A8LCD0, A8M6S5, A8M919, A8MGY8, A8YY36, A8Z2I8, A8ZZU9, A9A1A0, A9A875, A9AEU0, A9B550, A9BEA5, A9BY74, A9GDD3, A9I1R3, A9KBA0, A9KP86, A9KSC7, A9L5J5, A9M1G6, A9MPK7, A9N0P9, A9NAX3, A9R1E6, A9VIT5, A9VSS7, A9WIS7, A9WPI0, B0B9W0, B0BBJ0, B0BRF0, B0CC57, B0JPW6, B0KJV9, B0R7L9, B0RBL3, B0RP74, B0SF64, B0SNK3, B0TFV0, B0TIQ0, B0U0T6, B0U328, B0UST3, B0VCN6, B0VU92, B1HUT1, B1HVD3, B1I4L1, B1IQI6, B1J1Y6, B1JK22, B1JX81, B1KHF6, B1LGV7, B1MHH1, B1VEK3, B1VTD1, B1X023, B1XD24, B1XIT5, B1XT79, B1Y8G2, B1YBL3, B1YJU8, B1YK58, B1YUJ7, B1ZVF7, B2A1H4, B2FT35, B2G9H2, B2GL27, B2HRL5, B2HW19, B2I6C2, B2J7M9, B2JED5, B2K547, B2SGG7, B2SKS0, B2T6C2, B2TPD4, B2U2Z9, B2U6Q7, B2UNE3, B2USD7, B2UX41, B2V5U0, B2VE25, B3DY05, B3E9X0, B3EI07, B3EKJ7, B3GYN8, B3PL68, B3QRD2, B3QSA6, B3R312, B4EBT3, B4EUE1, B4RNX2, B4S0D0, B4S3Q6, B4SGW1, B4SI23, B4SUY4, B4TK30, B4TXQ6, B4U8M6, B4UKE6, B5BL82, B5EFG4, B5ERN9, B5F8R5, B5FAL8, B5FJ01, B5R3G6, B5RHE0, B5Y1L5, B5YHH6, B5Z0D4, B5ZA72, B6EL04, B6HZD0, B6J3H2, B6J495, B6JKN5, B7GH35, B7GIK0, B7GYZ5, B7H9S6, B7HE93, B7HQM1, B7HU66, B7I4N4, B7IHH3, B7IIX2, B7IW22, B7JBI1, B7JNG6, B7JQ54, B7K2I1, B7KA18, B7LGL6, B7LWB5, B7M195, B7MBD7, B7MP16, B7N823, B7NIB7, B7UIK1, B7V9D9, B7VJJ5, B8CJG4, B8DFN7, B8DHJ5, B8DN02, B8EBU3, B8F7H5, B8FBA1, B8G2L6, B8G822, B8GJJ2, B8GLE4, B8HBR2, B8HYK1, B8I0R1, B8J3A3, B8JCU6, B8ZT67, B9DMX3, B9DND8, B9DZG0, B9E740, B9E7Y3, B9IZ36, B9J3N2, B9KFS8, B9L0Q2, B9LA83, B9LKS0, B9LTZ9, B9LZL6, B9MF68, B9MRJ7, C0Q5R5, C0QCR9, C0QQ98, C0Z671, C0ZAH4, C0ZUX9, C1A7K7, C1AKK4, C1AZ30, C1CWI8, C1D9B6, C1DMY5, C1DUY4, C1ETQ7, C1EWG6, C1F911, C1KVK0, C1KVY4, C3K2K3, C3L6Z2, C3LHA0, C3LSN1, C3MJ22, C3MYE0, C3MZR9, C3N842, C3NF69, C3P9E6, C3PCZ3, C3PKI4, C4K6Y5, C4KJ00, C4L367, C4L4J9, C4LAK4, C4ZRP7, C5BAP9, C6AR33, C6DC32, E1W874, O26330, O29027, O66998, O74038, O74061, O84212, P0C1P8, P0C2D9, P0CL07, P18492, P21267, P23893, P24630, P30949, P31593, P45621, P46716, P48247, P56115, P63507, P63508, P71084, P99096, P9WMN8, P9WMN9, Q01YQ2, Q02SE5, Q04NV4, Q04X52, Q06741, Q06774, Q07YU5, Q0AAH7, Q0AFV1, Q0AZ36, Q0BHJ2, Q0BLC7, Q0HG53, Q0HSE6, Q0I3R7, Q0I8G1, Q0KDN9, Q0RS03, Q0SF42, Q0ST19, Q0T852, Q0TLH7, Q0TQG7, Q0VSP6, Q0W5T3, Q110Z9, Q11WK1, Q12EF7, Q12KC8, Q12WM7, Q13V40, Q14HS1, Q15YL3, Q17X40, Q18ES5, Q1AUK6, Q1BE73, Q1BYB1, Q1C3X1, Q1CLU7, Q1CUJ7, Q1DFA7, Q1GXW0, Q1I4H5, Q1IHV2, Q1IWZ8, Q1LQM3, Q1MPW7, Q1QEE8, Q1QSB0, Q1RG34, Q21MJ0, Q21YQ0, Q24VD4, Q254Z2, Q2A2U8, Q2FFN1, Q2FG69, Q2FTK5, Q2FXR4, Q2G283, Q2IHP8, Q2JFQ1, Q2JMP7, Q2JS70, Q2KUS4, Q2LVW6, Q2NF42, Q2NVQ0, Q2P6E4, Q2RJ31, Q2S1S3, Q2S8X9, Q2SYB2, Q2Y5Q5, Q2YTC2, Q2YU22, Q30RJ4, Q30WH2, Q31C50, Q31FB1, Q31QJ2, Q325Y5, Q32JV4, Q39566, Q39IQ4, Q39QA6, Q3A7W5, Q3ACS9, Q3ALU9, Q3AP59, Q3AWP4, Q3B1A1, Q3BPP7, Q3IHS1, Q3IT20, Q3JDH7, Q3JPN1, Q3K6C0, Q3KMF2, Q3M3B9, Q3SFU6, Q3Z5K3, Q40147, Q42522, Q46CH1, Q46GT9, Q46XZ7, Q478V1, Q47LB3, Q47V96, Q48DP1, Q49Y99, Q49YQ9, Q4FVC4, Q4JAM7, Q4JSY1, Q4K5I6, Q4L706, Q4L7G9, Q4UYA7, Q4ZNA0, Q55665, Q57T53, Q58020, Q5E2W6, Q5FAH9, Q5H3I5, Q5HER0, Q5HFA5, Q5HN71, Q5HNN6, Q5HUU3, Q5KWK9, Q5L2S4, Q5L5P0, Q5NGB9, Q5P6J6, Q5PD43, Q5QVP9, Q5SJS4, Q5UZ90, Q5WEP8, Q5WIE9, Q5WWG1, Q5X529, Q5YP79, Q5ZVA6, Q60CV0, Q62HV8, Q633Y3, Q63GB4, Q63RP8, Q65GK4, Q65M82, Q65U43, Q66EF1, Q67KM3, Q6AB08, Q6AHE8, Q6AQ32, Q6D1Z0, Q6FCY1, Q6G870, Q6G8Q8, Q6GFJ3, Q6GG38, Q6HD65, Q6HNS8, Q6L2G9, Q6LUS3, Q6M0P5, Q6MAC7, Q6MHT9, Q6NJJ2, Q6YZE2, Q71YY2, Q71ZB5, Q725I1, Q72K83, Q72ZW5, Q73DX4, Q73SQ3, Q74GA9, Q75G04, Q7A4T5, Q7M847, Q7MHY9, Q7N845, Q7NPI4, Q7P1Z5, Q7U598, Q7UPM9, Q7V2J3, Q7V677, Q7VDA1, Q7VHK3, Q7W050, Q7W3U1, Q7WF71, Q817R3, Q81I85, Q81LD0, Q81YV0, Q821C1, Q822Q0, Q82E21, Q82UQ8, Q83AK3, Q83FJ5, Q83H98, Q85WB7, Q87BW3, Q87LY3, Q87VY5, Q88DP0, Q897K4, Q8CNZ1, Q8CRW7, Q8CV56, Q8CZE3, Q8D3C8, Q8DBX8, Q8DLK8, Q8EHC8, Q8EY44, Q8FL16, Q8FSD4, Q8KAQ7, Q8NT73, Q8NVU6, Q8NW75, Q8P5R4, Q8PH40, Q8PW58, Q8RFY7, Q8TT57, Q8TYL6, Q8X4V5, Q8Y1M4, Q8Y6J9, Q8Y6X8, Q8YS26, Q8Z9B4, Q8ZBL9, Q8ZYW1, Q92AX5, Q92BG1, Q976H2, Q97B25, Q97MU2, Q980U5, Q99T15, Q9CNG9, Q9F2S0, Q9HKM6, Q9HMY8, Q9JRW9, Q9JW10, Q9JXW0, Q9K8G3, Q9KEB0, Q9KU97, Q9PB43, Q9PKI3, Q9PP70, Q9RWW0, Q9Y9I9, Q9ZMD0] | 5.4.3.8_1: [] | </t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4.1.1.4_1: [] | </t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -5943,16 +7463,24 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>P02904,Q70AC7,Q8GBW6</t>
+          <t xml:space="preserve">R00930: [] | 2.1.3.1_0: [] | 2.1.3.1-RXN_reverse: [P02904, Q70AC7, Q8GBW6] | </t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>E3PY95,E3PY96,Q8VPJ6</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+          <t xml:space="preserve">R02461_reverse: [] | ORNMUTST-RXN: [E3PY95, E3PY96, Q8VPJ6] | 5.4.3.5_0: [] | </t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.2.1.9_21: [] | </t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6035,12 +7563,24 @@
       <c r="E2" t="n">
         <v>0.7297397682650543</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17643: [] | </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17643: [] | </t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6066,14 +7606,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | 1.14.15.3_06: [] | RXN-17667: [] | </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6099,18 +7647,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.13.25_24: [] | 1.14.15.3_06: [] | RXN-17667: [] | </t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>H8ZPX2</t>
+          <t xml:space="preserve">RXN-13089_reverse: [H8ZPX2] | </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6136,18 +7688,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A0JT43,A0KA72,A0KJK9,A0KVX6,A0LIY8,A0LRU4,A0LZD4,A0PWD1,A0Q5H4,A0QBP0,A0R3M4,A0RHK9,A0RPE8,A1APQ8,A1AVI3,A1AZH7,A1BE51,A1JRB6,A1KAU3,A1KH85,A1KTM6,A1R3M0,A1RIT3,A1RTB8,A1S5I0,A1SMQ5,A1SWX6,A1TEP3,A1TW81,A1TZS9,A1UL96,A1UQV9,A1V6W8,A1VUC0,A1VYP2,A1WD26,A1WLG5,A1WZ92,A2S8U3,A3D5J3,A3DLR9,A3M887,A3MH60,A3MWQ7,A3MZH0,A3N693,A3NRX7,A3PN13,A3Q5P5,A3QDH6,A4FP60,A4G230,A4IM83,A4IZC2,A4JHJ8,A4SDL6,A4SND2,A4SZY0,A4T6V7,A4TNT8,A4VKQ1,A4W879,A4WL16,A4WNM6,A4XBE5,A4XV90,A4Y7Q5,A4YKC6,A5CC52,A5CU44,A5E936,A5EX54,A5F6G6,A5FHX8,A5FYZ9,A5IH21,A5ISD0,A5U0Z1,A5UCR4,A5UIW0,A5V080,A5VB78,A5VSQ3,A5W114,A5WC33,A6GY30,A6Q391,A6Q7S7,A6QGE5,A6SUY3,A6T6F6,A6TKJ3,A6U164,A6UDP2,A6V7K5,A6VPM2,A6VZ30,A6WPA4,A6WXE8,A7FKR4,A7GRG6,A7GYI5,A7H4K9,A7HT39,A7I2F2,A7MQX5,A7N158,A7NDR1,A7NNW3,A7X1L8,A7Z4M9,A7ZJA8,A7ZXY8,A8A8L8,A8EYY8,A8F1K7,A8FD73,A8FKV6,A8FX46,A8GB83,A8GNF5,A8GS29,A8GUV0,A8H3H6,A8LAW3,A8M469,A8MM16,A8Z3S5,A8ZRW7,A9AFT3,A9B0I2,A9BQA5,A9GD65,A9IKE3,A9IZV3,A9KBQ4,A9L532,A9M4F8,A9M8R2,A9MJL9,A9MTQ2,A9N8R8,A9R2F2,A9VT74,A9WJ74,A9WKU9,B0B950,B0BAS9,B0BTV5,B0BXJ5,B0CIT0,B0KNW8,B0R5U5,B0RPQ9,B0SAP0,B0T3D1,B0TJP8,B0TZ23,B0U5F8,B0UUF3,B0VEF2,B0VSL0,B1IY02,B1JAV3,B1JG57,B1JY14,B1KPH0,B1LLG1,B1MJJ0,B1W3P6,B1X6Q8,B1XRZ4,B1YIL7,B1YVY6,B1ZP17,B2AHC1,B2FRS3,B2GM49,B2HED1,B2HXG0,B2I9R4,B2K8F1,B2S880,B2SDM1,B2ST87,B2SYE8,B2TUB2,B2UGE2,B2UMH5,B2V8I4,B2VBR6,B3CME9,B3CTW0,B3E7B3,B3EFL3,B3EN95,B3FHP0,B3FHT4,B3GX29,B3PQ90,B3Q760,B3QPP2,B3QWF8,B3TZD8,B3TZD9,B4EBY6,B4ESR1,B4RCH3,B4RL77,B4RYG2,B4S612,B4SEH6,B4ST72,B4SZE2,B4TBD7,B4TQ53,B4U901,B4UDP4,B5BC72,B5EMG2,B5EZG1,B5FC28,B5FNF9,B5QWG8,B5R689,B5XZD1,B5YQR7,B5ZSR9,B6EHV6,B6I7Z9,B6IP72,B6IZ97,B6J8N7,B6JE33,B7GXK7,B7HDV9,B7HLG9,B7I6T2,B7IUJ5,B7J4G8,B7LAD4,B7M5P1,B7N9W6,B7NMS9,B7UVD3,B7VI35,B8CR00,B8D5I6,B8E770,B8F4Q2,B8FLW6,B8GCC9,B8GN38,B8GYZ1,B8HDC2,B8JAE0,B8ZU00,B9DPG0,B9EBC7,B9IVC5,B9JCF4,B9JTS8,B9KNB3,B9L5I6,B9LB77,B9LRR0,B9MHW0,C0PWE7,C0QLM0,C0QQH3,C0R4N4,C0RFH1,C0ZFB3,C1A3F2,C1A8X8,C1ALT7,C1AWW6,C1CV60,C1DB55,C1DM53,C1EP60,C1F2F2,C3K6N0,C3L791,C3LP35,C3P5N7,C3PNF9,C4K0K1,C4K7D7,C4L610,C4L8V5,C4ZWK2,C5BEM7,C5BL83,C5BZT2,C5C916,C5D8V2,C6DCD6,O05966,O08371,O13750,O26663,O27115,O28097,O28098,O28732,O28733,O67546,O67547,O67729,O82662,O84828,O87840,O94415,O97580,P0A836,P0A837,P0A838,P0A839,P0AGE9,P0AGF0,P0AGF1,P45101,P45102,P53312,P53399,P53400,P53401,P53587,P53588,P53591,P53592,P53593,P53594,P53598,P66866,P66867,P66868,P66869,P66870,P66871,P66872,P68209,P80865,P80886,P86226,P99070,P99071,P99507,P9WGC4,P9WGC5,P9WGC6,P9WGC7,Q021N6,Q02K73,Q03184,Q04QS3,Q053V6,Q07UX6,Q080X8,Q0A5K0,Q0AKU3,Q0BC71,Q0BKS4,Q0C5F3,Q0HJQ4,Q0HW00,Q0I3A8,Q0KE75,Q0S533,Q0T6W6,Q0VPF7,Q11CV8,Q122H7,Q12M63,Q13DR5,Q13UH9,Q148D5,Q14IV5,Q15UW6,Q1AWI8,Q1B3V2,Q1BTW6,Q1CAG1,Q1CFM0,Q1D6I9,Q1H031,Q1I7L3,Q1IJS5,Q1IZE7,Q1LTZ4,Q1MAW1,Q1QEK5,Q1QQR3,Q1RH55,Q1RH56,Q21CW8,Q21IW6,Q21RF9,Q255N7,Q28U74,Q2A253,Q2FHJ3,Q2FZ37,Q2G3G8,Q2GEF1,Q2GFL7,Q2GJ42,Q2IIC1,Q2J3G9,Q2JFA7,Q2K3F0,Q2KYF7,Q2N695,Q2NUM2,Q2P5E6,Q2RV33,Q2S3H9,Q2SD35,Q2T0U7,Q2W063,Q2YXM1,Q30RQ3,Q31FV4,Q324I4,Q32IK3,Q39D96,Q3A7Y4,Q3ATR4,Q3B5J6,Q3BQ83,Q3IGW5,Q3INN3,Q3IZ84,Q3JVL5,Q3KFU6,Q3KKL8,Q3SKM1,Q3SVK4,Q3YSV6,Q3Z476,Q475M1,Q47AN8,Q482S1,Q48K68,Q49X32,Q4FP29,Q4FVH9,Q4KFY6,Q4L5U8,Q4QLA3,Q4R517,Q4ULQ7,Q4ULQ8,Q4UXU0,Q4ZUW7,Q51567,Q55AI5,Q57663,Q57AX2,Q57RL3,Q582T6,Q58643,Q5E6M6,Q5F878,Q5FH54,Q5GSB6,Q5H2H4,Q5HC25,Q5HGI6,Q5HGI7,Q5HPU4,Q5HPU5,Q5HVN3,Q5L0N7,Q5L593,Q5LCW4,Q5NHF3,Q5NMF5,Q5P7A7,Q5PBI8,Q5PCM7,Q5QU21,Q5V4Q4,Q5WFP4,Q5WZ04,Q5X7K6,Q5YPP8,Q62MG7,Q636J0,Q63WW2,Q64U25,Q65JP0,Q65SV1,Q66DA0,Q68WU5,Q6A6Y0,Q6AD57,Q6ARL2,Q6D7G2,Q6DQL1,Q6F8L4,Q6FYD1,Q6G1M1,Q6G9W7,Q6G9W8,Q6GHI9,Q6GHJ0,Q6HEX9,Q6K9N6,Q6LTB5,Q6MBM7,Q6MGW1,Q6NDB7,Q6ZL94,Q72PA2,Q732N4,Q73FW3,Q74EA5,Q7M9A6,Q7MMN3,Q7N6V5,Q7NZ47,Q7U0Z0,Q7U0Z1,Q7UKI3,Q7VVU5,Q7W789,Q7WKM5,Q819X0,Q81WK0,Q822A1,Q84LB6,Q87A98,Q87RE8,Q883Z4,Q88FB2,Q89X60,Q8A9M7,Q8CPH4,Q8CPH5,Q8DFQ1,Q8EFN8,Q8F746,Q8GTQ9,Q8KFE7,Q8LAD2,Q8NMK7,Q8NX01,Q8P676,Q8PHL5,Q8UC60,Q8Y1Y3,Q8ZH00,Q8ZVF3,Q92I21,Q92I22,Q98EC5,Q9AB94,Q9AKE1,Q9CNZ0,Q9EYG9,Q9HPP1,Q9JUS9,Q9JUT0,Q9JZP4,Q9KA20,Q9KQB5,Q9KY56,Q9P2R7,Q9P567,Q9P727,Q9PAH1,Q9PHY0,Q9PHY1,Q9PL99,Q9RUY3,Q9YI37,Q9Z2I9,Q9Z5H8,Q9Z6T6</t>
+          <t xml:space="preserve">SUCCCOASYN-RXN_reverse: [A0JT43, A0KA72, A0KJK9, A0KVX6, A0LIY8, A0LRU4, A0LZD4, A0PWD1, A0Q5H4, A0QBP0, A0R3M4, A0RHK9, A0RPE8, A1APQ8, A1AVI3, A1AZH7, A1BE51, A1JRB6, A1KAU3, A1KH85, A1KTM6, A1R3M0, A1RIT3, A1RTB8, A1S5I0, A1SMQ5, A1SWX6, A1TEP3, A1TW81, A1TZS9, A1UL96, A1UQV9, A1V6W8, A1VUC0, A1VYP2, A1WD26, A1WLG5, A1WZ92, A2S8U3, A3D5J3, A3DLR9, A3M887, A3MH60, A3MWQ7, A3MZH0, A3N693, A3NRX7, A3PN13, A3Q5P5, A3QDH6, A4FP60, A4G230, A4IM83, A4IZC2, A4JHJ8, A4SDL6, A4SND2, A4SZY0, A4T6V7, A4TNT8, A4VKQ1, A4W879, A4WL16, A4WNM6, A4XBE5, A4XV90, A4Y7Q5, A4YKC6, A5CC52, A5CU44, A5E936, A5EX54, A5F6G6, A5FHX8, A5FYZ9, A5IH21, A5ISD0, A5U0Z1, A5UCR4, A5UIW0, A5V080, A5VB78, A5VSQ3, A5W114, A5WC33, A6GY30, A6Q391, A6Q7S7, A6QGE5, A6SUY3, A6T6F6, A6TKJ3, A6U164, A6UDP2, A6V7K5, A6VPM2, A6VZ30, A6WPA4, A6WXE8, A7FKR4, A7GRG6, A7GYI5, A7H4K9, A7HT39, A7I2F2, A7MQX5, A7N158, A7NDR1, A7NNW3, A7X1L8, A7Z4M9, A7ZJA8, A7ZXY8, A8A8L8, A8EYY8, A8F1K7, A8FD73, A8FKV6, A8FX46, A8GB83, A8GNF5, A8GS29, A8GUV0, A8H3H6, A8LAW3, A8M469, A8MM16, A8Z3S5, A8ZRW7, A9AFT3, A9B0I2, A9BQA5, A9GD65, A9IKE3, A9IZV3, A9KBQ4, A9L532, A9M4F8, A9M8R2, A9MJL9, A9MTQ2, A9N8R8, A9R2F2, A9VT74, A9WJ74, A9WKU9, B0B950, B0BAS9, B0BTV5, B0BXJ5, B0CIT0, B0KNW8, B0R5U5, B0RPQ9, B0SAP0, B0T3D1, B0TJP8, B0TZ23, B0U5F8, B0UUF3, B0VEF2, B0VSL0, B1IY02, B1JAV3, B1JG57, B1JY14, B1KPH0, B1LLG1, B1MJJ0, B1W3P6, B1X6Q8, B1XRZ4, B1YIL7, B1YVY6, B1ZP17, B2AHC1, B2FRS3, B2GM49, B2HED1, B2HXG0, B2I9R4, B2K8F1, B2S880, B2SDM1, B2ST87, B2SYE8, B2TUB2, B2UGE2, B2UMH5, B2V8I4, B2VBR6, B3CME9, B3CTW0, B3E7B3, B3EFL3, B3EN95, B3FHP0, B3FHT4, B3GX29, B3PQ90, B3Q760, B3QPP2, B3QWF8, B3TZD8, B3TZD9, B4EBY6, B4ESR1, B4RCH3, B4RL77, B4RYG2, B4S612, B4SEH6, B4ST72, B4SZE2, B4TBD7, B4TQ53, B4U901, B4UDP4, B5BC72, B5EMG2, B5EZG1, B5FC28, B5FNF9, B5QWG8, B5R689, B5XZD1, B5YQR7, B5ZSR9, B6EHV6, B6I7Z9, B6IP72, B6IZ97, B6J8N7, B6JE33, B7GXK7, B7HDV9, B7HLG9, B7I6T2, B7IUJ5, B7J4G8, B7LAD4, B7M5P1, B7N9W6, B7NMS9, B7UVD3, B7VI35, B8CR00, B8D5I6, B8E770, B8F4Q2, B8FLW6, B8GCC9, B8GN38, B8GYZ1, B8HDC2, B8JAE0, B8ZU00, B9DPG0, B9EBC7, B9IVC5, B9JCF4, B9JTS8, B9KNB3, B9L5I6, B9LB77, B9LRR0, B9MHW0, C0PWE7, C0QLM0, C0QQH3, C0R4N4, C0RFH1, C0ZFB3, C1A3F2, C1A8X8, C1ALT7, C1AWW6, C1CV60, C1DB55, C1DM53, C1EP60, C1F2F2, C3K6N0, C3L791, C3LP35, C3P5N7, C3PNF9, C4K0K1, C4K7D7, C4L610, C4L8V5, C4ZWK2, C5BEM7, C5BL83, C5BZT2, C5C916, C5D8V2, C6DCD6, O05966, O08371, O13750, O26663, O27115, O28097, O28098, O28732, O28733, O67546, O67547, O67729, O82662, O84828, O87840, O94415, O97580, P0A836, P0A837, P0A838, P0A839, P0AGE9, P0AGF0, P0AGF1, P45101, P45102, P53312, P53399, P53400, P53401, P53587, P53588, P53591, P53592, P53593, P53594, P53598, P66866, P66867, P66868, P66869, P66870, P66871, P66872, P68209, P80865, P80886, P86226, P99070, P99071, P99507, P9WGC4, P9WGC5, P9WGC6, P9WGC7, Q021N6, Q02K73, Q03184, Q04QS3, Q053V6, Q07UX6, Q080X8, Q0A5K0, Q0AKU3, Q0BC71, Q0BKS4, Q0C5F3, Q0HJQ4, Q0HW00, Q0I3A8, Q0KE75, Q0S533, Q0T6W6, Q0VPF7, Q11CV8, Q122H7, Q12M63, Q13DR5, Q13UH9, Q148D5, Q14IV5, Q15UW6, Q1AWI8, Q1B3V2, Q1BTW6, Q1CAG1, Q1CFM0, Q1D6I9, Q1H031, Q1I7L3, Q1IJS5, Q1IZE7, Q1LTZ4, Q1MAW1, Q1QEK5, Q1QQR3, Q1RH55, Q1RH56, Q21CW8, Q21IW6, Q21RF9, Q255N7, Q28U74, Q2A253, Q2FHJ3, Q2FZ37, Q2G3G8, Q2GEF1, Q2GFL7, Q2GJ42, Q2IIC1, Q2J3G9, Q2JFA7, Q2K3F0, Q2KYF7, Q2N695, Q2NUM2, Q2P5E6, Q2RV33, Q2S3H9, Q2SD35, Q2T0U7, Q2W063, Q2YXM1, Q30RQ3, Q31FV4, Q324I4, Q32IK3, Q39D96, Q3A7Y4, Q3ATR4, Q3B5J6, Q3BQ83, Q3IGW5, Q3INN3, Q3IZ84, Q3JVL5, Q3KFU6, Q3KKL8, Q3SKM1, Q3SVK4, Q3YSV6, Q3Z476, Q475M1, Q47AN8, Q482S1, Q48K68, Q49X32, Q4FP29, Q4FVH9, Q4KFY6, Q4L5U8, Q4QLA3, Q4R517, Q4ULQ7, Q4ULQ8, Q4UXU0, Q4ZUW7, Q51567, Q55AI5, Q57663, Q57AX2, Q57RL3, Q582T6, Q58643, Q5E6M6, Q5F878, Q5FH54, Q5GSB6, Q5H2H4, Q5HC25, Q5HGI6, Q5HGI7, Q5HPU4, Q5HPU5, Q5HVN3, Q5L0N7, Q5L593, Q5LCW4, Q5NHF3, Q5NMF5, Q5P7A7, Q5PBI8, Q5PCM7, Q5QU21, Q5V4Q4, Q5WFP4, Q5WZ04, Q5X7K6, Q5YPP8, Q62MG7, Q636J0, Q63WW2, Q64U25, Q65JP0, Q65SV1, Q66DA0, Q68WU5, Q6A6Y0, Q6AD57, Q6ARL2, Q6D7G2, Q6DQL1, Q6F8L4, Q6FYD1, Q6G1M1, Q6G9W7, Q6G9W8, Q6GHI9, Q6GHJ0, Q6HEX9, Q6K9N6, Q6LTB5, Q6MBM7, Q6MGW1, Q6NDB7, Q6ZL94, Q72PA2, Q732N4, Q73FW3, Q74EA5, Q7M9A6, Q7MMN3, Q7N6V5, Q7NZ47, Q7U0Z0, Q7U0Z1, Q7UKI3, Q7VVU5, Q7W789, Q7WKM5, Q819X0, Q81WK0, Q822A1, Q84LB6, Q87A98, Q87RE8, Q883Z4, Q88FB2, Q89X60, Q8A9M7, Q8CPH4, Q8CPH5, Q8DFQ1, Q8EFN8, Q8F746, Q8GTQ9, Q8KFE7, Q8LAD2, Q8NMK7, Q8NX01, Q8P676, Q8PHL5, Q8UC60, Q8Y1Y3, Q8ZH00, Q8ZVF3, Q92I21, Q92I22, Q98EC5, Q9AB94, Q9AKE1, Q9CNZ0, Q9EYG9, Q9HPP1, Q9JUS9, Q9JUT0, Q9JZP4, Q9KA20, Q9KQB5, Q9KY56, Q9P2R7, Q9P567, Q9P727, Q9PAH1, Q9PHY0, Q9PHY1, Q9PL99, Q9RUY3, Q9YI37, Q9Z2I9, Q9Z5H8, Q9Z6T6] | R00405: [] | 6.2.1.9_7: [] | 6.2.1.5_17: [] | 6.2.1.4_3: [] | 6.2.1.13_17: [] | </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A4YEN2,A4YGN0,P38947</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t xml:space="preserve">RXN-8891_reverse: [A4YEN2, A4YGN0, P38947] | R09280: [] | 1.2.1.76_1: [] | 1.2.1.75_1: [] | </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6173,14 +7729,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A0PN13,A0PST9,A0QMB9,A0R4Q0,A1KF54,A1KJE8,A5TYV9,A5U390,B1XMM6,O32507,O69497,O85997,P25526,P38067,P55653,P94428,P9WNX6,P9WNX7,P9WNX8,Q0K2K1,Q4KKA2,Q55585,Q73TP5,Q7TZP3,Q9JTN7,Q9RBF6</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t xml:space="preserve">SUCCSEMIALDDEHYDROG-RXN_reverse: [A0PN13, A0PST9, A0QMB9, A0R4Q0, A1KF54, A1KJE8, A5TYV9, A5U390, B1XMM6, O32507, O69497, O85997, P25526, P38067, P55653, P94428, P9WNX6, P9WNX7, P9WNX8, Q0K2K1, Q4KKA2, Q55585, Q73TP5, Q7TZP3, Q9JTN7, Q9RBF6] | R00714_reverse: [] | 1.2.1.79 ()_6: [] | 1.2.1.24_53: [] | 1.2.1.16_25: [] | </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6204,11 +7768,19 @@
       <c r="E7" t="n">
         <v>0.6804435209480304</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17643: [] | </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -6233,12 +7805,24 @@
       <c r="E8" t="n">
         <v>0.6796757118975346</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-17643: [] | </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6262,10 +7846,26 @@
       <c r="E9" t="n">
         <v>0.6753614679989353</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.1.1.15_11: [] | </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.14.15.3_25: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6287,12 +7887,24 @@
       <c r="E10" t="n">
         <v>0.6360918609461069</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.40-RXN_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6316,12 +7928,24 @@
       <c r="E11" t="n">
         <v>0.6318601218808407</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6347,14 +7971,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | R01775_reverse: [] | 1.1.1.3_1: [] | </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R07219_reverse: [] | 1.17.7.4_1: [] | </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6380,18 +8012,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A0PN13,A0PST9,A0QMB9,A0R4Q0,A1KF54,A1KJE8,A5TYV9,A5U390,B1XMM6,O32507,O69497,O85997,P25526,P38067,P55653,P94428,P9WNX6,P9WNX7,P9WNX8,Q0K2K1,Q4KKA2,Q55585,Q73TP5,Q7TZP3,Q9JTN7,Q9RBF6</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t xml:space="preserve">SUCCSEMIALDDEHYDROG-RXN_reverse: [A0PN13, A0PST9, A0QMB9, A0R4Q0, A1KF54, A1KJE8, A5TYV9, A5U390, B1XMM6, O32507, O69497, O85997, P25526, P38067, P55653, P94428, P9WNX6, P9WNX7, P9WNX8, Q0K2K1, Q4KKA2, Q55585, Q73TP5, Q7TZP3, Q9JTN7, Q9RBF6] | R00714_reverse: [] | 1.2.1.79 ()_6: [] | 1.2.1.24_53: [] | 1.2.1.16_25: [] | </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A4JPX5,A6TAC7,A7ZI96,A7ZWZ6,B1XBJ6,B2JQW2,B6HZX5,B7L505,B7M2Z7,B7MPB6,B7N8Q6,P77044,Q13QH4,Q400K3,Q476M7,Q47GC1,Q47HL4,Q49KF8,Q52532,Q8KZP5,Q8X5K0</t>
+          <t xml:space="preserve">R02603: [] | MHPCHYDROL-RXN: [A4JPX5, A6TAC7, A7ZI96, A7ZWZ6, B1XBJ6, B2JQW2, B6HZX5, B7L505, B7M2Z7, B7MPB6, B7N8Q6, P77044, Q13QH4, Q400K3, Q476M7, Q47GC1, Q47HL4, Q49KF8, Q52532, Q8KZP5, Q8X5K0] | 3.7.1.14_1: [] | </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>A0AIG6,A0AYZ0,A0JVG9,A0KNF9,A0KZA9,A0L6H3,A0PT40,A0Q0A4,A0Q6B9,A0QIL6,A0QW19,A0RMN5,A1A890,A1JNR7,A1K4R0,A1KM20,A1KS32,A1R5N7,A1RLV3,A1S8D4,A1SKM6,A1SWW6,A1T7Z0,A1TNR1,A1UF44,A1URW6,A1VE69,A1VMD7,A1VY40,A1W4U9,A1WN06,A2BR27,A2BWN6,A2C220,A2C9X1,A2SJ46,A3D2B2,A3MYS9,A3NMF6,A3P7W4,A3PCV0,A3PYK6,A3QGN9,A4FAQ5,A4IQR7,A4IXW5,A4QEQ9,A4SDG1,A4SJP9,A4TCS5,A4TPG2,A4VQS8,A4W791,A4XZ25,A4Y4X0,A4YQ36,A5D2Z6,A5EEQ0,A5F331,A5FRB9,A5GL34,A5GTT4,A5ILK2,A5N7J2,A5U634,A5UC51,A5UEV6,A5V6A9,A5VP09,A5VXW9,A6L175,A6LFB9,A6LU48,A6Q1Z6,A6T5F3,A6V058,A6VUE5,A6WL04,A6WWC4,A7BKB8,A7FLE4,A7GSJ5,A7H552,A7H9E8,A7I2V7,A7IPK6,A7MFG0,A7MYC6,A7NCA4,A7Z6J5,A7ZIH3,A7ZX72,A8AK34,A8EWN0,A8FF11,A8FKB0,A8FYL0,A8G4R9,A8GAP2,A8H6X1,A8IBS1,A8L0K9,A8MFI7,A9BAC1,A9IQP2,A9ITB0,A9KMB8,A9KTL5,A9M1G3,A9M8W0,A9MM42,A9MX09,A9QZS3,A9VGD1,A9WRA9,B0B7P9,B0BBW4,B0BSL0,B0C8J3,B0CKC0,B0JL88,B0KL79,B0RC26,B0T3X7,B0TEJ5,B0TQ36,B0U0B3,B0U3E1,B0UUA4,B0V710,B0VQB8,B1HRX4,B1I3J6,B1J029,B1J3G4,B1JID8,B1K3S9,B1KQY8,B1LAQ3,B1LJH0,B1MCU7,B1VWJ8,B1WWM7,B1XF08,B1XKC5,B1Y2X5,B1YLQ5,B1Z1G2,B2A526,B2FN57,B2GJ56,B2I607,B2IDK3,B2J5P1,B2JP68,B2K6T7,B2RMK4,B2S462,B2S9T6,B2SGK5,B2SQV8,B2TRM5,B2U4M3,B2U930,B2V4R3,B2VHS3,B3DW88,B3H050,B3PF22,B3PS68,B3QFY7,B3R5H4,B4EN29,B4EU31,B4RGW0,B4RNW6,B4RVY8,B4SWR4,B4T8R3,B4TMA2,B4UHF5,B5BDB0,B5EXG3,B5FBG6,B5FKS7,B5QTH0,B5R6S3,B5Y0X1,B5YE06,B5Z3S5,B5ZAB7,B5ZS68,B6EIA7,B6HZM1,B6IRB5,B6YRV5,B7HB48,B7HNU0,B7IXG8,B7JM28,B7JVJ6,B7KAF7,B7L654,B7LMG7,B7M3Q9,B7MD78,B7MQD5,B7N8X3,B7NJ77,B7UJP3,B7V7R4,B7VJA1,B8CS19,B8D2I3,B8D7Z3,B8D9P1,B8E247,B8EAU7,B8F3A4,B8FQ45,B8GN62,B8GXC4,B8HH36,B8HWL8,B8JFY1,B8ZQW9,B9E104,B9E6Q6,B9JAL7,B9JSL2,B9L1L6,B9MEU8,C0Q7U7,C0RHE3,C0ZC10,C0ZYV9,C1AFE1,C1DAW8,C1F3C4,C1L2S1,C3K2R1,C3LJV1,C3LTD9,C3P7V6,C4K6M7,C4ZTH7,C5BCH9,C5D467,C6DB37,O22567,O25121,O67036,O78328,O83796,O84335,P0A555,P26242,P45205,P57536,P57848,P73067,P77488,P9WNS2,P9WNS3,Q02SL1,Q04U59,Q053M2,Q07SR3,Q07ZD4,Q0A8V7,Q0AFY6,Q0ARE5,Q0AZE2,Q0BAL8,Q0BLU9,Q0C154,Q0HGL5,Q0HSW6,Q0I3G1,Q0IAA6,Q0K860,Q0S1H1,Q0SS05,Q0TKM1,Q0TPD8,Q0VMI4,Q10ZY2,Q11KE0,Q11NY7,Q12CQ9,Q12L26,Q130G7,Q13RX1,Q14HJ1,Q15W93,Q16CP0,Q16DV7,Q18B68,Q1B9W8,Q1BLY7,Q1C4I9,Q1CL87,Q1CUF6,Q1D3G4,Q1GCG4,Q1GQK9,Q1GZD7,Q1IFL1,Q1IZP0,Q1LK34,Q1LTI9,Q1MKN4,Q1MRB3,Q1QE74,Q1QQ40,Q1R1E5,Q1RFC0,Q21A74,Q21F93,Q21UG7,Q24V05,Q253R7,Q28W25,Q28WA7,Q2A3D3,Q2GC13,Q2IPZ2,Q2IRL7,Q2JDD9,Q2JK64,Q2JTX2,Q2KBR2,Q2KZ15,Q2LUA7,Q2N6U5,Q2NV94,Q2P472,Q2RIB9,Q2RR29,Q2RYD6,Q2SA08,Q2T7N5,Q2W367,Q2YCH7,Q2YMF0,Q30TC5,Q30Z99,Q31AZ2,Q325I1,Q32JH8,Q38854,Q393P4,Q39RT4,Q39UB1,Q3A3Z6,Q3AAN0,Q3AJP8,Q3AXZ4,Q3B5P3,Q3BRW8,Q3II09,Q3IYR6,Q3J1A8,Q3JAD1,Q3JKA3,Q3K660,Q3KM28,Q3M4F6,Q3SKF1,Q3SUZ1,Q3Z4Y9,Q3Z8G9,Q3ZXC2,Q46L36,Q474C2,Q47BJ0,Q47NL9,Q487D3,Q48NX0,Q493G7,Q4FN07,Q4FV64,Q4JVB5,Q4K5A5,Q4QKG6,Q4UW29,Q4ZYU8,Q50000,Q57ET1,Q57SE2,Q5E6Z0,Q5FAI2,Q5FUB1,Q5H1A0,Q5HWF0,Q5L6H4,Q5LH44,Q5LX42,Q5NG39,Q5NM38,Q5NN52,Q5P228,Q5PFR6,Q5QVE8,Q5SMD7,Q5WF63,Q5YTA2,Q60AN1,Q62DU1,Q635A7,Q63JF4,Q64Y02,Q65HJ2,Q65TP4,Q66DV4,Q67NB6,Q6A8V3,Q6AFD5,Q6AJQ1,Q6D844,Q6F7N5,Q6G0D4,Q6G4D1,Q6HDY8,Q6LU07,Q6MDK6,Q6NB76,Q6NGV3,Q6YU51,Q71ZV7,Q72CD3,Q72H81,Q72U01,Q731B7,Q73LF4,Q73W57,Q74CB0,Q74FC3,Q75TB7,Q7M7Z0,Q7MN49,Q7MSZ3,Q7N0J7,Q7NP63,Q7NUK5,Q7U6P6,Q7UWB7,Q7V1G6,Q7V7Q3,Q7VC14,Q7VIJ7,Q7VNP7,Q7VRH9,Q7VV87,Q7W7Q0,Q7WL37,Q818R9,Q81M54,Q823V1,Q82KW8,Q82ML4,Q82VD3,Q83G46,Q83I20,Q83SG2,Q87C03,Q87RU0,Q889Q1,Q88QG7,Q894H0,Q89RW1,Q8A0C2,Q8CJP7,Q8D357,Q8DFA3,Q8DL74,Q8EGR9,Q8EWX7,Q8F153,Q8FKB9,Q8FPI2,Q8G292,Q8GAA0,Q8K9A1,Q8KFI9,Q8NPB2,Q8P815,Q8PJG7,Q8R639,Q8RAC5,Q8UHD7,Q8VUR8,Q8XE76,Q8XJE1,Q8XX95,Q8Y7C1,Q8YFM2,Q8YZ80,Q8Z8X3,Q8ZC45,Q8ZRD1,Q92BZ0,Q92RJ1,Q97HD5,Q985Y3,Q9A6M5,Q9F1V2,Q9JW13,Q9JXV7,Q9K971,Q9KGU7,Q9KTL3,Q9PB95,Q9PIH8,Q9PK62,Q9R6S7,Q9RBN6,Q9RUB5,Q9X291,Q9X7W3,Q9Z6J9,Q9ZM94</t>
+          <t xml:space="preserve">R05636_reverse: [] | DXS-RXN_reverse: [A0AIG6, A0AYZ0, A0JVG9, A0KNF9, A0KZA9, A0L6H3, A0PT40, A0Q0A4, A0Q6B9, A0QIL6, A0QW19, A0RMN5, A1A890, A1JNR7, A1K4R0, A1KM20, A1KS32, A1R5N7, A1RLV3, A1S8D4, A1SKM6, A1SWW6, A1T7Z0, A1TNR1, A1UF44, A1URW6, A1VE69, A1VMD7, A1VY40, A1W4U9, A1WN06, A2BR27, A2BWN6, A2C220, A2C9X1, A2SJ46, A3D2B2, A3MYS9, A3NMF6, A3P7W4, A3PCV0, A3PYK6, A3QGN9, A4FAQ5, A4IQR7, A4IXW5, A4QEQ9, A4SDG1, A4SJP9, A4TCS5, A4TPG2, A4VQS8, A4W791, A4XZ25, A4Y4X0, A4YQ36, A5D2Z6, A5EEQ0, A5F331, A5FRB9, A5GL34, A5GTT4, A5ILK2, A5N7J2, A5U634, A5UC51, A5UEV6, A5V6A9, A5VP09, A5VXW9, A6L175, A6LFB9, A6LU48, A6Q1Z6, A6T5F3, A6V058, A6VUE5, A6WL04, A6WWC4, A7BKB8, A7FLE4, A7GSJ5, A7H552, A7H9E8, A7I2V7, A7IPK6, A7MFG0, A7MYC6, A7NCA4, A7Z6J5, A7ZIH3, A7ZX72, A8AK34, A8EWN0, A8FF11, A8FKB0, A8FYL0, A8G4R9, A8GAP2, A8H6X1, A8IBS1, A8L0K9, A8MFI7, A9BAC1, A9IQP2, A9ITB0, A9KMB8, A9KTL5, A9M1G3, A9M8W0, A9MM42, A9MX09, A9QZS3, A9VGD1, A9WRA9, B0B7P9, B0BBW4, B0BSL0, B0C8J3, B0CKC0, B0JL88, B0KL79, B0RC26, B0T3X7, B0TEJ5, B0TQ36, B0U0B3, B0U3E1, B0UUA4, B0V710, B0VQB8, B1HRX4, B1I3J6, B1J029, B1J3G4, B1JID8, B1K3S9, B1KQY8, B1LAQ3, B1LJH0, B1MCU7, B1VWJ8, B1WWM7, B1XF08, B1XKC5, B1Y2X5, B1YLQ5, B1Z1G2, B2A526, B2FN57, B2GJ56, B2I607, B2IDK3, B2J5P1, B2JP68, B2K6T7, B2RMK4, B2S462, B2S9T6, B2SGK5, B2SQV8, B2TRM5, B2U4M3, B2U930, B2V4R3, B2VHS3, B3DW88, B3H050, B3PF22, B3PS68, B3QFY7, B3R5H4, B4EN29, B4EU31, B4RGW0, B4RNW6, B4RVY8, B4SWR4, B4T8R3, B4TMA2, B4UHF5, B5BDB0, B5EXG3, B5FBG6, B5FKS7, B5QTH0, B5R6S3, B5Y0X1, B5YE06, B5Z3S5, B5ZAB7, B5ZS68, B6EIA7, B6HZM1, B6IRB5, B6YRV5, B7HB48, B7HNU0, B7IXG8, B7JM28, B7JVJ6, B7KAF7, B7L654, B7LMG7, B7M3Q9, B7MD78, B7MQD5, B7N8X3, B7NJ77, B7UJP3, B7V7R4, B7VJA1, B8CS19, B8D2I3, B8D7Z3, B8D9P1, B8E247, B8EAU7, B8F3A4, B8FQ45, B8GN62, B8GXC4, B8HH36, B8HWL8, B8JFY1, B8ZQW9, B9E104, B9E6Q6, B9JAL7, B9JSL2, B9L1L6, B9MEU8, C0Q7U7, C0RHE3, C0ZC10, C0ZYV9, C1AFE1, C1DAW8, C1F3C4, C1L2S1, C3K2R1, C3LJV1, C3LTD9, C3P7V6, C4K6M7, C4ZTH7, C5BCH9, C5D467, C6DB37, O22567, O25121, O67036, O78328, O83796, O84335, P0A555, P26242, P45205, P57536, P57848, P73067, P77488, P9WNS2, P9WNS3, Q02SL1, Q04U59, Q053M2, Q07SR3, Q07ZD4, Q0A8V7, Q0AFY6, Q0ARE5, Q0AZE2, Q0BAL8, Q0BLU9, Q0C154, Q0HGL5, Q0HSW6, Q0I3G1, Q0IAA6, Q0K860, Q0S1H1, Q0SS05, Q0TKM1, Q0TPD8, Q0VMI4, Q10ZY2, Q11KE0, Q11NY7, Q12CQ9, Q12L26, Q130G7, Q13RX1, Q14HJ1, Q15W93, Q16CP0, Q16DV7, Q18B68, Q1B9W8, Q1BLY7, Q1C4I9, Q1CL87, Q1CUF6, Q1D3G4, Q1GCG4, Q1GQK9, Q1GZD7, Q1IFL1, Q1IZP0, Q1LK34, Q1LTI9, Q1MKN4, Q1MRB3, Q1QE74, Q1QQ40, Q1R1E5, Q1RFC0, Q21A74, Q21F93, Q21UG7, Q24V05, Q253R7, Q28W25, Q28WA7, Q2A3D3, Q2GC13, Q2IPZ2, Q2IRL7, Q2JDD9, Q2JK64, Q2JTX2, Q2KBR2, Q2KZ15, Q2LUA7, Q2N6U5, Q2NV94, Q2P472, Q2RIB9, Q2RR29, Q2RYD6, Q2SA08, Q2T7N5, Q2W367, Q2YCH7, Q2YMF0, Q30TC5, Q30Z99, Q31AZ2, Q325I1, Q32JH8, Q38854, Q393P4, Q39RT4, Q39UB1, Q3A3Z6, Q3AAN0, Q3AJP8, Q3AXZ4, Q3B5P3, Q3BRW8, Q3II09, Q3IYR6, Q3J1A8, Q3JAD1, Q3JKA3, Q3K660, Q3KM28, Q3M4F6, Q3SKF1, Q3SUZ1, Q3Z4Y9, Q3Z8G9, Q3ZXC2, Q46L36, Q474C2, Q47BJ0, Q47NL9, Q487D3, Q48NX0, Q493G7, Q4FN07, Q4FV64, Q4JVB5, Q4K5A5, Q4QKG6, Q4UW29, Q4ZYU8, Q50000, Q57ET1, Q57SE2, Q5E6Z0, Q5FAI2, Q5FUB1, Q5H1A0, Q5HWF0, Q5L6H4, Q5LH44, Q5LX42, Q5NG39, Q5NM38, Q5NN52, Q5P228, Q5PFR6, Q5QVE8, Q5SMD7, Q5WF63, Q5YTA2, Q60AN1, Q62DU1, Q635A7, Q63JF4, Q64Y02, Q65HJ2, Q65TP4, Q66DV4, Q67NB6, Q6A8V3, Q6AFD5, Q6AJQ1, Q6D844, Q6F7N5, Q6G0D4, Q6G4D1, Q6HDY8, Q6LU07, Q6MDK6, Q6NB76, Q6NGV3, Q6YU51, Q71ZV7, Q72CD3, Q72H81, Q72U01, Q731B7, Q73LF4, Q73W57, Q74CB0, Q74FC3, Q75TB7, Q7M7Z0, Q7MN49, Q7MSZ3, Q7N0J7, Q7NP63, Q7NUK5, Q7U6P6, Q7UWB7, Q7V1G6, Q7V7Q3, Q7VC14, Q7VIJ7, Q7VNP7, Q7VRH9, Q7VV87, Q7W7Q0, Q7WL37, Q818R9, Q81M54, Q823V1, Q82KW8, Q82ML4, Q82VD3, Q83G46, Q83I20, Q83SG2, Q87C03, Q87RU0, Q889Q1, Q88QG7, Q894H0, Q89RW1, Q8A0C2, Q8CJP7, Q8D357, Q8DFA3, Q8DL74, Q8EGR9, Q8EWX7, Q8F153, Q8FKB9, Q8FPI2, Q8G292, Q8GAA0, Q8K9A1, Q8KFI9, Q8NPB2, Q8P815, Q8PJG7, Q8R639, Q8RAC5, Q8UHD7, Q8VUR8, Q8XE76, Q8XJE1, Q8XX95, Q8Y7C1, Q8YFM2, Q8YZ80, Q8Z8X3, Q8ZC45, Q8ZRD1, Q92BZ0, Q92RJ1, Q97HD5, Q985Y3, Q9A6M5, Q9F1V2, Q9JW13, Q9JXV7, Q9K971, Q9KGU7, Q9KTL3, Q9PB95, Q9PIH8, Q9PK62, Q9R6S7, Q9RBN6, Q9RUB5, Q9X291, Q9X7W3, Q9Z6J9, Q9ZM94] | 2.2.1.7_06: [] | 2.2.1.7_05: [] | </t>
         </is>
       </c>
     </row>
@@ -6415,11 +8051,19 @@
       <c r="E14" t="n">
         <v>0.6166894009257718</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -6444,20 +8088,24 @@
       <c r="E15" t="n">
         <v>0.6151002844891658</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A4YGN0,Q8NHP1</t>
+          <t xml:space="preserve">RXN-11002: [A4YGN0, Q8NHP1] | R09281_reverse: [] | 1.1.1.79_11: [] | 1.1.1.61_3: [] | 1.1.1.2_219: [] | 1.1.1.26_5: [] | 1.1.1.19_09: [] | </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>H8ZPX2</t>
+          <t xml:space="preserve">RXN-13089_reverse: [H8ZPX2] | </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6481,12 +8129,24 @@
       <c r="E16" t="n">
         <v>0.5901372179290922</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6510,16 +8170,24 @@
       <c r="E17" t="n">
         <v>0.5666176729254649</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.1.3.13_53: [] | 1.1.3.13_42: [] | 1.1.3.13_52: [] | 1.1.3.13_06: [] | 1.1.3.41_0: [] | 1.1.3.13_12: [] | 1.1.3.17_01: [] | </t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>A4JPX5,A6TAC7,A7ZI96,A7ZWZ6,B1XBJ6,B2JQW2,B6HZX5,B7L505,B7M2Z7,B7MPB6,B7N8Q6,P77044,Q13QH4,Q400K3,Q476M7,Q47GC1,Q47HL4,Q49KF8,Q52532,Q8KZP5,Q8X5K0</t>
+          <t xml:space="preserve">R02603: [] | MHPCHYDROL-RXN: [A4JPX5, A6TAC7, A7ZI96, A7ZWZ6, B1XBJ6, B2JQW2, B6HZX5, B7L505, B7M2Z7, B7MPB6, B7N8Q6, P77044, Q13QH4, Q400K3, Q476M7, Q47GC1, Q47HL4, Q49KF8, Q52532, Q8KZP5, Q8X5K0] | 3.7.1.14_1: [] | </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>A0AIG6,A0AYZ0,A0JVG9,A0KNF9,A0KZA9,A0L6H3,A0PT40,A0Q0A4,A0Q6B9,A0QIL6,A0QW19,A0RMN5,A1A890,A1JNR7,A1K4R0,A1KM20,A1KS32,A1R5N7,A1RLV3,A1S8D4,A1SKM6,A1SWW6,A1T7Z0,A1TNR1,A1UF44,A1URW6,A1VE69,A1VMD7,A1VY40,A1W4U9,A1WN06,A2BR27,A2BWN6,A2C220,A2C9X1,A2SJ46,A3D2B2,A3MYS9,A3NMF6,A3P7W4,A3PCV0,A3PYK6,A3QGN9,A4FAQ5,A4IQR7,A4IXW5,A4QEQ9,A4SDG1,A4SJP9,A4TCS5,A4TPG2,A4VQS8,A4W791,A4XZ25,A4Y4X0,A4YQ36,A5D2Z6,A5EEQ0,A5F331,A5FRB9,A5GL34,A5GTT4,A5ILK2,A5N7J2,A5U634,A5UC51,A5UEV6,A5V6A9,A5VP09,A5VXW9,A6L175,A6LFB9,A6LU48,A6Q1Z6,A6T5F3,A6V058,A6VUE5,A6WL04,A6WWC4,A7BKB8,A7FLE4,A7GSJ5,A7H552,A7H9E8,A7I2V7,A7IPK6,A7MFG0,A7MYC6,A7NCA4,A7Z6J5,A7ZIH3,A7ZX72,A8AK34,A8EWN0,A8FF11,A8FKB0,A8FYL0,A8G4R9,A8GAP2,A8H6X1,A8IBS1,A8L0K9,A8MFI7,A9BAC1,A9IQP2,A9ITB0,A9KMB8,A9KTL5,A9M1G3,A9M8W0,A9MM42,A9MX09,A9QZS3,A9VGD1,A9WRA9,B0B7P9,B0BBW4,B0BSL0,B0C8J3,B0CKC0,B0JL88,B0KL79,B0RC26,B0T3X7,B0TEJ5,B0TQ36,B0U0B3,B0U3E1,B0UUA4,B0V710,B0VQB8,B1HRX4,B1I3J6,B1J029,B1J3G4,B1JID8,B1K3S9,B1KQY8,B1LAQ3,B1LJH0,B1MCU7,B1VWJ8,B1WWM7,B1XF08,B1XKC5,B1Y2X5,B1YLQ5,B1Z1G2,B2A526,B2FN57,B2GJ56,B2I607,B2IDK3,B2J5P1,B2JP68,B2K6T7,B2RMK4,B2S462,B2S9T6,B2SGK5,B2SQV8,B2TRM5,B2U4M3,B2U930,B2V4R3,B2VHS3,B3DW88,B3H050,B3PF22,B3PS68,B3QFY7,B3R5H4,B4EN29,B4EU31,B4RGW0,B4RNW6,B4RVY8,B4SWR4,B4T8R3,B4TMA2,B4UHF5,B5BDB0,B5EXG3,B5FBG6,B5FKS7,B5QTH0,B5R6S3,B5Y0X1,B5YE06,B5Z3S5,B5ZAB7,B5ZS68,B6EIA7,B6HZM1,B6IRB5,B6YRV5,B7HB48,B7HNU0,B7IXG8,B7JM28,B7JVJ6,B7KAF7,B7L654,B7LMG7,B7M3Q9,B7MD78,B7MQD5,B7N8X3,B7NJ77,B7UJP3,B7V7R4,B7VJA1,B8CS19,B8D2I3,B8D7Z3,B8D9P1,B8E247,B8EAU7,B8F3A4,B8FQ45,B8GN62,B8GXC4,B8HH36,B8HWL8,B8JFY1,B8ZQW9,B9E104,B9E6Q6,B9JAL7,B9JSL2,B9L1L6,B9MEU8,C0Q7U7,C0RHE3,C0ZC10,C0ZYV9,C1AFE1,C1DAW8,C1F3C4,C1L2S1,C3K2R1,C3LJV1,C3LTD9,C3P7V6,C4K6M7,C4ZTH7,C5BCH9,C5D467,C6DB37,O22567,O25121,O67036,O78328,O83796,O84335,P0A555,P26242,P45205,P57536,P57848,P73067,P77488,P9WNS2,P9WNS3,Q02SL1,Q04U59,Q053M2,Q07SR3,Q07ZD4,Q0A8V7,Q0AFY6,Q0ARE5,Q0AZE2,Q0BAL8,Q0BLU9,Q0C154,Q0HGL5,Q0HSW6,Q0I3G1,Q0IAA6,Q0K860,Q0S1H1,Q0SS05,Q0TKM1,Q0TPD8,Q0VMI4,Q10ZY2,Q11KE0,Q11NY7,Q12CQ9,Q12L26,Q130G7,Q13RX1,Q14HJ1,Q15W93,Q16CP0,Q16DV7,Q18B68,Q1B9W8,Q1BLY7,Q1C4I9,Q1CL87,Q1CUF6,Q1D3G4,Q1GCG4,Q1GQK9,Q1GZD7,Q1IFL1,Q1IZP0,Q1LK34,Q1LTI9,Q1MKN4,Q1MRB3,Q1QE74,Q1QQ40,Q1R1E5,Q1RFC0,Q21A74,Q21F93,Q21UG7,Q24V05,Q253R7,Q28W25,Q28WA7,Q2A3D3,Q2GC13,Q2IPZ2,Q2IRL7,Q2JDD9,Q2JK64,Q2JTX2,Q2KBR2,Q2KZ15,Q2LUA7,Q2N6U5,Q2NV94,Q2P472,Q2RIB9,Q2RR29,Q2RYD6,Q2SA08,Q2T7N5,Q2W367,Q2YCH7,Q2YMF0,Q30TC5,Q30Z99,Q31AZ2,Q325I1,Q32JH8,Q38854,Q393P4,Q39RT4,Q39UB1,Q3A3Z6,Q3AAN0,Q3AJP8,Q3AXZ4,Q3B5P3,Q3BRW8,Q3II09,Q3IYR6,Q3J1A8,Q3JAD1,Q3JKA3,Q3K660,Q3KM28,Q3M4F6,Q3SKF1,Q3SUZ1,Q3Z4Y9,Q3Z8G9,Q3ZXC2,Q46L36,Q474C2,Q47BJ0,Q47NL9,Q487D3,Q48NX0,Q493G7,Q4FN07,Q4FV64,Q4JVB5,Q4K5A5,Q4QKG6,Q4UW29,Q4ZYU8,Q50000,Q57ET1,Q57SE2,Q5E6Z0,Q5FAI2,Q5FUB1,Q5H1A0,Q5HWF0,Q5L6H4,Q5LH44,Q5LX42,Q5NG39,Q5NM38,Q5NN52,Q5P228,Q5PFR6,Q5QVE8,Q5SMD7,Q5WF63,Q5YTA2,Q60AN1,Q62DU1,Q635A7,Q63JF4,Q64Y02,Q65HJ2,Q65TP4,Q66DV4,Q67NB6,Q6A8V3,Q6AFD5,Q6AJQ1,Q6D844,Q6F7N5,Q6G0D4,Q6G4D1,Q6HDY8,Q6LU07,Q6MDK6,Q6NB76,Q6NGV3,Q6YU51,Q71ZV7,Q72CD3,Q72H81,Q72U01,Q731B7,Q73LF4,Q73W57,Q74CB0,Q74FC3,Q75TB7,Q7M7Z0,Q7MN49,Q7MSZ3,Q7N0J7,Q7NP63,Q7NUK5,Q7U6P6,Q7UWB7,Q7V1G6,Q7V7Q3,Q7VC14,Q7VIJ7,Q7VNP7,Q7VRH9,Q7VV87,Q7W7Q0,Q7WL37,Q818R9,Q81M54,Q823V1,Q82KW8,Q82ML4,Q82VD3,Q83G46,Q83I20,Q83SG2,Q87C03,Q87RU0,Q889Q1,Q88QG7,Q894H0,Q89RW1,Q8A0C2,Q8CJP7,Q8D357,Q8DFA3,Q8DL74,Q8EGR9,Q8EWX7,Q8F153,Q8FKB9,Q8FPI2,Q8G292,Q8GAA0,Q8K9A1,Q8KFI9,Q8NPB2,Q8P815,Q8PJG7,Q8R639,Q8RAC5,Q8UHD7,Q8VUR8,Q8XE76,Q8XJE1,Q8XX95,Q8Y7C1,Q8YFM2,Q8YZ80,Q8Z8X3,Q8ZC45,Q8ZRD1,Q92BZ0,Q92RJ1,Q97HD5,Q985Y3,Q9A6M5,Q9F1V2,Q9JW13,Q9JXV7,Q9K971,Q9KGU7,Q9KTL3,Q9PB95,Q9PIH8,Q9PK62,Q9R6S7,Q9RBN6,Q9RUB5,Q9X291,Q9X7W3,Q9Z6J9,Q9ZM94</t>
+          <t xml:space="preserve">R05636_reverse: [] | DXS-RXN_reverse: [A0AIG6, A0AYZ0, A0JVG9, A0KNF9, A0KZA9, A0L6H3, A0PT40, A0Q0A4, A0Q6B9, A0QIL6, A0QW19, A0RMN5, A1A890, A1JNR7, A1K4R0, A1KM20, A1KS32, A1R5N7, A1RLV3, A1S8D4, A1SKM6, A1SWW6, A1T7Z0, A1TNR1, A1UF44, A1URW6, A1VE69, A1VMD7, A1VY40, A1W4U9, A1WN06, A2BR27, A2BWN6, A2C220, A2C9X1, A2SJ46, A3D2B2, A3MYS9, A3NMF6, A3P7W4, A3PCV0, A3PYK6, A3QGN9, A4FAQ5, A4IQR7, A4IXW5, A4QEQ9, A4SDG1, A4SJP9, A4TCS5, A4TPG2, A4VQS8, A4W791, A4XZ25, A4Y4X0, A4YQ36, A5D2Z6, A5EEQ0, A5F331, A5FRB9, A5GL34, A5GTT4, A5ILK2, A5N7J2, A5U634, A5UC51, A5UEV6, A5V6A9, A5VP09, A5VXW9, A6L175, A6LFB9, A6LU48, A6Q1Z6, A6T5F3, A6V058, A6VUE5, A6WL04, A6WWC4, A7BKB8, A7FLE4, A7GSJ5, A7H552, A7H9E8, A7I2V7, A7IPK6, A7MFG0, A7MYC6, A7NCA4, A7Z6J5, A7ZIH3, A7ZX72, A8AK34, A8EWN0, A8FF11, A8FKB0, A8FYL0, A8G4R9, A8GAP2, A8H6X1, A8IBS1, A8L0K9, A8MFI7, A9BAC1, A9IQP2, A9ITB0, A9KMB8, A9KTL5, A9M1G3, A9M8W0, A9MM42, A9MX09, A9QZS3, A9VGD1, A9WRA9, B0B7P9, B0BBW4, B0BSL0, B0C8J3, B0CKC0, B0JL88, B0KL79, B0RC26, B0T3X7, B0TEJ5, B0TQ36, B0U0B3, B0U3E1, B0UUA4, B0V710, B0VQB8, B1HRX4, B1I3J6, B1J029, B1J3G4, B1JID8, B1K3S9, B1KQY8, B1LAQ3, B1LJH0, B1MCU7, B1VWJ8, B1WWM7, B1XF08, B1XKC5, B1Y2X5, B1YLQ5, B1Z1G2, B2A526, B2FN57, B2GJ56, B2I607, B2IDK3, B2J5P1, B2JP68, B2K6T7, B2RMK4, B2S462, B2S9T6, B2SGK5, B2SQV8, B2TRM5, B2U4M3, B2U930, B2V4R3, B2VHS3, B3DW88, B3H050, B3PF22, B3PS68, B3QFY7, B3R5H4, B4EN29, B4EU31, B4RGW0, B4RNW6, B4RVY8, B4SWR4, B4T8R3, B4TMA2, B4UHF5, B5BDB0, B5EXG3, B5FBG6, B5FKS7, B5QTH0, B5R6S3, B5Y0X1, B5YE06, B5Z3S5, B5ZAB7, B5ZS68, B6EIA7, B6HZM1, B6IRB5, B6YRV5, B7HB48, B7HNU0, B7IXG8, B7JM28, B7JVJ6, B7KAF7, B7L654, B7LMG7, B7M3Q9, B7MD78, B7MQD5, B7N8X3, B7NJ77, B7UJP3, B7V7R4, B7VJA1, B8CS19, B8D2I3, B8D7Z3, B8D9P1, B8E247, B8EAU7, B8F3A4, B8FQ45, B8GN62, B8GXC4, B8HH36, B8HWL8, B8JFY1, B8ZQW9, B9E104, B9E6Q6, B9JAL7, B9JSL2, B9L1L6, B9MEU8, C0Q7U7, C0RHE3, C0ZC10, C0ZYV9, C1AFE1, C1DAW8, C1F3C4, C1L2S1, C3K2R1, C3LJV1, C3LTD9, C3P7V6, C4K6M7, C4ZTH7, C5BCH9, C5D467, C6DB37, O22567, O25121, O67036, O78328, O83796, O84335, P0A555, P26242, P45205, P57536, P57848, P73067, P77488, P9WNS2, P9WNS3, Q02SL1, Q04U59, Q053M2, Q07SR3, Q07ZD4, Q0A8V7, Q0AFY6, Q0ARE5, Q0AZE2, Q0BAL8, Q0BLU9, Q0C154, Q0HGL5, Q0HSW6, Q0I3G1, Q0IAA6, Q0K860, Q0S1H1, Q0SS05, Q0TKM1, Q0TPD8, Q0VMI4, Q10ZY2, Q11KE0, Q11NY7, Q12CQ9, Q12L26, Q130G7, Q13RX1, Q14HJ1, Q15W93, Q16CP0, Q16DV7, Q18B68, Q1B9W8, Q1BLY7, Q1C4I9, Q1CL87, Q1CUF6, Q1D3G4, Q1GCG4, Q1GQK9, Q1GZD7, Q1IFL1, Q1IZP0, Q1LK34, Q1LTI9, Q1MKN4, Q1MRB3, Q1QE74, Q1QQ40, Q1R1E5, Q1RFC0, Q21A74, Q21F93, Q21UG7, Q24V05, Q253R7, Q28W25, Q28WA7, Q2A3D3, Q2GC13, Q2IPZ2, Q2IRL7, Q2JDD9, Q2JK64, Q2JTX2, Q2KBR2, Q2KZ15, Q2LUA7, Q2N6U5, Q2NV94, Q2P472, Q2RIB9, Q2RR29, Q2RYD6, Q2SA08, Q2T7N5, Q2W367, Q2YCH7, Q2YMF0, Q30TC5, Q30Z99, Q31AZ2, Q325I1, Q32JH8, Q38854, Q393P4, Q39RT4, Q39UB1, Q3A3Z6, Q3AAN0, Q3AJP8, Q3AXZ4, Q3B5P3, Q3BRW8, Q3II09, Q3IYR6, Q3J1A8, Q3JAD1, Q3JKA3, Q3K660, Q3KM28, Q3M4F6, Q3SKF1, Q3SUZ1, Q3Z4Y9, Q3Z8G9, Q3ZXC2, Q46L36, Q474C2, Q47BJ0, Q47NL9, Q487D3, Q48NX0, Q493G7, Q4FN07, Q4FV64, Q4JVB5, Q4K5A5, Q4QKG6, Q4UW29, Q4ZYU8, Q50000, Q57ET1, Q57SE2, Q5E6Z0, Q5FAI2, Q5FUB1, Q5H1A0, Q5HWF0, Q5L6H4, Q5LH44, Q5LX42, Q5NG39, Q5NM38, Q5NN52, Q5P228, Q5PFR6, Q5QVE8, Q5SMD7, Q5WF63, Q5YTA2, Q60AN1, Q62DU1, Q635A7, Q63JF4, Q64Y02, Q65HJ2, Q65TP4, Q66DV4, Q67NB6, Q6A8V3, Q6AFD5, Q6AJQ1, Q6D844, Q6F7N5, Q6G0D4, Q6G4D1, Q6HDY8, Q6LU07, Q6MDK6, Q6NB76, Q6NGV3, Q6YU51, Q71ZV7, Q72CD3, Q72H81, Q72U01, Q731B7, Q73LF4, Q73W57, Q74CB0, Q74FC3, Q75TB7, Q7M7Z0, Q7MN49, Q7MSZ3, Q7N0J7, Q7NP63, Q7NUK5, Q7U6P6, Q7UWB7, Q7V1G6, Q7V7Q3, Q7VC14, Q7VIJ7, Q7VNP7, Q7VRH9, Q7VV87, Q7W7Q0, Q7WL37, Q818R9, Q81M54, Q823V1, Q82KW8, Q82ML4, Q82VD3, Q83G46, Q83I20, Q83SG2, Q87C03, Q87RU0, Q889Q1, Q88QG7, Q894H0, Q89RW1, Q8A0C2, Q8CJP7, Q8D357, Q8DFA3, Q8DL74, Q8EGR9, Q8EWX7, Q8F153, Q8FKB9, Q8FPI2, Q8G292, Q8GAA0, Q8K9A1, Q8KFI9, Q8NPB2, Q8P815, Q8PJG7, Q8R639, Q8RAC5, Q8UHD7, Q8VUR8, Q8XE76, Q8XJE1, Q8XX95, Q8Y7C1, Q8YFM2, Q8YZ80, Q8Z8X3, Q8ZC45, Q8ZRD1, Q92BZ0, Q92RJ1, Q97HD5, Q985Y3, Q9A6M5, Q9F1V2, Q9JW13, Q9JXV7, Q9K971, Q9KGU7, Q9KTL3, Q9PB95, Q9PIH8, Q9PK62, Q9R6S7, Q9RBN6, Q9RUB5, Q9X291, Q9X7W3, Q9Z6J9, Q9ZM94] | 2.2.1.7_06: [] | 2.2.1.7_05: [] | </t>
         </is>
       </c>
     </row>
@@ -6543,10 +8211,26 @@
       <c r="E18" t="n">
         <v>0.5156732395607069</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.1.1.15_11: [] | </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-15311: [] | </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-16543_reverse: [] | </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-14458: [] | 2.6.99.3 ()_1: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6570,20 +8254,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>P80193,Q19000,Q5R5D8,Q924Y0,Q98KK0,Q9QZU7</t>
+          <t xml:space="preserve">R02397_reverse: [] | 1.14.11.1_1: [] | 1.14.11.1-RXN: [P80193, Q19000, Q5R5D8, Q924Y0, Q98KK0, Q9QZU7] | </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN0-7141: [] | </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -6607,22 +8295,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D5FKJ3</t>
+          <t xml:space="preserve">RXN-14468_reverse: [] | 2.1.1.281 ()_1: [] | RXN-11456_reverse: [D5FKJ3] | R09939: [] | </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>P80193,Q19000,Q5R5D8,Q924Y0,Q98KK0,Q9QZU7</t>
+          <t xml:space="preserve">R02397_reverse: [] | 1.14.11.1_1: [] | 1.14.11.1-RXN: [P80193, Q19000, Q5R5D8, Q924Y0, Q98KK0, Q9QZU7] | </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>A1ADQ1,A4YXN2,A5EGD7,A7ZPI2,A8A2M8,B1IX88,B1LMH0,B1X9P6,B2TWX3,B3QBS6,B5YYX4,B6I6S5,B6JE29,B7LBS7,B7M6P3,B7MH34,B7MY33,B7N5X4,B7NPQ8,B7UG84,C4ZVR1,O06644,O87838,P69902,P69903,Q07Q82,Q0TF87,Q139H7,Q1R8Z2,Q217M3,Q2IUI7,Q31Y97,Q32DG9,Q3YZF6,Q6N8F8,Q82M40,Q89QH2,Q8FFE8,Q8XBR7</t>
+          <t xml:space="preserve">RXN0-1382: [A1ADQ1, A4YXN2, A5EGD7, A7ZPI2, A8A2M8, B1IX88, B1LMH0, B1X9P6, B2TWX3, B3QBS6, B5YYX4, B6I6S5, B6JE29, B7LBS7, B7M6P3, B7MH34, B7MY33, B7N5X4, B7NPQ8, B7UG84, C4ZVR1, O06644, O87838, P69902, P69903, Q07Q82, Q0TF87, Q139H7, Q1R8Z2, Q217M3, Q2IUI7, Q31Y97, Q32DG9, Q3YZF6, Q6N8F8, Q82M40, Q89QH2, Q8FFE8, Q8XBR7] | R07290: [] | 2.8.3.16_1: [] | </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>A2SP36</t>
+          <t xml:space="preserve">1.14.13.25_04: [] | 1.14.15.3_15: [] | 1.14.15.3_24: [] | 1.14.13.227_3: [] | RXN-17666_reverse: [] | RXN-17668_reverse: [] | RXN-17667_reverse: [] | 1.14.13.25_39: [] | RXN-17620_reverse: [] | RXN-17610_reverse: [A2SP36] | 1.14.13.229_1: [] | </t>
         </is>
       </c>
     </row>
@@ -6646,16 +8334,24 @@
       <c r="E21" t="n">
         <v>0.4374126183833734</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A4JPX5,A6TAC7,A7ZI96,A7ZWZ6,B1XBJ6,B2JQW2,B6HZX5,B7L505,B7M2Z7,B7MPB6,B7N8Q6,P77044,Q13QH4,Q400K3,Q476M7,Q47GC1,Q47HL4,Q49KF8,Q52532,Q8KZP5,Q8X5K0</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t xml:space="preserve">R02603: [] | MHPCHYDROL-RXN: [A4JPX5, A6TAC7, A7ZI96, A7ZWZ6, B1XBJ6, B2JQW2, B6HZX5, B7L505, B7M2Z7, B7MPB6, B7N8Q6, P77044, Q13QH4, Q400K3, Q476M7, Q47GC1, Q47HL4, Q49KF8, Q52532, Q8KZP5, Q8X5K0] | 3.7.1.14_1: [] | </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.6.1.18_08: [] | </t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6679,16 +8375,24 @@
       <c r="E22" t="n">
         <v>0.4163799876948296</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A4JPX5,A6TAC7,A7ZI96,A7ZWZ6,B1XBJ6,B2JQW2,B6HZX5,B7L505,B7M2Z7,B7MPB6,B7N8Q6,P77044,Q13QH4,Q400K3,Q476M7,Q47GC1,Q47HL4,Q49KF8,Q52532,Q8KZP5,Q8X5K0</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t xml:space="preserve">R02603: [] | MHPCHYDROL-RXN: [A4JPX5, A6TAC7, A7ZI96, A7ZWZ6, B1XBJ6, B2JQW2, B6HZX5, B7L505, B7M2Z7, B7MPB6, B7N8Q6, P77044, Q13QH4, Q400K3, Q476M7, Q47GC1, Q47HL4, Q49KF8, Q52532, Q8KZP5, Q8X5K0] | 3.7.1.14_1: [] | </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6712,16 +8416,24 @@
       <c r="E23" t="n">
         <v>0.4163799876948296</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A4JPX5,A6TAC7,A7ZI96,A7ZWZ6,B1XBJ6,B2JQW2,B6HZX5,B7L505,B7M2Z7,B7MPB6,B7N8Q6,P77044,Q13QH4,Q400K3,Q476M7,Q47GC1,Q47HL4,Q49KF8,Q52532,Q8KZP5,Q8X5K0</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t xml:space="preserve">R02603: [] | MHPCHYDROL-RXN: [A4JPX5, A6TAC7, A7ZI96, A7ZWZ6, B1XBJ6, B2JQW2, B6HZX5, B7L505, B7M2Z7, B7MPB6, B7N8Q6, P77044, Q13QH4, Q400K3, Q476M7, Q47GC1, Q47HL4, Q49KF8, Q52532, Q8KZP5, Q8X5K0] | 3.7.1.14_1: [] | </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.8.3.9_14: [] | </t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6806,12 +8518,24 @@
       <c r="E2" t="n">
         <v>0.6247146231757025</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.4.3.16_00: [] | </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.17.3.2_40: [] | </t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6835,16 +8559,24 @@
       <c r="E3" t="n">
         <v>0.6205684608000914</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.2.1.4_26: [] | </t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>O13755,P32614</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t xml:space="preserve">R00402_reverse: [] | FUMARATE-REDUCTASE-NADH-RXN: [O13755, P32614] | 1.3.1.6_5: [] | </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D0S1M8,P71362,Q1V6P8,Q43908;P26263;P26263,Q06408,Q07471;A2XFI3,A2Y5L9,A2YQ76,O42873,O82647,P16467,P26263,P28516,P33149,P33287,P34734,P51844,P51845,P51846,P51850,P51851,P83779,P87208,Q05326,Q05327,Q07471,Q09737,Q0CNV1,Q0D3D2,Q0DHF6,Q10MW3,Q12629,Q2UKV4,Q4WXX9,Q684J7,Q6FJA3,Q92345,Q9FFT4,Q9M039,Q9M040,Q9P7P6;P16467,P26263</t>
+          <t xml:space="preserve">R07650_reverse: [] | 4.1.1.86_0: [] | 4.1.1.86-RXN: [D0S1M8, P71362, Q1V6P8, Q43908] | R06614_reverse: [] | R00656_reverse: [] | METHIONINE-DECARBOXYLASE-RXN: [] | 4.1.1.57_2: [] | 4.1.1.14_03: [] | RXN-7704: [] | 4.1.1.72_19: [] | 4.1.1.43_05: [] | 4.1.1.1_19: [] | 4.1.1.86_4: [] | 4.1.1.72_33: [] | 4.1.1.43_11: [] | 4.1.1.1_38: [] | 4.1.1.72_34: [] | 4.1.1.1_39: [] | RXN-14985: [P26263] | 4.1.1.72_29: [] | 4.1.1.1_34: [] | 4.1.1.7_151: [] | 4.1.1.72_37: [] | 4.1.1.1_41: [] | R03894_reverse: [] | 4.1.1.7_062: [] | 4.1.1.72_04: [] | 4.1.1.72_03: [] | 4.1.1.72-RXN: [P26263, Q06408, Q07471] | 4.1.1.1_04: [] | VALINE-DECARBOXYLASE-RXN: [] | R01437_reverse: [] | 4.1.1.57_1: [] | 4.1.1.14_01: [] | RXN-7692: [A2XFI3, A2Y5L9, A2YQ76, O42873, O82647, P16467, P26263, P28516, P33149, P33287, P34734, P51844, P51845, P51846, P51850, P51851, P83779, P87208, Q05326, Q05327, Q07471, Q09737, Q0CNV1, Q0D3D2, Q0DHF6, Q10MW3, Q12629, Q2UKV4, Q4WXX9, Q684J7, Q6FJA3, Q92345, Q9FFT4, Q9M039, Q9M040, Q9P7P6] | 4.1.1.7_096: [] | 4.1.1.72_17: [] | 4.1.1.1_17: [] | RXN-7643: [P16467, P26263] | 4.1.1.7_145: [] | 4.1.1.72_32: [] | 4.1.1.1_37: [] | 2.2.1.6_12: [] | </t>
         </is>
       </c>
     </row>
@@ -6868,16 +8600,24 @@
       <c r="E4" t="n">
         <v>0.5594721742203267</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RXN-11727: [] | R09545_reverse: [] | 1.1.1.308_0: [] | </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.4.3.16_00: [] | </t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A4JPX5,A6TAC7,A7ZI96,A7ZWZ6,B1XBJ6,B2JQW2,B6HZX5,B7L505,B7M2Z7,B7MPB6,B7N8Q6,P77044,Q13QH4,Q400K3,Q476M7,Q47GC1,Q47HL4,Q49KF8,Q52532,Q8KZP5,Q8X5K0</t>
+          <t xml:space="preserve">R02603: [] | MHPCHYDROL-RXN: [A4JPX5, A6TAC7, A7ZI96, A7ZWZ6, B1XBJ6, B2JQW2, B6HZX5, B7L505, B7M2Z7, B7MPB6, B7N8Q6, P77044, Q13QH4, Q400K3, Q476M7, Q47GC1, Q47HL4, Q49KF8, Q52532, Q8KZP5, Q8X5K0] | 3.7.1.14_1: [] | </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>A0AIG6,A0AYZ0,A0JVG9,A0KNF9,A0KZA9,A0L6H3,A0PT40,A0Q0A4,A0Q6B9,A0QIL6,A0QW19,A0RMN5,A1A890,A1JNR7,A1K4R0,A1KM20,A1KS32,A1R5N7,A1RLV3,A1S8D4,A1SKM6,A1SWW6,A1T7Z0,A1TNR1,A1UF44,A1URW6,A1VE69,A1VMD7,A1VY40,A1W4U9,A1WN06,A2BR27,A2BWN6,A2C220,A2C9X1,A2SJ46,A3D2B2,A3MYS9,A3NMF6,A3P7W4,A3PCV0,A3PYK6,A3QGN9,A4FAQ5,A4IQR7,A4IXW5,A4QEQ9,A4SDG1,A4SJP9,A4TCS5,A4TPG2,A4VQS8,A4W791,A4XZ25,A4Y4X0,A4YQ36,A5D2Z6,A5EEQ0,A5F331,A5FRB9,A5GL34,A5GTT4,A5ILK2,A5N7J2,A5U634,A5UC51,A5UEV6,A5V6A9,A5VP09,A5VXW9,A6L175,A6LFB9,A6LU48,A6Q1Z6,A6T5F3,A6V058,A6VUE5,A6WL04,A6WWC4,A7BKB8,A7FLE4,A7GSJ5,A7H552,A7H9E8,A7I2V7,A7IPK6,A7MFG0,A7MYC6,A7NCA4,A7Z6J5,A7ZIH3,A7ZX72,A8AK34,A8EWN0,A8FF11,A8FKB0,A8FYL0,A8G4R9,A8GAP2,A8H6X1,A8IBS1,A8L0K9,A8MFI7,A9BAC1,A9IQP2,A9ITB0,A9KMB8,A9KTL5,A9M1G3,A9M8W0,A9MM42,A9MX09,A9QZS3,A9VGD1,A9WRA9,B0B7P9,B0BBW4,B0BSL0,B0C8J3,B0CKC0,B0JL88,B0KL79,B0RC26,B0T3X7,B0TEJ5,B0TQ36,B0U0B3,B0U3E1,B0UUA4,B0V710,B0VQB8,B1HRX4,B1I3J6,B1J029,B1J3G4,B1JID8,B1K3S9,B1KQY8,B1LAQ3,B1LJH0,B1MCU7,B1VWJ8,B1WWM7,B1XF08,B1XKC5,B1Y2X5,B1YLQ5,B1Z1G2,B2A526,B2FN57,B2GJ56,B2I607,B2IDK3,B2J5P1,B2JP68,B2K6T7,B2RMK4,B2S462,B2S9T6,B2SGK5,B2SQV8,B2TRM5,B2U4M3,B2U930,B2V4R3,B2VHS3,B3DW88,B3H050,B3PF22,B3PS68,B3QFY7,B3R5H4,B4EN29,B4EU31,B4RGW0,B4RNW6,B4RVY8,B4SWR4,B4T8R3,B4TMA2,B4UHF5,B5BDB0,B5EXG3,B5FBG6,B5FKS7,B5QTH0,B5R6S3,B5Y0X1,B5YE06,B5Z3S5,B5ZAB7,B5ZS68,B6EIA7,B6HZM1,B6IRB5,B6YRV5,B7HB48,B7HNU0,B7IXG8,B7JM28,B7JVJ6,B7KAF7,B7L654,B7LMG7,B7M3Q9,B7MD78,B7MQD5,B7N8X3,B7NJ77,B7UJP3,B7V7R4,B7VJA1,B8CS19,B8D2I3,B8D7Z3,B8D9P1,B8E247,B8EAU7,B8F3A4,B8FQ45,B8GN62,B8GXC4,B8HH36,B8HWL8,B8JFY1,B8ZQW9,B9E104,B9E6Q6,B9JAL7,B9JSL2,B9L1L6,B9MEU8,C0Q7U7,C0RHE3,C0ZC10,C0ZYV9,C1AFE1,C1DAW8,C1F3C4,C1L2S1,C3K2R1,C3LJV1,C3LTD9,C3P7V6,C4K6M7,C4ZTH7,C5BCH9,C5D467,C6DB37,O22567,O25121,O67036,O78328,O83796,O84335,P0A555,P26242,P45205,P57536,P57848,P73067,P77488,P9WNS2,P9WNS3,Q02SL1,Q04U59,Q053M2,Q07SR3,Q07ZD4,Q0A8V7,Q0AFY6,Q0ARE5,Q0AZE2,Q0BAL8,Q0BLU9,Q0C154,Q0HGL5,Q0HSW6,Q0I3G1,Q0IAA6,Q0K860,Q0S1H1,Q0SS05,Q0TKM1,Q0TPD8,Q0VMI4,Q10ZY2,Q11KE0,Q11NY7,Q12CQ9,Q12L26,Q130G7,Q13RX1,Q14HJ1,Q15W93,Q16CP0,Q16DV7,Q18B68,Q1B9W8,Q1BLY7,Q1C4I9,Q1CL87,Q1CUF6,Q1D3G4,Q1GCG4,Q1GQK9,Q1GZD7,Q1IFL1,Q1IZP0,Q1LK34,Q1LTI9,Q1MKN4,Q1MRB3,Q1QE74,Q1QQ40,Q1R1E5,Q1RFC0,Q21A74,Q21F93,Q21UG7,Q24V05,Q253R7,Q28W25,Q28WA7,Q2A3D3,Q2GC13,Q2IPZ2,Q2IRL7,Q2JDD9,Q2JK64,Q2JTX2,Q2KBR2,Q2KZ15,Q2LUA7,Q2N6U5,Q2NV94,Q2P472,Q2RIB9,Q2RR29,Q2RYD6,Q2SA08,Q2T7N5,Q2W367,Q2YCH7,Q2YMF0,Q30TC5,Q30Z99,Q31AZ2,Q325I1,Q32JH8,Q38854,Q393P4,Q39RT4,Q39UB1,Q3A3Z6,Q3AAN0,Q3AJP8,Q3AXZ4,Q3B5P3,Q3BRW8,Q3II09,Q3IYR6,Q3J1A8,Q3JAD1,Q3JKA3,Q3K660,Q3KM28,Q3M4F6,Q3SKF1,Q3SUZ1,Q3Z4Y9,Q3Z8G9,Q3ZXC2,Q46L36,Q474C2,Q47BJ0,Q47NL9,Q487D3,Q48NX0,Q493G7,Q4FN07,Q4FV64,Q4JVB5,Q4K5A5,Q4QKG6,Q4UW29,Q4ZYU8,Q50000,Q57ET1,Q57SE2,Q5E6Z0,Q5FAI2,Q5FUB1,Q5H1A0,Q5HWF0,Q5L6H4,Q5LH44,Q5LX42,Q5NG39,Q5NM38,Q5NN52,Q5P228,Q5PFR6,Q5QVE8,Q5SMD7,Q5WF63,Q5YTA2,Q60AN1,Q62DU1,Q635A7,Q63JF4,Q64Y02,Q65HJ2,Q65TP4,Q66DV4,Q67NB6,Q6A8V3,Q6AFD5,Q6AJQ1,Q6D844,Q6F7N5,Q6G0D4,Q6G4D1,Q6HDY8,Q6LU07,Q6MDK6,Q6NB76,Q6NGV3,Q6YU51,Q71ZV7,Q72CD3,Q72H81,Q72U01,Q731B7,Q73LF4,Q73W57,Q74CB0,Q74FC3,Q75TB7,Q7M7Z0,Q7MN49,Q7MSZ3,Q7N0J7,Q7NP63,Q7NUK5,Q7U6P6,Q7UWB7,Q7V1G6,Q7V7Q3,Q7VC14,Q7VIJ7,Q7VNP7,Q7VRH9,Q7VV87,Q7W7Q0,Q7WL37,Q818R9,Q81M54,Q823V1,Q82KW8,Q82ML4,Q82VD3,Q83G46,Q83I20,Q83SG2,Q87C03,Q87RU0,Q889Q1,Q88QG7,Q894H0,Q89RW1,Q8A0C2,Q8CJP7,Q8D357,Q8DFA3,Q8DL74,Q8EGR9,Q8EWX7,Q8F153,Q8FKB9,Q8FPI2,Q8G292,Q8GAA0,Q8K9A1,Q8KFI9,Q8NPB2,Q8P815,Q8PJG7,Q8R639,Q8RAC5,Q8UHD7,Q8VUR8,Q8XE76,Q8XJE1,Q8XX95,Q8Y7C1,Q8YFM2,Q8YZ80,Q8Z8X3,Q8ZC45,Q8ZRD1,Q92BZ0,Q92RJ1,Q97HD5,Q985Y3,Q9A6M5,Q9F1V2,Q9JW13,Q9JXV7,Q9K971,Q9KGU7,Q9KTL3,Q9PB95,Q9PIH8,Q9PK62,Q9R6S7,Q9RBN6,Q9RUB5,Q9X291,Q9X7W3,Q9Z6J9,Q9ZM94</t>
+          <t xml:space="preserve">R05636_reverse: [] | DXS-RXN_reverse: [A0AIG6, A0AYZ0, A0JVG9, A0KNF9, A0KZA9, A0L6H3, A0PT40, A0Q0A4, A0Q6B9, A0QIL6, A0QW19, A0RMN5, A1A890, A1JNR7, A1K4R0, A1KM20, A1KS32, A1R5N7, A1RLV3, A1S8D4, A1SKM6, A1SWW6, A1T7Z0, A1TNR1, A1UF44, A1URW6, A1VE69, A1VMD7, A1VY40, A1W4U9, A1WN06, A2BR27, A2BWN6, A2C220, A2C9X1, A2SJ46, A3D2B2, A3MYS9, A3NMF6, A3P7W4, A3PCV0, A3PYK6, A3QGN9, A4FAQ5, A4IQR7, A4IXW5, A4QEQ9, A4SDG1, A4SJP9, A4TCS5, A4TPG2, A4VQS8, A4W791, A4XZ25, A4Y4X0, A4YQ36, A5D2Z6, A5EEQ0, A5F331, A5FRB9, A5GL34, A5GTT4, A5ILK2, A5N7J2, A5U634, A5UC51, A5UEV6, A5V6A9, A5VP09, A5VXW9, A6L175, A6LFB9, A6LU48, A6Q1Z6, A6T5F3, A6V058, A6VUE5, A6WL04, A6WWC4, A7BKB8, A7FLE4, A7GSJ5, A7H552, A7H9E8, A7I2V7, A7IPK6, A7MFG0, A7MYC6, A7NCA4, A7Z6J5, A7ZIH3, A7ZX72, A8AK34, A8EWN0, A8FF11, A8FKB0, A8FYL0, A8G4R9, A8GAP2, A8H6X1, A8IBS1, A8L0K9, A8MFI7, A9BAC1, A9IQP2, A9ITB0, A9KMB8, A9KTL5, A9M1G3, A9M8W0, A9MM42, A9MX09, A9QZS3, A9VGD1, A9WRA9, B0B7P9, B0BBW4, B0BSL0, B0C8J3, B0CKC0, B0JL88, B0KL79, B0RC26, B0T3X7, B0TEJ5, B0TQ36, B0U0B3, B0U3E1, B0UUA4, B0V710, B0VQB8, B1HRX4, B1I3J6, B1J029, B1J3G4, B1JID8, B1K3S9, B1KQY8, B1LAQ3, B1LJH0, B1MCU7, B1VWJ8, B1WWM7, B1XF08, B1XKC5, B1Y2X5, B1YLQ5, B1Z1G2, B2A526, B2FN57, B2GJ56, B2I607, B2IDK3, B2J5P1, B2JP68, B2K6T7, B2RMK4, B2S462, B2S9T6, B2SGK5, B2SQV8, B2TRM5, B2U4M3, B2U930, B2V4R3, B2VHS3, B3DW88, B3H050, B3PF22, B3PS68, B3QFY7, B3R5H4, B4EN29, B4EU31, B4RGW0, B4RNW6, B4RVY8, B4SWR4, B4T8R3, B4TMA2, B4UHF5, B5BDB0, B5EXG3, B5FBG6, B5FKS7, B5QTH0, B5R6S3, B5Y0X1, B5YE06, B5Z3S5, B5ZAB7, B5ZS68, B6EIA7, B6HZM1, B6IRB5, B6YRV5, B7HB48, B7HNU0, B7IXG8, B7JM28, B7JVJ6, B7KAF7, B7L654, B7LMG7, B7M3Q9, B7MD78, B7MQD5, B7N8X3, B7NJ77, B7UJP3, B7V7R4, B7VJA1, B8CS19, B8D2I3, B8D7Z3, B8D9P1, B8E247, B8EAU7, B8F3A4, B8FQ45, B8GN62, B8GXC4, B8HH36, B8HWL8, B8JFY1, B8ZQW9, B9E104, B9E6Q6, B9JAL7, B9JSL2, B9L1L6, B9MEU8, C0Q7U7, C0RHE3, C0ZC10, C0ZYV9, C1AFE1, C1DAW8, C1F3C4, C1L2S1, C3K2R1, C3LJV1, C3LTD9, C3P7V6, C4K6M7, C4ZTH7, C5BCH9, C5D467, C6DB37, O22567, O25121, O67036, O78328, O83796, O84335, P0A555, P26242, P45205, P57536, P57848, P73067, P77488, P9WNS2, P9WNS3, Q02SL1, Q04U59, Q053M2, Q07SR3, Q07ZD4, Q0A8V7, Q0AFY6, Q0ARE5, Q0AZE2, Q0BAL8, Q0BLU9, Q0C154, Q0HGL5, Q0HSW6, Q0I3G1, Q0IAA6, Q0K860, Q0S1H1, Q0SS05, Q0TKM1, Q0TPD8, Q0VMI4, Q10ZY2, Q11KE0, Q11NY7, Q12CQ9, Q12L26, Q130G7, Q13RX1, Q14HJ1, Q15W93, Q16CP0, Q16DV7, Q18B68, Q1B9W8, Q1BLY7, Q1C4I9, Q1CL87, Q1CUF6, Q1D3G4, Q1GCG4, Q1GQK9, Q1GZD7, Q1IFL1, Q1IZP0, Q1LK34, Q1LTI9, Q1MKN4, Q1MRB3, Q1QE74, Q1QQ40, Q1R1E5, Q1RFC0, Q21A74, Q21F93, Q21UG7, Q24V05, Q253R7, Q28W25, Q28WA7, Q2A3D3, Q2GC13, Q2IPZ2, Q2IRL7, Q2JDD9, Q2JK64, Q2JTX2, Q2KBR2, Q2KZ15, Q2LUA7, Q2N6U5, Q2NV94, Q2P472, Q2RIB9, Q2RR29, Q2RYD6, Q2SA08, Q2T7N5, Q2W367, Q2YCH7, Q2YMF0, Q30TC5, Q30Z99, Q31AZ2, Q325I1, Q32JH8, Q38854, Q393P4, Q39RT4, Q39UB1, Q3A3Z6, Q3AAN0, Q3AJP8, Q3AXZ4, Q3B5P3, Q3BRW8, Q3II09, Q3IYR6, Q3J1A8, Q3JAD1, Q3JKA3, Q3K660, Q3KM28, Q3M4F6, Q3SKF1, Q3SUZ1, Q3Z4Y9, Q3Z8G9, Q3ZXC2, Q46L36, Q474C2, Q47BJ0, Q47NL9, Q487D3, Q48NX0, Q493G7, Q4FN07, Q4FV64, Q4JVB5, Q4K5A5, Q4QKG6, Q4UW29, Q4ZYU8, Q50000, Q57ET1, Q57SE2, Q5E6Z0, Q5FAI2, Q5FUB1, Q5H1A0, Q5HWF0, Q5L6H4, Q5LH44, Q5LX42, Q5NG39, Q5NM38, Q5NN52, Q5P228, Q5PFR6, Q5QVE8, Q5SMD7, Q5WF63, Q5YTA2, Q60AN1, Q62DU1, Q635A7, Q63JF4, Q64Y02, Q65HJ2, Q65TP4, Q66DV4, Q67NB6, Q6A8V3, Q6AFD5, Q6AJQ1, Q6D844, Q6F7N5, Q6G0D4, Q6G4D1, Q6HDY8, Q6LU07, Q6MDK6, Q6NB76, Q6NGV3, Q6YU51, Q71ZV7, Q72CD3, Q72H81, Q72U01, Q731B7, Q73LF4, Q73W57, Q74CB0, Q74FC3, Q75TB7, Q7M7Z0, Q7MN49, Q7MSZ3, Q7N0J7, Q7NP63, Q7NUK5, Q7U6P6, Q7UWB7, Q7V1G6, Q7V7Q3, Q7VC14, Q7VIJ7, Q7VNP7, Q7VRH9, Q7VV87, Q7W7Q0, Q7WL37, Q818R9, Q81M54, Q823V1, Q82KW8, Q82ML4, Q82VD3, Q83G46, Q83I20, Q83SG2, Q87C03, Q87RU0, Q889Q1, Q88QG7, Q894H0, Q89RW1, Q8A0C2, Q8CJP7, Q8D357, Q8DFA3, Q8DL74, Q8EGR9, Q8EWX7, Q8F153, Q8FKB9, Q8FPI2, Q8G292, Q8GAA0, Q8K9A1, Q8KFI9, Q8NPB2, Q8P815, Q8PJG7, Q8R639, Q8RAC5, Q8UHD7, Q8VUR8, Q8XE76, Q8XJE1, Q8XX95, Q8Y7C1, Q8YFM2, Q8YZ80, Q8Z8X3, Q8ZC45, Q8ZRD1, Q92BZ0, Q92RJ1, Q97HD5, Q985Y3, Q9A6M5, Q9F1V2, Q9JW13, Q9JXV7, Q9K971, Q9KGU7, Q9KTL3, Q9PB95, Q9PIH8, Q9PK62, Q9R6S7, Q9RBN6, Q9RUB5, Q9X291, Q9X7W3, Q9Z6J9, Q9ZM94] | 2.2.1.7_06: [] | 2.2.1.7_05: [] | </t>
         </is>
       </c>
     </row>
